--- a/Team2_Defect_Tracking_Log.xlsx
+++ b/Team2_Defect_Tracking_Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF32628-D889-4061-86BD-27280A91CD4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="10680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Defect Tracking Log" sheetId="1" r:id="rId1"/>
@@ -23,12 +22,20 @@
     <definedName name="Priority">'Defect Tracking Log'!#REF!</definedName>
     <definedName name="Status">'Defect Tracking Log'!$U$10:$U$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="124">
   <si>
     <t>Defect Tracking Log Instructions</t>
   </si>
@@ -367,7 +374,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>test_role_controller</t>
     </r>
@@ -381,7 +387,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>ser</t>
     </r>
@@ -450,7 +455,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>uccessfully get the token
 Sucessfully create new sprint by admin ID
@@ -466,7 +470,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>ass</t>
     </r>
@@ -480,7 +483,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>ome probems with Sprint that only one project can only have one sprint.</t>
     </r>
@@ -494,17 +496,108 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>one</t>
     </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>python unittest</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application Backend-- test_teamcontrller</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>app/api_module/test_team_controller.py</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Get admin token first
+Test to create new team by admin ID
+</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application Backend-- test_task_contrller</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>app/api_module/test_task_controller.py</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get admin token first
+Test to create new task by admin ID
+test to create new task tracking by admin ID
+test to update task by admin ID
+test to delete task tracking by admin ID</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">uccessfully get the token
+Sucessfully create new team by admin ID
+</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully get the token
+Sucessfully create new task by admin ID, but one task only can match one employee, one employee only can have one task.
+Sucessfully create new task tracking 
+Sucessfully update task, but if I update a employee who already have task to a task, there will be error</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>partly pass</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>task should have one or many employee. And employee should work on one or more task.</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm/dd/yy"/>
   </numFmts>
@@ -810,16 +903,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,7 +1061,7 @@
         <xdr:cNvPr id="1030" name="Rectangle 6" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1017,7 +1110,7 @@
         <xdr:cNvPr id="2" name="AutoShape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1063,15 +1156,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>163830</xdr:colOff>
+          <xdr:colOff>165100</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>87630</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>1573530</xdr:colOff>
+          <xdr:colOff>1574800</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>601980</xdr:rowOff>
+          <xdr:rowOff>596900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1081,7 +1174,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1096,11 +1189,11 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -1118,15 +1211,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>163830</xdr:colOff>
+          <xdr:colOff>165100</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>868680</xdr:rowOff>
+          <xdr:rowOff>863600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>1348740</xdr:colOff>
+          <xdr:colOff>1346200</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>1383030</xdr:rowOff>
+          <xdr:rowOff>1384300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1136,7 +1229,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000030C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1151,11 +1244,11 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -1186,7 +1279,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B3200E-B604-4C6C-AC22-3C10CA8B8760}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0B3200E-B604-4C6C-AC22-3C10CA8B8760}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1236,7 +1329,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB581A0-BE43-4397-A155-C6217ADD98A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBB581A0-BE43-4397-A155-C6217ADD98A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1379,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5370A6-AD90-47F9-B125-6121CF871A59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A5370A6-AD90-47F9-B125-6121CF871A59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1429,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D89DD1-C8B2-4F62-8F8A-47C535B69809}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0D89DD1-C8B2-4F62-8F8A-47C535B69809}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1479,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A084E51E-A45E-4100-8DF6-C6E441C41DF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A084E51E-A45E-4100-8DF6-C6E441C41DF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1529,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A735560F-7D6C-4E1B-B669-A8E53D725CEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A735560F-7D6C-4E1B-B669-A8E53D725CEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,32 +1826,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="15.27734375" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="11.71875" customWidth="1"/>
-    <col min="11" max="11" width="11.27734375" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
-    <col min="13" max="14" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.83203125" customWidth="1"/>
-    <col min="16" max="16" width="11.27734375" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
     <col min="18" max="18" width="8" customWidth="1"/>
     <col min="19" max="19" width="8" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="0.1640625" hidden="1" customWidth="1"/>
@@ -1768,7 +1861,7 @@
     <col min="28" max="28" width="0.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
@@ -1788,8 +1881,8 @@
       <c r="O1" s="32"/>
       <c r="P1" s="33"/>
     </row>
-    <row r="2" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -1802,7 +1895,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>28</v>
       </c>
@@ -1815,8 +1908,8 @@
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
     </row>
-    <row r="5" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
         <v>33</v>
       </c>
@@ -1837,7 +1930,7 @@
       <c r="P6" s="35"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>35</v>
       </c>
@@ -1857,8 +1950,8 @@
       <c r="O7" s="35"/>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
         <v>37</v>
       </c>
@@ -1923,7 +2016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="25" customFormat="1" ht="110.7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" s="25" customFormat="1" ht="104" x14ac:dyDescent="0.15">
       <c r="A10" s="27">
         <v>1</v>
       </c>
@@ -1983,7 +2076,7 @@
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
     </row>
-    <row r="11" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:P1"/>
@@ -1992,10 +2085,10 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H10">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="G10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="G10">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2006,27 +2099,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="58.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
     <col min="3" max="12" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2034,7 +2127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2042,7 +2135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2050,7 +2143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -2058,7 +2151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>79</v>
       </c>
@@ -2066,7 +2159,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -2074,7 +2167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -2082,7 +2175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="37" t="s">
         <v>29</v>
       </c>
@@ -2090,31 +2183,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="39"/>
       <c r="B14" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40" t="s">
         <v>41</v>
       </c>
@@ -2122,31 +2215,31 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A19" s="39"/>
       <c r="B19" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>43</v>
       </c>
@@ -2154,7 +2247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -2162,7 +2255,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>58</v>
       </c>
@@ -2170,7 +2263,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
@@ -2178,7 +2271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>61</v>
       </c>
@@ -2186,7 +2279,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>49</v>
       </c>
@@ -2194,7 +2287,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>50</v>
       </c>
@@ -2202,7 +2295,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
         <v>67</v>
       </c>
@@ -2210,11 +2303,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A10:A14"/>
@@ -2226,34 +2319,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.71875" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="24" customWidth="1"/>
     <col min="3" max="3" width="15" style="24" customWidth="1"/>
-    <col min="4" max="4" width="20.38671875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.38671875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="12.27734375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="34.71875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.71875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="25" style="24" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" style="17" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="17" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.71875" style="24" customWidth="1"/>
-    <col min="14" max="16384" width="14.44140625" style="24"/>
+    <col min="13" max="13" width="14.6640625" style="24" customWidth="1"/>
+    <col min="14" max="16384" width="14.5" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
@@ -2306,7 +2399,7 @@
       <c r="X1" s="23"/>
       <c r="Y1" s="23"/>
     </row>
-    <row r="2" spans="1:25" s="21" customFormat="1" ht="172.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" s="21" customFormat="1" ht="156" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>83</v>
       </c>
@@ -2355,7 +2448,7 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="1:25" s="21" customFormat="1" ht="184.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" s="21" customFormat="1" ht="182" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
         <v>83</v>
       </c>
@@ -2404,7 +2497,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="1:25" s="21" customFormat="1" ht="109.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" s="21" customFormat="1" ht="109.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
         <v>83</v>
       </c>
@@ -2455,28 +2548,77 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+    <row r="5" spans="1:25" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="21" customFormat="1" ht="172" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>121</v>
+      </c>
       <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="K6" s="19" t="s">
+        <v>122</v>
+      </c>
       <c r="L6" s="19"/>
-      <c r="M6" s="18"/>
+      <c r="M6" s="19" t="s">
+        <v>123</v>
+      </c>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
@@ -2490,7 +2632,7 @@
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
     </row>
-    <row r="7" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="18"/>
@@ -2517,7 +2659,7 @@
       <c r="X7" s="18"/>
       <c r="Y7" s="18"/>
     </row>
-    <row r="8" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
@@ -2544,7 +2686,7 @@
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
     </row>
-    <row r="9" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="18"/>
@@ -2571,7 +2713,7 @@
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
     </row>
-    <row r="10" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -2598,7 +2740,7 @@
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
@@ -2625,7 +2767,7 @@
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
     </row>
-    <row r="12" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -2652,7 +2794,7 @@
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
     </row>
-    <row r="13" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -2679,7 +2821,7 @@
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
     </row>
-    <row r="14" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -2706,7 +2848,7 @@
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
     </row>
-    <row r="15" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -2733,7 +2875,7 @@
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
     </row>
-    <row r="16" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2760,7 +2902,7 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
     </row>
-    <row r="17" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2787,7 +2929,7 @@
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
     </row>
-    <row r="18" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -2814,7 +2956,7 @@
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
     </row>
-    <row r="19" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2841,7 +2983,7 @@
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
     </row>
-    <row r="20" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2868,7 +3010,7 @@
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -2895,7 +3037,7 @@
       <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2922,7 +3064,7 @@
       <c r="X22" s="23"/>
       <c r="Y22" s="23"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -2949,7 +3091,7 @@
       <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -2976,7 +3118,7 @@
       <c r="X24" s="23"/>
       <c r="Y24" s="23"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -3003,7 +3145,7 @@
       <c r="X25" s="23"/>
       <c r="Y25" s="23"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -3030,7 +3172,7 @@
       <c r="X26" s="23"/>
       <c r="Y26" s="23"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -3057,7 +3199,7 @@
       <c r="X27" s="23"/>
       <c r="Y27" s="23"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -3084,7 +3226,7 @@
       <c r="X28" s="23"/>
       <c r="Y28" s="23"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -3111,7 +3253,7 @@
       <c r="X29" s="23"/>
       <c r="Y29" s="23"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -3138,7 +3280,7 @@
       <c r="X30" s="23"/>
       <c r="Y30" s="23"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -3165,7 +3307,7 @@
       <c r="X31" s="23"/>
       <c r="Y31" s="23"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -3192,7 +3334,7 @@
       <c r="X32" s="23"/>
       <c r="Y32" s="23"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -3219,7 +3361,7 @@
       <c r="X33" s="23"/>
       <c r="Y33" s="23"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -3246,7 +3388,7 @@
       <c r="X34" s="23"/>
       <c r="Y34" s="23"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -3273,7 +3415,7 @@
       <c r="X35" s="23"/>
       <c r="Y35" s="23"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -3300,7 +3442,7 @@
       <c r="X36" s="23"/>
       <c r="Y36" s="23"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -3327,7 +3469,7 @@
       <c r="X37" s="23"/>
       <c r="Y37" s="23"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -3354,7 +3496,7 @@
       <c r="X38" s="23"/>
       <c r="Y38" s="23"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -3381,7 +3523,7 @@
       <c r="X39" s="23"/>
       <c r="Y39" s="23"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -3408,7 +3550,7 @@
       <c r="X40" s="23"/>
       <c r="Y40" s="23"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -3435,7 +3577,7 @@
       <c r="X41" s="23"/>
       <c r="Y41" s="23"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -3462,7 +3604,7 @@
       <c r="X42" s="23"/>
       <c r="Y42" s="23"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -3489,7 +3631,7 @@
       <c r="X43" s="23"/>
       <c r="Y43" s="23"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -3516,7 +3658,7 @@
       <c r="X44" s="23"/>
       <c r="Y44" s="23"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -3543,7 +3685,7 @@
       <c r="X45" s="23"/>
       <c r="Y45" s="23"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -3570,7 +3712,7 @@
       <c r="X46" s="23"/>
       <c r="Y46" s="23"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -3597,7 +3739,7 @@
       <c r="X47" s="23"/>
       <c r="Y47" s="23"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -3624,7 +3766,7 @@
       <c r="X48" s="23"/>
       <c r="Y48" s="23"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -3651,7 +3793,7 @@
       <c r="X49" s="23"/>
       <c r="Y49" s="23"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A50" s="23"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -3678,7 +3820,7 @@
       <c r="X50" s="23"/>
       <c r="Y50" s="23"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -3705,7 +3847,7 @@
       <c r="X51" s="23"/>
       <c r="Y51" s="23"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A52" s="23"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -3732,7 +3874,7 @@
       <c r="X52" s="23"/>
       <c r="Y52" s="23"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A53" s="23"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -3759,7 +3901,7 @@
       <c r="X53" s="23"/>
       <c r="Y53" s="23"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A54" s="23"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -3786,7 +3928,7 @@
       <c r="X54" s="23"/>
       <c r="Y54" s="23"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A55" s="23"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -3813,7 +3955,7 @@
       <c r="X55" s="23"/>
       <c r="Y55" s="23"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -3840,7 +3982,7 @@
       <c r="X56" s="23"/>
       <c r="Y56" s="23"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -3867,7 +4009,7 @@
       <c r="X57" s="23"/>
       <c r="Y57" s="23"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -3894,7 +4036,7 @@
       <c r="X58" s="23"/>
       <c r="Y58" s="23"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -3921,7 +4063,7 @@
       <c r="X59" s="23"/>
       <c r="Y59" s="23"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -3948,7 +4090,7 @@
       <c r="X60" s="23"/>
       <c r="Y60" s="23"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A61" s="23"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -3975,7 +4117,7 @@
       <c r="X61" s="23"/>
       <c r="Y61" s="23"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -4002,7 +4144,7 @@
       <c r="X62" s="23"/>
       <c r="Y62" s="23"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A63" s="23"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -4029,7 +4171,7 @@
       <c r="X63" s="23"/>
       <c r="Y63" s="23"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A64" s="23"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
@@ -4056,7 +4198,7 @@
       <c r="X64" s="23"/>
       <c r="Y64" s="23"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
@@ -4083,7 +4225,7 @@
       <c r="X65" s="23"/>
       <c r="Y65" s="23"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A66" s="23"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
@@ -4110,7 +4252,7 @@
       <c r="X66" s="23"/>
       <c r="Y66" s="23"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A67" s="23"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -4137,7 +4279,7 @@
       <c r="X67" s="23"/>
       <c r="Y67" s="23"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A68" s="23"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
@@ -4164,7 +4306,7 @@
       <c r="X68" s="23"/>
       <c r="Y68" s="23"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A69" s="23"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
@@ -4191,7 +4333,7 @@
       <c r="X69" s="23"/>
       <c r="Y69" s="23"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
@@ -4218,7 +4360,7 @@
       <c r="X70" s="23"/>
       <c r="Y70" s="23"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
@@ -4245,7 +4387,7 @@
       <c r="X71" s="23"/>
       <c r="Y71" s="23"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
@@ -4272,7 +4414,7 @@
       <c r="X72" s="23"/>
       <c r="Y72" s="23"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A73" s="23"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
@@ -4299,7 +4441,7 @@
       <c r="X73" s="23"/>
       <c r="Y73" s="23"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
@@ -4326,7 +4468,7 @@
       <c r="X74" s="23"/>
       <c r="Y74" s="23"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
@@ -4353,7 +4495,7 @@
       <c r="X75" s="23"/>
       <c r="Y75" s="23"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A76" s="23"/>
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
@@ -4380,7 +4522,7 @@
       <c r="X76" s="23"/>
       <c r="Y76" s="23"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A77" s="23"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
@@ -4407,7 +4549,7 @@
       <c r="X77" s="23"/>
       <c r="Y77" s="23"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A78" s="23"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
@@ -4434,7 +4576,7 @@
       <c r="X78" s="23"/>
       <c r="Y78" s="23"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
@@ -4461,7 +4603,7 @@
       <c r="X79" s="23"/>
       <c r="Y79" s="23"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A80" s="23"/>
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
@@ -4488,7 +4630,7 @@
       <c r="X80" s="23"/>
       <c r="Y80" s="23"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A81" s="23"/>
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
@@ -4515,7 +4657,7 @@
       <c r="X81" s="23"/>
       <c r="Y81" s="23"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A82" s="23"/>
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
@@ -4542,7 +4684,7 @@
       <c r="X82" s="23"/>
       <c r="Y82" s="23"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A83" s="23"/>
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
@@ -4569,7 +4711,7 @@
       <c r="X83" s="23"/>
       <c r="Y83" s="23"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A84" s="23"/>
       <c r="B84" s="23"/>
       <c r="C84" s="23"/>
@@ -4596,7 +4738,7 @@
       <c r="X84" s="23"/>
       <c r="Y84" s="23"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A85" s="23"/>
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
@@ -4623,7 +4765,7 @@
       <c r="X85" s="23"/>
       <c r="Y85" s="23"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
@@ -4650,7 +4792,7 @@
       <c r="X86" s="23"/>
       <c r="Y86" s="23"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A87" s="23"/>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
@@ -4677,7 +4819,7 @@
       <c r="X87" s="23"/>
       <c r="Y87" s="23"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A88" s="23"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
@@ -4704,7 +4846,7 @@
       <c r="X88" s="23"/>
       <c r="Y88" s="23"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A89" s="23"/>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
@@ -4731,7 +4873,7 @@
       <c r="X89" s="23"/>
       <c r="Y89" s="23"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A90" s="23"/>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -4758,7 +4900,7 @@
       <c r="X90" s="23"/>
       <c r="Y90" s="23"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
@@ -4785,7 +4927,7 @@
       <c r="X91" s="23"/>
       <c r="Y91" s="23"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A92" s="23"/>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
@@ -4812,7 +4954,7 @@
       <c r="X92" s="23"/>
       <c r="Y92" s="23"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
@@ -4839,7 +4981,7 @@
       <c r="X93" s="23"/>
       <c r="Y93" s="23"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A94" s="23"/>
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
@@ -4866,7 +5008,7 @@
       <c r="X94" s="23"/>
       <c r="Y94" s="23"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A95" s="23"/>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
@@ -4893,7 +5035,7 @@
       <c r="X95" s="23"/>
       <c r="Y95" s="23"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A96" s="23"/>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
@@ -4920,7 +5062,7 @@
       <c r="X96" s="23"/>
       <c r="Y96" s="23"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A97" s="23"/>
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
@@ -4947,7 +5089,7 @@
       <c r="X97" s="23"/>
       <c r="Y97" s="23"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A98" s="23"/>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
@@ -4974,7 +5116,7 @@
       <c r="X98" s="23"/>
       <c r="Y98" s="23"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A99" s="23"/>
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
@@ -5001,7 +5143,7 @@
       <c r="X99" s="23"/>
       <c r="Y99" s="23"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A100" s="23"/>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
@@ -5028,7 +5170,7 @@
       <c r="X100" s="23"/>
       <c r="Y100" s="23"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A101" s="23"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
@@ -5055,7 +5197,7 @@
       <c r="X101" s="23"/>
       <c r="Y101" s="23"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A102" s="23"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
@@ -5082,7 +5224,7 @@
       <c r="X102" s="23"/>
       <c r="Y102" s="23"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
@@ -5109,7 +5251,7 @@
       <c r="X103" s="23"/>
       <c r="Y103" s="23"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A104" s="23"/>
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
@@ -5136,7 +5278,7 @@
       <c r="X104" s="23"/>
       <c r="Y104" s="23"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A105" s="23"/>
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
@@ -5163,7 +5305,7 @@
       <c r="X105" s="23"/>
       <c r="Y105" s="23"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A106" s="23"/>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
@@ -5190,7 +5332,7 @@
       <c r="X106" s="23"/>
       <c r="Y106" s="23"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A107" s="23"/>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
@@ -5217,7 +5359,7 @@
       <c r="X107" s="23"/>
       <c r="Y107" s="23"/>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A108" s="23"/>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
@@ -5244,7 +5386,7 @@
       <c r="X108" s="23"/>
       <c r="Y108" s="23"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
@@ -5271,7 +5413,7 @@
       <c r="X109" s="23"/>
       <c r="Y109" s="23"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A110" s="23"/>
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
@@ -5298,7 +5440,7 @@
       <c r="X110" s="23"/>
       <c r="Y110" s="23"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A111" s="23"/>
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
@@ -5325,7 +5467,7 @@
       <c r="X111" s="23"/>
       <c r="Y111" s="23"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A112" s="23"/>
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
@@ -5352,7 +5494,7 @@
       <c r="X112" s="23"/>
       <c r="Y112" s="23"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A113" s="23"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
@@ -5379,7 +5521,7 @@
       <c r="X113" s="23"/>
       <c r="Y113" s="23"/>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A114" s="23"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
@@ -5406,7 +5548,7 @@
       <c r="X114" s="23"/>
       <c r="Y114" s="23"/>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A115" s="23"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
@@ -5433,7 +5575,7 @@
       <c r="X115" s="23"/>
       <c r="Y115" s="23"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A116" s="23"/>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
@@ -5460,7 +5602,7 @@
       <c r="X116" s="23"/>
       <c r="Y116" s="23"/>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A117" s="23"/>
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
@@ -5487,7 +5629,7 @@
       <c r="X117" s="23"/>
       <c r="Y117" s="23"/>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A118" s="23"/>
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
@@ -5514,7 +5656,7 @@
       <c r="X118" s="23"/>
       <c r="Y118" s="23"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A119" s="23"/>
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
@@ -5541,7 +5683,7 @@
       <c r="X119" s="23"/>
       <c r="Y119" s="23"/>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A120" s="23"/>
       <c r="B120" s="23"/>
       <c r="C120" s="23"/>
@@ -5568,7 +5710,7 @@
       <c r="X120" s="23"/>
       <c r="Y120" s="23"/>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A121" s="23"/>
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
@@ -5595,7 +5737,7 @@
       <c r="X121" s="23"/>
       <c r="Y121" s="23"/>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A122" s="23"/>
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
@@ -5622,7 +5764,7 @@
       <c r="X122" s="23"/>
       <c r="Y122" s="23"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A123" s="23"/>
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
@@ -5649,7 +5791,7 @@
       <c r="X123" s="23"/>
       <c r="Y123" s="23"/>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A124" s="23"/>
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
@@ -5676,7 +5818,7 @@
       <c r="X124" s="23"/>
       <c r="Y124" s="23"/>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A125" s="23"/>
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
@@ -5703,7 +5845,7 @@
       <c r="X125" s="23"/>
       <c r="Y125" s="23"/>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A126" s="23"/>
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
@@ -5730,7 +5872,7 @@
       <c r="X126" s="23"/>
       <c r="Y126" s="23"/>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A127" s="23"/>
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
@@ -5757,7 +5899,7 @@
       <c r="X127" s="23"/>
       <c r="Y127" s="23"/>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A128" s="23"/>
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
@@ -5784,7 +5926,7 @@
       <c r="X128" s="23"/>
       <c r="Y128" s="23"/>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A129" s="23"/>
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
@@ -5811,7 +5953,7 @@
       <c r="X129" s="23"/>
       <c r="Y129" s="23"/>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A130" s="23"/>
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
@@ -5838,7 +5980,7 @@
       <c r="X130" s="23"/>
       <c r="Y130" s="23"/>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A131" s="23"/>
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
@@ -5865,7 +6007,7 @@
       <c r="X131" s="23"/>
       <c r="Y131" s="23"/>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A132" s="23"/>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
@@ -5892,7 +6034,7 @@
       <c r="X132" s="23"/>
       <c r="Y132" s="23"/>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A133" s="23"/>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
@@ -5919,7 +6061,7 @@
       <c r="X133" s="23"/>
       <c r="Y133" s="23"/>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A134" s="23"/>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
@@ -5946,7 +6088,7 @@
       <c r="X134" s="23"/>
       <c r="Y134" s="23"/>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A135" s="23"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
@@ -5973,7 +6115,7 @@
       <c r="X135" s="23"/>
       <c r="Y135" s="23"/>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A136" s="23"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -6000,7 +6142,7 @@
       <c r="X136" s="23"/>
       <c r="Y136" s="23"/>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A137" s="23"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -6027,7 +6169,7 @@
       <c r="X137" s="23"/>
       <c r="Y137" s="23"/>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A138" s="23"/>
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
@@ -6054,7 +6196,7 @@
       <c r="X138" s="23"/>
       <c r="Y138" s="23"/>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A139" s="23"/>
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
@@ -6081,7 +6223,7 @@
       <c r="X139" s="23"/>
       <c r="Y139" s="23"/>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A140" s="23"/>
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
@@ -6108,7 +6250,7 @@
       <c r="X140" s="23"/>
       <c r="Y140" s="23"/>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A141" s="23"/>
       <c r="B141" s="23"/>
       <c r="C141" s="23"/>
@@ -6135,7 +6277,7 @@
       <c r="X141" s="23"/>
       <c r="Y141" s="23"/>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A142" s="23"/>
       <c r="B142" s="23"/>
       <c r="C142" s="23"/>
@@ -6162,7 +6304,7 @@
       <c r="X142" s="23"/>
       <c r="Y142" s="23"/>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A143" s="23"/>
       <c r="B143" s="23"/>
       <c r="C143" s="23"/>
@@ -6189,7 +6331,7 @@
       <c r="X143" s="23"/>
       <c r="Y143" s="23"/>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A144" s="23"/>
       <c r="B144" s="23"/>
       <c r="C144" s="23"/>
@@ -6216,7 +6358,7 @@
       <c r="X144" s="23"/>
       <c r="Y144" s="23"/>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A145" s="23"/>
       <c r="B145" s="23"/>
       <c r="C145" s="23"/>
@@ -6243,7 +6385,7 @@
       <c r="X145" s="23"/>
       <c r="Y145" s="23"/>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A146" s="23"/>
       <c r="B146" s="23"/>
       <c r="C146" s="23"/>
@@ -6270,7 +6412,7 @@
       <c r="X146" s="23"/>
       <c r="Y146" s="23"/>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A147" s="23"/>
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
@@ -6297,7 +6439,7 @@
       <c r="X147" s="23"/>
       <c r="Y147" s="23"/>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A148" s="23"/>
       <c r="B148" s="23"/>
       <c r="C148" s="23"/>
@@ -6324,7 +6466,7 @@
       <c r="X148" s="23"/>
       <c r="Y148" s="23"/>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A149" s="23"/>
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
@@ -6351,7 +6493,7 @@
       <c r="X149" s="23"/>
       <c r="Y149" s="23"/>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A150" s="23"/>
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
@@ -6378,7 +6520,7 @@
       <c r="X150" s="23"/>
       <c r="Y150" s="23"/>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A151" s="23"/>
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
@@ -6405,7 +6547,7 @@
       <c r="X151" s="23"/>
       <c r="Y151" s="23"/>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A152" s="23"/>
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
@@ -6432,7 +6574,7 @@
       <c r="X152" s="23"/>
       <c r="Y152" s="23"/>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A153" s="23"/>
       <c r="B153" s="23"/>
       <c r="C153" s="23"/>
@@ -6459,7 +6601,7 @@
       <c r="X153" s="23"/>
       <c r="Y153" s="23"/>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A154" s="23"/>
       <c r="B154" s="23"/>
       <c r="C154" s="23"/>
@@ -6486,7 +6628,7 @@
       <c r="X154" s="23"/>
       <c r="Y154" s="23"/>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A155" s="23"/>
       <c r="B155" s="23"/>
       <c r="C155" s="23"/>
@@ -6513,7 +6655,7 @@
       <c r="X155" s="23"/>
       <c r="Y155" s="23"/>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A156" s="23"/>
       <c r="B156" s="23"/>
       <c r="C156" s="23"/>
@@ -6540,7 +6682,7 @@
       <c r="X156" s="23"/>
       <c r="Y156" s="23"/>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A157" s="23"/>
       <c r="B157" s="23"/>
       <c r="C157" s="23"/>
@@ -6567,7 +6709,7 @@
       <c r="X157" s="23"/>
       <c r="Y157" s="23"/>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A158" s="23"/>
       <c r="B158" s="23"/>
       <c r="C158" s="23"/>
@@ -6594,7 +6736,7 @@
       <c r="X158" s="23"/>
       <c r="Y158" s="23"/>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A159" s="23"/>
       <c r="B159" s="23"/>
       <c r="C159" s="23"/>
@@ -6621,7 +6763,7 @@
       <c r="X159" s="23"/>
       <c r="Y159" s="23"/>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A160" s="23"/>
       <c r="B160" s="23"/>
       <c r="C160" s="23"/>
@@ -6648,7 +6790,7 @@
       <c r="X160" s="23"/>
       <c r="Y160" s="23"/>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A161" s="23"/>
       <c r="B161" s="23"/>
       <c r="C161" s="23"/>
@@ -6675,7 +6817,7 @@
       <c r="X161" s="23"/>
       <c r="Y161" s="23"/>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A162" s="23"/>
       <c r="B162" s="23"/>
       <c r="C162" s="23"/>
@@ -6702,7 +6844,7 @@
       <c r="X162" s="23"/>
       <c r="Y162" s="23"/>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A163" s="23"/>
       <c r="B163" s="23"/>
       <c r="C163" s="23"/>
@@ -6729,7 +6871,7 @@
       <c r="X163" s="23"/>
       <c r="Y163" s="23"/>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A164" s="23"/>
       <c r="B164" s="23"/>
       <c r="C164" s="23"/>
@@ -6756,7 +6898,7 @@
       <c r="X164" s="23"/>
       <c r="Y164" s="23"/>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A165" s="23"/>
       <c r="B165" s="23"/>
       <c r="C165" s="23"/>
@@ -6783,7 +6925,7 @@
       <c r="X165" s="23"/>
       <c r="Y165" s="23"/>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A166" s="23"/>
       <c r="B166" s="23"/>
       <c r="C166" s="23"/>
@@ -6810,7 +6952,7 @@
       <c r="X166" s="23"/>
       <c r="Y166" s="23"/>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A167" s="23"/>
       <c r="B167" s="23"/>
       <c r="C167" s="23"/>
@@ -6837,7 +6979,7 @@
       <c r="X167" s="23"/>
       <c r="Y167" s="23"/>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A168" s="23"/>
       <c r="B168" s="23"/>
       <c r="C168" s="23"/>
@@ -6864,7 +7006,7 @@
       <c r="X168" s="23"/>
       <c r="Y168" s="23"/>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A169" s="23"/>
       <c r="B169" s="23"/>
       <c r="C169" s="23"/>
@@ -6891,7 +7033,7 @@
       <c r="X169" s="23"/>
       <c r="Y169" s="23"/>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A170" s="23"/>
       <c r="B170" s="23"/>
       <c r="C170" s="23"/>
@@ -6918,7 +7060,7 @@
       <c r="X170" s="23"/>
       <c r="Y170" s="23"/>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A171" s="23"/>
       <c r="B171" s="23"/>
       <c r="C171" s="23"/>
@@ -6945,7 +7087,7 @@
       <c r="X171" s="23"/>
       <c r="Y171" s="23"/>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A172" s="23"/>
       <c r="B172" s="23"/>
       <c r="C172" s="23"/>
@@ -6972,7 +7114,7 @@
       <c r="X172" s="23"/>
       <c r="Y172" s="23"/>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A173" s="23"/>
       <c r="B173" s="23"/>
       <c r="C173" s="23"/>
@@ -6999,7 +7141,7 @@
       <c r="X173" s="23"/>
       <c r="Y173" s="23"/>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A174" s="23"/>
       <c r="B174" s="23"/>
       <c r="C174" s="23"/>
@@ -7026,7 +7168,7 @@
       <c r="X174" s="23"/>
       <c r="Y174" s="23"/>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A175" s="23"/>
       <c r="B175" s="23"/>
       <c r="C175" s="23"/>
@@ -7053,7 +7195,7 @@
       <c r="X175" s="23"/>
       <c r="Y175" s="23"/>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A176" s="23"/>
       <c r="B176" s="23"/>
       <c r="C176" s="23"/>
@@ -7080,7 +7222,7 @@
       <c r="X176" s="23"/>
       <c r="Y176" s="23"/>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A177" s="23"/>
       <c r="B177" s="23"/>
       <c r="C177" s="23"/>
@@ -7107,7 +7249,7 @@
       <c r="X177" s="23"/>
       <c r="Y177" s="23"/>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A178" s="23"/>
       <c r="B178" s="23"/>
       <c r="C178" s="23"/>
@@ -7134,7 +7276,7 @@
       <c r="X178" s="23"/>
       <c r="Y178" s="23"/>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A179" s="23"/>
       <c r="B179" s="23"/>
       <c r="C179" s="23"/>
@@ -7161,7 +7303,7 @@
       <c r="X179" s="23"/>
       <c r="Y179" s="23"/>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A180" s="23"/>
       <c r="B180" s="23"/>
       <c r="C180" s="23"/>
@@ -7188,7 +7330,7 @@
       <c r="X180" s="23"/>
       <c r="Y180" s="23"/>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A181" s="23"/>
       <c r="B181" s="23"/>
       <c r="C181" s="23"/>
@@ -7215,7 +7357,7 @@
       <c r="X181" s="23"/>
       <c r="Y181" s="23"/>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A182" s="23"/>
       <c r="B182" s="23"/>
       <c r="C182" s="23"/>
@@ -7242,7 +7384,7 @@
       <c r="X182" s="23"/>
       <c r="Y182" s="23"/>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A183" s="23"/>
       <c r="B183" s="23"/>
       <c r="C183" s="23"/>
@@ -7269,7 +7411,7 @@
       <c r="X183" s="23"/>
       <c r="Y183" s="23"/>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A184" s="23"/>
       <c r="B184" s="23"/>
       <c r="C184" s="23"/>
@@ -7296,7 +7438,7 @@
       <c r="X184" s="23"/>
       <c r="Y184" s="23"/>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A185" s="23"/>
       <c r="B185" s="23"/>
       <c r="C185" s="23"/>
@@ -7323,7 +7465,7 @@
       <c r="X185" s="23"/>
       <c r="Y185" s="23"/>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A186" s="23"/>
       <c r="B186" s="23"/>
       <c r="C186" s="23"/>
@@ -7350,7 +7492,7 @@
       <c r="X186" s="23"/>
       <c r="Y186" s="23"/>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A187" s="23"/>
       <c r="B187" s="23"/>
       <c r="C187" s="23"/>
@@ -7377,7 +7519,7 @@
       <c r="X187" s="23"/>
       <c r="Y187" s="23"/>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A188" s="23"/>
       <c r="B188" s="23"/>
       <c r="C188" s="23"/>
@@ -7404,7 +7546,7 @@
       <c r="X188" s="23"/>
       <c r="Y188" s="23"/>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A189" s="23"/>
       <c r="B189" s="23"/>
       <c r="C189" s="23"/>
@@ -7431,7 +7573,7 @@
       <c r="X189" s="23"/>
       <c r="Y189" s="23"/>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A190" s="23"/>
       <c r="B190" s="23"/>
       <c r="C190" s="23"/>
@@ -7458,7 +7600,7 @@
       <c r="X190" s="23"/>
       <c r="Y190" s="23"/>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A191" s="23"/>
       <c r="B191" s="23"/>
       <c r="C191" s="23"/>
@@ -7485,7 +7627,7 @@
       <c r="X191" s="23"/>
       <c r="Y191" s="23"/>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A192" s="23"/>
       <c r="B192" s="23"/>
       <c r="C192" s="23"/>
@@ -7512,7 +7654,7 @@
       <c r="X192" s="23"/>
       <c r="Y192" s="23"/>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A193" s="23"/>
       <c r="B193" s="23"/>
       <c r="C193" s="23"/>
@@ -7539,7 +7681,7 @@
       <c r="X193" s="23"/>
       <c r="Y193" s="23"/>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A194" s="23"/>
       <c r="B194" s="23"/>
       <c r="C194" s="23"/>
@@ -7566,7 +7708,7 @@
       <c r="X194" s="23"/>
       <c r="Y194" s="23"/>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A195" s="23"/>
       <c r="B195" s="23"/>
       <c r="C195" s="23"/>
@@ -7593,7 +7735,7 @@
       <c r="X195" s="23"/>
       <c r="Y195" s="23"/>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A196" s="23"/>
       <c r="B196" s="23"/>
       <c r="C196" s="23"/>
@@ -7620,7 +7762,7 @@
       <c r="X196" s="23"/>
       <c r="Y196" s="23"/>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A197" s="23"/>
       <c r="B197" s="23"/>
       <c r="C197" s="23"/>
@@ -7647,7 +7789,7 @@
       <c r="X197" s="23"/>
       <c r="Y197" s="23"/>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A198" s="23"/>
       <c r="B198" s="23"/>
       <c r="C198" s="23"/>
@@ -7674,7 +7816,7 @@
       <c r="X198" s="23"/>
       <c r="Y198" s="23"/>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A199" s="23"/>
       <c r="B199" s="23"/>
       <c r="C199" s="23"/>
@@ -7701,7 +7843,7 @@
       <c r="X199" s="23"/>
       <c r="Y199" s="23"/>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A200" s="23"/>
       <c r="B200" s="23"/>
       <c r="C200" s="23"/>
@@ -7728,7 +7870,7 @@
       <c r="X200" s="23"/>
       <c r="Y200" s="23"/>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A201" s="23"/>
       <c r="B201" s="23"/>
       <c r="C201" s="23"/>
@@ -7755,7 +7897,7 @@
       <c r="X201" s="23"/>
       <c r="Y201" s="23"/>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A202" s="23"/>
       <c r="B202" s="23"/>
       <c r="C202" s="23"/>
@@ -7782,7 +7924,7 @@
       <c r="X202" s="23"/>
       <c r="Y202" s="23"/>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A203" s="23"/>
       <c r="B203" s="23"/>
       <c r="C203" s="23"/>
@@ -7809,7 +7951,7 @@
       <c r="X203" s="23"/>
       <c r="Y203" s="23"/>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A204" s="23"/>
       <c r="B204" s="23"/>
       <c r="C204" s="23"/>
@@ -7836,7 +7978,7 @@
       <c r="X204" s="23"/>
       <c r="Y204" s="23"/>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A205" s="23"/>
       <c r="B205" s="23"/>
       <c r="C205" s="23"/>
@@ -7863,7 +8005,7 @@
       <c r="X205" s="23"/>
       <c r="Y205" s="23"/>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A206" s="23"/>
       <c r="B206" s="23"/>
       <c r="C206" s="23"/>
@@ -7890,7 +8032,7 @@
       <c r="X206" s="23"/>
       <c r="Y206" s="23"/>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A207" s="23"/>
       <c r="B207" s="23"/>
       <c r="C207" s="23"/>
@@ -7917,7 +8059,7 @@
       <c r="X207" s="23"/>
       <c r="Y207" s="23"/>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A208" s="23"/>
       <c r="B208" s="23"/>
       <c r="C208" s="23"/>
@@ -7944,7 +8086,7 @@
       <c r="X208" s="23"/>
       <c r="Y208" s="23"/>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A209" s="23"/>
       <c r="B209" s="23"/>
       <c r="C209" s="23"/>
@@ -7971,7 +8113,7 @@
       <c r="X209" s="23"/>
       <c r="Y209" s="23"/>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A210" s="23"/>
       <c r="B210" s="23"/>
       <c r="C210" s="23"/>
@@ -7998,7 +8140,7 @@
       <c r="X210" s="23"/>
       <c r="Y210" s="23"/>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A211" s="23"/>
       <c r="B211" s="23"/>
       <c r="C211" s="23"/>
@@ -8025,7 +8167,7 @@
       <c r="X211" s="23"/>
       <c r="Y211" s="23"/>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A212" s="23"/>
       <c r="B212" s="23"/>
       <c r="C212" s="23"/>
@@ -8052,7 +8194,7 @@
       <c r="X212" s="23"/>
       <c r="Y212" s="23"/>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A213" s="23"/>
       <c r="B213" s="23"/>
       <c r="C213" s="23"/>
@@ -8079,7 +8221,7 @@
       <c r="X213" s="23"/>
       <c r="Y213" s="23"/>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A214" s="23"/>
       <c r="B214" s="23"/>
       <c r="C214" s="23"/>
@@ -8106,7 +8248,7 @@
       <c r="X214" s="23"/>
       <c r="Y214" s="23"/>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A215" s="23"/>
       <c r="B215" s="23"/>
       <c r="C215" s="23"/>
@@ -8133,7 +8275,7 @@
       <c r="X215" s="23"/>
       <c r="Y215" s="23"/>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A216" s="23"/>
       <c r="B216" s="23"/>
       <c r="C216" s="23"/>
@@ -8160,7 +8302,7 @@
       <c r="X216" s="23"/>
       <c r="Y216" s="23"/>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A217" s="23"/>
       <c r="B217" s="23"/>
       <c r="C217" s="23"/>
@@ -8187,7 +8329,7 @@
       <c r="X217" s="23"/>
       <c r="Y217" s="23"/>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A218" s="23"/>
       <c r="B218" s="23"/>
       <c r="C218" s="23"/>
@@ -8214,7 +8356,7 @@
       <c r="X218" s="23"/>
       <c r="Y218" s="23"/>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A219" s="23"/>
       <c r="B219" s="23"/>
       <c r="C219" s="23"/>
@@ -8241,7 +8383,7 @@
       <c r="X219" s="23"/>
       <c r="Y219" s="23"/>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A220" s="23"/>
       <c r="B220" s="23"/>
       <c r="C220" s="23"/>
@@ -8268,7 +8410,7 @@
       <c r="X220" s="23"/>
       <c r="Y220" s="23"/>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A221" s="23"/>
       <c r="B221" s="23"/>
       <c r="C221" s="23"/>
@@ -8295,7 +8437,7 @@
       <c r="X221" s="23"/>
       <c r="Y221" s="23"/>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A222" s="23"/>
       <c r="B222" s="23"/>
       <c r="C222" s="23"/>
@@ -8322,7 +8464,7 @@
       <c r="X222" s="23"/>
       <c r="Y222" s="23"/>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A223" s="23"/>
       <c r="B223" s="23"/>
       <c r="C223" s="23"/>
@@ -8349,7 +8491,7 @@
       <c r="X223" s="23"/>
       <c r="Y223" s="23"/>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A224" s="23"/>
       <c r="B224" s="23"/>
       <c r="C224" s="23"/>
@@ -8376,7 +8518,7 @@
       <c r="X224" s="23"/>
       <c r="Y224" s="23"/>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A225" s="23"/>
       <c r="B225" s="23"/>
       <c r="C225" s="23"/>
@@ -8403,7 +8545,7 @@
       <c r="X225" s="23"/>
       <c r="Y225" s="23"/>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A226" s="23"/>
       <c r="B226" s="23"/>
       <c r="C226" s="23"/>
@@ -8430,7 +8572,7 @@
       <c r="X226" s="23"/>
       <c r="Y226" s="23"/>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A227" s="23"/>
       <c r="B227" s="23"/>
       <c r="C227" s="23"/>
@@ -8457,7 +8599,7 @@
       <c r="X227" s="23"/>
       <c r="Y227" s="23"/>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A228" s="23"/>
       <c r="B228" s="23"/>
       <c r="C228" s="23"/>
@@ -8484,7 +8626,7 @@
       <c r="X228" s="23"/>
       <c r="Y228" s="23"/>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A229" s="23"/>
       <c r="B229" s="23"/>
       <c r="C229" s="23"/>
@@ -8511,7 +8653,7 @@
       <c r="X229" s="23"/>
       <c r="Y229" s="23"/>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A230" s="23"/>
       <c r="B230" s="23"/>
       <c r="C230" s="23"/>
@@ -8538,7 +8680,7 @@
       <c r="X230" s="23"/>
       <c r="Y230" s="23"/>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A231" s="23"/>
       <c r="B231" s="23"/>
       <c r="C231" s="23"/>
@@ -8565,7 +8707,7 @@
       <c r="X231" s="23"/>
       <c r="Y231" s="23"/>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A232" s="23"/>
       <c r="B232" s="23"/>
       <c r="C232" s="23"/>
@@ -8592,7 +8734,7 @@
       <c r="X232" s="23"/>
       <c r="Y232" s="23"/>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A233" s="23"/>
       <c r="B233" s="23"/>
       <c r="C233" s="23"/>
@@ -8619,7 +8761,7 @@
       <c r="X233" s="23"/>
       <c r="Y233" s="23"/>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A234" s="23"/>
       <c r="B234" s="23"/>
       <c r="C234" s="23"/>
@@ -8646,7 +8788,7 @@
       <c r="X234" s="23"/>
       <c r="Y234" s="23"/>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A235" s="23"/>
       <c r="B235" s="23"/>
       <c r="C235" s="23"/>
@@ -8673,7 +8815,7 @@
       <c r="X235" s="23"/>
       <c r="Y235" s="23"/>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A236" s="23"/>
       <c r="B236" s="23"/>
       <c r="C236" s="23"/>
@@ -8700,7 +8842,7 @@
       <c r="X236" s="23"/>
       <c r="Y236" s="23"/>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A237" s="23"/>
       <c r="B237" s="23"/>
       <c r="C237" s="23"/>
@@ -8727,7 +8869,7 @@
       <c r="X237" s="23"/>
       <c r="Y237" s="23"/>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A238" s="23"/>
       <c r="B238" s="23"/>
       <c r="C238" s="23"/>
@@ -8754,7 +8896,7 @@
       <c r="X238" s="23"/>
       <c r="Y238" s="23"/>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A239" s="23"/>
       <c r="B239" s="23"/>
       <c r="C239" s="23"/>
@@ -8781,7 +8923,7 @@
       <c r="X239" s="23"/>
       <c r="Y239" s="23"/>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A240" s="23"/>
       <c r="B240" s="23"/>
       <c r="C240" s="23"/>
@@ -8808,7 +8950,7 @@
       <c r="X240" s="23"/>
       <c r="Y240" s="23"/>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A241" s="23"/>
       <c r="B241" s="23"/>
       <c r="C241" s="23"/>
@@ -8835,7 +8977,7 @@
       <c r="X241" s="23"/>
       <c r="Y241" s="23"/>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A242" s="23"/>
       <c r="B242" s="23"/>
       <c r="C242" s="23"/>
@@ -8862,7 +9004,7 @@
       <c r="X242" s="23"/>
       <c r="Y242" s="23"/>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A243" s="23"/>
       <c r="B243" s="23"/>
       <c r="C243" s="23"/>
@@ -8889,7 +9031,7 @@
       <c r="X243" s="23"/>
       <c r="Y243" s="23"/>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A244" s="23"/>
       <c r="B244" s="23"/>
       <c r="C244" s="23"/>
@@ -8916,7 +9058,7 @@
       <c r="X244" s="23"/>
       <c r="Y244" s="23"/>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A245" s="23"/>
       <c r="B245" s="23"/>
       <c r="C245" s="23"/>
@@ -8943,7 +9085,7 @@
       <c r="X245" s="23"/>
       <c r="Y245" s="23"/>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A246" s="23"/>
       <c r="B246" s="23"/>
       <c r="C246" s="23"/>
@@ -8970,7 +9112,7 @@
       <c r="X246" s="23"/>
       <c r="Y246" s="23"/>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A247" s="23"/>
       <c r="B247" s="23"/>
       <c r="C247" s="23"/>
@@ -8997,7 +9139,7 @@
       <c r="X247" s="23"/>
       <c r="Y247" s="23"/>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A248" s="23"/>
       <c r="B248" s="23"/>
       <c r="C248" s="23"/>
@@ -9024,7 +9166,7 @@
       <c r="X248" s="23"/>
       <c r="Y248" s="23"/>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A249" s="23"/>
       <c r="B249" s="23"/>
       <c r="C249" s="23"/>
@@ -9051,7 +9193,7 @@
       <c r="X249" s="23"/>
       <c r="Y249" s="23"/>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A250" s="23"/>
       <c r="B250" s="23"/>
       <c r="C250" s="23"/>
@@ -9078,7 +9220,7 @@
       <c r="X250" s="23"/>
       <c r="Y250" s="23"/>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A251" s="23"/>
       <c r="B251" s="23"/>
       <c r="C251" s="23"/>
@@ -9105,7 +9247,7 @@
       <c r="X251" s="23"/>
       <c r="Y251" s="23"/>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A252" s="23"/>
       <c r="B252" s="23"/>
       <c r="C252" s="23"/>
@@ -9132,7 +9274,7 @@
       <c r="X252" s="23"/>
       <c r="Y252" s="23"/>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A253" s="23"/>
       <c r="B253" s="23"/>
       <c r="C253" s="23"/>
@@ -9159,7 +9301,7 @@
       <c r="X253" s="23"/>
       <c r="Y253" s="23"/>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A254" s="23"/>
       <c r="B254" s="23"/>
       <c r="C254" s="23"/>
@@ -9186,7 +9328,7 @@
       <c r="X254" s="23"/>
       <c r="Y254" s="23"/>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A255" s="23"/>
       <c r="B255" s="23"/>
       <c r="C255" s="23"/>
@@ -9213,7 +9355,7 @@
       <c r="X255" s="23"/>
       <c r="Y255" s="23"/>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A256" s="23"/>
       <c r="B256" s="23"/>
       <c r="C256" s="23"/>
@@ -9240,7 +9382,7 @@
       <c r="X256" s="23"/>
       <c r="Y256" s="23"/>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A257" s="23"/>
       <c r="B257" s="23"/>
       <c r="C257" s="23"/>
@@ -9267,7 +9409,7 @@
       <c r="X257" s="23"/>
       <c r="Y257" s="23"/>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A258" s="23"/>
       <c r="B258" s="23"/>
       <c r="C258" s="23"/>
@@ -9294,7 +9436,7 @@
       <c r="X258" s="23"/>
       <c r="Y258" s="23"/>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A259" s="23"/>
       <c r="B259" s="23"/>
       <c r="C259" s="23"/>
@@ -9321,7 +9463,7 @@
       <c r="X259" s="23"/>
       <c r="Y259" s="23"/>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A260" s="23"/>
       <c r="B260" s="23"/>
       <c r="C260" s="23"/>
@@ -9348,7 +9490,7 @@
       <c r="X260" s="23"/>
       <c r="Y260" s="23"/>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A261" s="23"/>
       <c r="B261" s="23"/>
       <c r="C261" s="23"/>
@@ -9375,7 +9517,7 @@
       <c r="X261" s="23"/>
       <c r="Y261" s="23"/>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A262" s="23"/>
       <c r="B262" s="23"/>
       <c r="C262" s="23"/>
@@ -9402,7 +9544,7 @@
       <c r="X262" s="23"/>
       <c r="Y262" s="23"/>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A263" s="23"/>
       <c r="B263" s="23"/>
       <c r="C263" s="23"/>
@@ -9429,7 +9571,7 @@
       <c r="X263" s="23"/>
       <c r="Y263" s="23"/>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A264" s="23"/>
       <c r="B264" s="23"/>
       <c r="C264" s="23"/>
@@ -9456,7 +9598,7 @@
       <c r="X264" s="23"/>
       <c r="Y264" s="23"/>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A265" s="23"/>
       <c r="B265" s="23"/>
       <c r="C265" s="23"/>
@@ -9483,7 +9625,7 @@
       <c r="X265" s="23"/>
       <c r="Y265" s="23"/>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A266" s="23"/>
       <c r="B266" s="23"/>
       <c r="C266" s="23"/>
@@ -9510,7 +9652,7 @@
       <c r="X266" s="23"/>
       <c r="Y266" s="23"/>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A267" s="23"/>
       <c r="B267" s="23"/>
       <c r="C267" s="23"/>
@@ -9537,7 +9679,7 @@
       <c r="X267" s="23"/>
       <c r="Y267" s="23"/>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A268" s="23"/>
       <c r="B268" s="23"/>
       <c r="C268" s="23"/>
@@ -9564,7 +9706,7 @@
       <c r="X268" s="23"/>
       <c r="Y268" s="23"/>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A269" s="23"/>
       <c r="B269" s="23"/>
       <c r="C269" s="23"/>
@@ -9591,7 +9733,7 @@
       <c r="X269" s="23"/>
       <c r="Y269" s="23"/>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A270" s="23"/>
       <c r="B270" s="23"/>
       <c r="C270" s="23"/>
@@ -9618,7 +9760,7 @@
       <c r="X270" s="23"/>
       <c r="Y270" s="23"/>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A271" s="23"/>
       <c r="B271" s="23"/>
       <c r="C271" s="23"/>
@@ -9645,7 +9787,7 @@
       <c r="X271" s="23"/>
       <c r="Y271" s="23"/>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A272" s="23"/>
       <c r="B272" s="23"/>
       <c r="C272" s="23"/>
@@ -9672,7 +9814,7 @@
       <c r="X272" s="23"/>
       <c r="Y272" s="23"/>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A273" s="23"/>
       <c r="B273" s="23"/>
       <c r="C273" s="23"/>
@@ -9699,7 +9841,7 @@
       <c r="X273" s="23"/>
       <c r="Y273" s="23"/>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A274" s="23"/>
       <c r="B274" s="23"/>
       <c r="C274" s="23"/>
@@ -9726,7 +9868,7 @@
       <c r="X274" s="23"/>
       <c r="Y274" s="23"/>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A275" s="23"/>
       <c r="B275" s="23"/>
       <c r="C275" s="23"/>
@@ -9753,7 +9895,7 @@
       <c r="X275" s="23"/>
       <c r="Y275" s="23"/>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A276" s="23"/>
       <c r="B276" s="23"/>
       <c r="C276" s="23"/>
@@ -9780,7 +9922,7 @@
       <c r="X276" s="23"/>
       <c r="Y276" s="23"/>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A277" s="23"/>
       <c r="B277" s="23"/>
       <c r="C277" s="23"/>
@@ -9807,7 +9949,7 @@
       <c r="X277" s="23"/>
       <c r="Y277" s="23"/>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A278" s="23"/>
       <c r="B278" s="23"/>
       <c r="C278" s="23"/>
@@ -9834,7 +9976,7 @@
       <c r="X278" s="23"/>
       <c r="Y278" s="23"/>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A279" s="23"/>
       <c r="B279" s="23"/>
       <c r="C279" s="23"/>
@@ -9861,7 +10003,7 @@
       <c r="X279" s="23"/>
       <c r="Y279" s="23"/>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A280" s="23"/>
       <c r="B280" s="23"/>
       <c r="C280" s="23"/>
@@ -9888,7 +10030,7 @@
       <c r="X280" s="23"/>
       <c r="Y280" s="23"/>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A281" s="23"/>
       <c r="B281" s="23"/>
       <c r="C281" s="23"/>
@@ -9915,7 +10057,7 @@
       <c r="X281" s="23"/>
       <c r="Y281" s="23"/>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A282" s="23"/>
       <c r="B282" s="23"/>
       <c r="C282" s="23"/>
@@ -9942,7 +10084,7 @@
       <c r="X282" s="23"/>
       <c r="Y282" s="23"/>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A283" s="23"/>
       <c r="B283" s="23"/>
       <c r="C283" s="23"/>
@@ -9969,7 +10111,7 @@
       <c r="X283" s="23"/>
       <c r="Y283" s="23"/>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A284" s="23"/>
       <c r="B284" s="23"/>
       <c r="C284" s="23"/>
@@ -9996,7 +10138,7 @@
       <c r="X284" s="23"/>
       <c r="Y284" s="23"/>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A285" s="23"/>
       <c r="B285" s="23"/>
       <c r="C285" s="23"/>
@@ -10023,7 +10165,7 @@
       <c r="X285" s="23"/>
       <c r="Y285" s="23"/>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A286" s="23"/>
       <c r="B286" s="23"/>
       <c r="C286" s="23"/>
@@ -10050,7 +10192,7 @@
       <c r="X286" s="23"/>
       <c r="Y286" s="23"/>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A287" s="23"/>
       <c r="B287" s="23"/>
       <c r="C287" s="23"/>
@@ -10077,7 +10219,7 @@
       <c r="X287" s="23"/>
       <c r="Y287" s="23"/>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A288" s="23"/>
       <c r="B288" s="23"/>
       <c r="C288" s="23"/>
@@ -10104,7 +10246,7 @@
       <c r="X288" s="23"/>
       <c r="Y288" s="23"/>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A289" s="23"/>
       <c r="B289" s="23"/>
       <c r="C289" s="23"/>
@@ -10131,7 +10273,7 @@
       <c r="X289" s="23"/>
       <c r="Y289" s="23"/>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A290" s="23"/>
       <c r="B290" s="23"/>
       <c r="C290" s="23"/>
@@ -10158,7 +10300,7 @@
       <c r="X290" s="23"/>
       <c r="Y290" s="23"/>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A291" s="23"/>
       <c r="B291" s="23"/>
       <c r="C291" s="23"/>
@@ -10185,7 +10327,7 @@
       <c r="X291" s="23"/>
       <c r="Y291" s="23"/>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A292" s="23"/>
       <c r="B292" s="23"/>
       <c r="C292" s="23"/>
@@ -10212,7 +10354,7 @@
       <c r="X292" s="23"/>
       <c r="Y292" s="23"/>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A293" s="23"/>
       <c r="B293" s="23"/>
       <c r="C293" s="23"/>
@@ -10239,7 +10381,7 @@
       <c r="X293" s="23"/>
       <c r="Y293" s="23"/>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A294" s="23"/>
       <c r="B294" s="23"/>
       <c r="C294" s="23"/>
@@ -10266,7 +10408,7 @@
       <c r="X294" s="23"/>
       <c r="Y294" s="23"/>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A295" s="23"/>
       <c r="B295" s="23"/>
       <c r="C295" s="23"/>
@@ -10293,7 +10435,7 @@
       <c r="X295" s="23"/>
       <c r="Y295" s="23"/>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A296" s="23"/>
       <c r="B296" s="23"/>
       <c r="C296" s="23"/>
@@ -10320,7 +10462,7 @@
       <c r="X296" s="23"/>
       <c r="Y296" s="23"/>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A297" s="23"/>
       <c r="B297" s="23"/>
       <c r="C297" s="23"/>
@@ -10347,7 +10489,7 @@
       <c r="X297" s="23"/>
       <c r="Y297" s="23"/>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A298" s="23"/>
       <c r="B298" s="23"/>
       <c r="C298" s="23"/>
@@ -10374,7 +10516,7 @@
       <c r="X298" s="23"/>
       <c r="Y298" s="23"/>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A299" s="23"/>
       <c r="B299" s="23"/>
       <c r="C299" s="23"/>
@@ -10401,7 +10543,7 @@
       <c r="X299" s="23"/>
       <c r="Y299" s="23"/>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A300" s="23"/>
       <c r="B300" s="23"/>
       <c r="C300" s="23"/>
@@ -10428,7 +10570,7 @@
       <c r="X300" s="23"/>
       <c r="Y300" s="23"/>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A301" s="23"/>
       <c r="B301" s="23"/>
       <c r="C301" s="23"/>
@@ -10455,7 +10597,7 @@
       <c r="X301" s="23"/>
       <c r="Y301" s="23"/>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A302" s="23"/>
       <c r="B302" s="23"/>
       <c r="C302" s="23"/>
@@ -10482,7 +10624,7 @@
       <c r="X302" s="23"/>
       <c r="Y302" s="23"/>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A303" s="23"/>
       <c r="B303" s="23"/>
       <c r="C303" s="23"/>
@@ -10509,7 +10651,7 @@
       <c r="X303" s="23"/>
       <c r="Y303" s="23"/>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A304" s="23"/>
       <c r="B304" s="23"/>
       <c r="C304" s="23"/>
@@ -10536,7 +10678,7 @@
       <c r="X304" s="23"/>
       <c r="Y304" s="23"/>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A305" s="23"/>
       <c r="B305" s="23"/>
       <c r="C305" s="23"/>
@@ -10563,7 +10705,7 @@
       <c r="X305" s="23"/>
       <c r="Y305" s="23"/>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A306" s="23"/>
       <c r="B306" s="23"/>
       <c r="C306" s="23"/>
@@ -10590,7 +10732,7 @@
       <c r="X306" s="23"/>
       <c r="Y306" s="23"/>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A307" s="23"/>
       <c r="B307" s="23"/>
       <c r="C307" s="23"/>
@@ -10617,7 +10759,7 @@
       <c r="X307" s="23"/>
       <c r="Y307" s="23"/>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A308" s="23"/>
       <c r="B308" s="23"/>
       <c r="C308" s="23"/>
@@ -10644,7 +10786,7 @@
       <c r="X308" s="23"/>
       <c r="Y308" s="23"/>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A309" s="23"/>
       <c r="B309" s="23"/>
       <c r="C309" s="23"/>
@@ -10671,7 +10813,7 @@
       <c r="X309" s="23"/>
       <c r="Y309" s="23"/>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A310" s="23"/>
       <c r="B310" s="23"/>
       <c r="C310" s="23"/>
@@ -10698,7 +10840,7 @@
       <c r="X310" s="23"/>
       <c r="Y310" s="23"/>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A311" s="23"/>
       <c r="B311" s="23"/>
       <c r="C311" s="23"/>
@@ -10725,7 +10867,7 @@
       <c r="X311" s="23"/>
       <c r="Y311" s="23"/>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A312" s="23"/>
       <c r="B312" s="23"/>
       <c r="C312" s="23"/>
@@ -10752,7 +10894,7 @@
       <c r="X312" s="23"/>
       <c r="Y312" s="23"/>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A313" s="23"/>
       <c r="B313" s="23"/>
       <c r="C313" s="23"/>
@@ -10779,7 +10921,7 @@
       <c r="X313" s="23"/>
       <c r="Y313" s="23"/>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A314" s="23"/>
       <c r="B314" s="23"/>
       <c r="C314" s="23"/>
@@ -10806,7 +10948,7 @@
       <c r="X314" s="23"/>
       <c r="Y314" s="23"/>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A315" s="23"/>
       <c r="B315" s="23"/>
       <c r="C315" s="23"/>
@@ -10833,7 +10975,7 @@
       <c r="X315" s="23"/>
       <c r="Y315" s="23"/>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A316" s="23"/>
       <c r="B316" s="23"/>
       <c r="C316" s="23"/>
@@ -10860,7 +11002,7 @@
       <c r="X316" s="23"/>
       <c r="Y316" s="23"/>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A317" s="23"/>
       <c r="B317" s="23"/>
       <c r="C317" s="23"/>
@@ -10887,7 +11029,7 @@
       <c r="X317" s="23"/>
       <c r="Y317" s="23"/>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A318" s="23"/>
       <c r="B318" s="23"/>
       <c r="C318" s="23"/>
@@ -10914,7 +11056,7 @@
       <c r="X318" s="23"/>
       <c r="Y318" s="23"/>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A319" s="23"/>
       <c r="B319" s="23"/>
       <c r="C319" s="23"/>
@@ -10941,7 +11083,7 @@
       <c r="X319" s="23"/>
       <c r="Y319" s="23"/>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A320" s="23"/>
       <c r="B320" s="23"/>
       <c r="C320" s="23"/>
@@ -10968,7 +11110,7 @@
       <c r="X320" s="23"/>
       <c r="Y320" s="23"/>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A321" s="23"/>
       <c r="B321" s="23"/>
       <c r="C321" s="23"/>
@@ -10995,7 +11137,7 @@
       <c r="X321" s="23"/>
       <c r="Y321" s="23"/>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A322" s="23"/>
       <c r="B322" s="23"/>
       <c r="C322" s="23"/>
@@ -11022,7 +11164,7 @@
       <c r="X322" s="23"/>
       <c r="Y322" s="23"/>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A323" s="23"/>
       <c r="B323" s="23"/>
       <c r="C323" s="23"/>
@@ -11049,7 +11191,7 @@
       <c r="X323" s="23"/>
       <c r="Y323" s="23"/>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A324" s="23"/>
       <c r="B324" s="23"/>
       <c r="C324" s="23"/>
@@ -11076,7 +11218,7 @@
       <c r="X324" s="23"/>
       <c r="Y324" s="23"/>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A325" s="23"/>
       <c r="B325" s="23"/>
       <c r="C325" s="23"/>
@@ -11103,7 +11245,7 @@
       <c r="X325" s="23"/>
       <c r="Y325" s="23"/>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A326" s="23"/>
       <c r="B326" s="23"/>
       <c r="C326" s="23"/>
@@ -11130,7 +11272,7 @@
       <c r="X326" s="23"/>
       <c r="Y326" s="23"/>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A327" s="23"/>
       <c r="B327" s="23"/>
       <c r="C327" s="23"/>
@@ -11157,7 +11299,7 @@
       <c r="X327" s="23"/>
       <c r="Y327" s="23"/>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A328" s="23"/>
       <c r="B328" s="23"/>
       <c r="C328" s="23"/>
@@ -11184,7 +11326,7 @@
       <c r="X328" s="23"/>
       <c r="Y328" s="23"/>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A329" s="23"/>
       <c r="B329" s="23"/>
       <c r="C329" s="23"/>
@@ -11211,7 +11353,7 @@
       <c r="X329" s="23"/>
       <c r="Y329" s="23"/>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A330" s="23"/>
       <c r="B330" s="23"/>
       <c r="C330" s="23"/>
@@ -11238,7 +11380,7 @@
       <c r="X330" s="23"/>
       <c r="Y330" s="23"/>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A331" s="23"/>
       <c r="B331" s="23"/>
       <c r="C331" s="23"/>
@@ -11265,7 +11407,7 @@
       <c r="X331" s="23"/>
       <c r="Y331" s="23"/>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A332" s="23"/>
       <c r="B332" s="23"/>
       <c r="C332" s="23"/>
@@ -11292,7 +11434,7 @@
       <c r="X332" s="23"/>
       <c r="Y332" s="23"/>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A333" s="23"/>
       <c r="B333" s="23"/>
       <c r="C333" s="23"/>
@@ -11319,7 +11461,7 @@
       <c r="X333" s="23"/>
       <c r="Y333" s="23"/>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A334" s="23"/>
       <c r="B334" s="23"/>
       <c r="C334" s="23"/>
@@ -11346,7 +11488,7 @@
       <c r="X334" s="23"/>
       <c r="Y334" s="23"/>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A335" s="23"/>
       <c r="B335" s="23"/>
       <c r="C335" s="23"/>
@@ -11373,7 +11515,7 @@
       <c r="X335" s="23"/>
       <c r="Y335" s="23"/>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A336" s="23"/>
       <c r="B336" s="23"/>
       <c r="C336" s="23"/>
@@ -11400,7 +11542,7 @@
       <c r="X336" s="23"/>
       <c r="Y336" s="23"/>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A337" s="23"/>
       <c r="B337" s="23"/>
       <c r="C337" s="23"/>
@@ -11427,7 +11569,7 @@
       <c r="X337" s="23"/>
       <c r="Y337" s="23"/>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A338" s="23"/>
       <c r="B338" s="23"/>
       <c r="C338" s="23"/>
@@ -11454,7 +11596,7 @@
       <c r="X338" s="23"/>
       <c r="Y338" s="23"/>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A339" s="23"/>
       <c r="B339" s="23"/>
       <c r="C339" s="23"/>
@@ -11481,7 +11623,7 @@
       <c r="X339" s="23"/>
       <c r="Y339" s="23"/>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A340" s="23"/>
       <c r="B340" s="23"/>
       <c r="C340" s="23"/>
@@ -11508,7 +11650,7 @@
       <c r="X340" s="23"/>
       <c r="Y340" s="23"/>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A341" s="23"/>
       <c r="B341" s="23"/>
       <c r="C341" s="23"/>
@@ -11535,7 +11677,7 @@
       <c r="X341" s="23"/>
       <c r="Y341" s="23"/>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A342" s="23"/>
       <c r="B342" s="23"/>
       <c r="C342" s="23"/>
@@ -11562,7 +11704,7 @@
       <c r="X342" s="23"/>
       <c r="Y342" s="23"/>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A343" s="23"/>
       <c r="B343" s="23"/>
       <c r="C343" s="23"/>
@@ -11589,7 +11731,7 @@
       <c r="X343" s="23"/>
       <c r="Y343" s="23"/>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A344" s="23"/>
       <c r="B344" s="23"/>
       <c r="C344" s="23"/>
@@ -11616,7 +11758,7 @@
       <c r="X344" s="23"/>
       <c r="Y344" s="23"/>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A345" s="23"/>
       <c r="B345" s="23"/>
       <c r="C345" s="23"/>
@@ -11643,7 +11785,7 @@
       <c r="X345" s="23"/>
       <c r="Y345" s="23"/>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A346" s="23"/>
       <c r="B346" s="23"/>
       <c r="C346" s="23"/>
@@ -11670,7 +11812,7 @@
       <c r="X346" s="23"/>
       <c r="Y346" s="23"/>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A347" s="23"/>
       <c r="B347" s="23"/>
       <c r="C347" s="23"/>
@@ -11697,7 +11839,7 @@
       <c r="X347" s="23"/>
       <c r="Y347" s="23"/>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A348" s="23"/>
       <c r="B348" s="23"/>
       <c r="C348" s="23"/>
@@ -11724,7 +11866,7 @@
       <c r="X348" s="23"/>
       <c r="Y348" s="23"/>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A349" s="23"/>
       <c r="B349" s="23"/>
       <c r="C349" s="23"/>
@@ -11751,7 +11893,7 @@
       <c r="X349" s="23"/>
       <c r="Y349" s="23"/>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A350" s="23"/>
       <c r="B350" s="23"/>
       <c r="C350" s="23"/>
@@ -11778,7 +11920,7 @@
       <c r="X350" s="23"/>
       <c r="Y350" s="23"/>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A351" s="23"/>
       <c r="B351" s="23"/>
       <c r="C351" s="23"/>
@@ -11805,7 +11947,7 @@
       <c r="X351" s="23"/>
       <c r="Y351" s="23"/>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A352" s="23"/>
       <c r="B352" s="23"/>
       <c r="C352" s="23"/>
@@ -11832,7 +11974,7 @@
       <c r="X352" s="23"/>
       <c r="Y352" s="23"/>
     </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A353" s="23"/>
       <c r="B353" s="23"/>
       <c r="C353" s="23"/>
@@ -11859,7 +12001,7 @@
       <c r="X353" s="23"/>
       <c r="Y353" s="23"/>
     </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A354" s="23"/>
       <c r="B354" s="23"/>
       <c r="C354" s="23"/>
@@ -11886,7 +12028,7 @@
       <c r="X354" s="23"/>
       <c r="Y354" s="23"/>
     </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A355" s="23"/>
       <c r="B355" s="23"/>
       <c r="C355" s="23"/>
@@ -11913,7 +12055,7 @@
       <c r="X355" s="23"/>
       <c r="Y355" s="23"/>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A356" s="23"/>
       <c r="B356" s="23"/>
       <c r="C356" s="23"/>
@@ -11940,7 +12082,7 @@
       <c r="X356" s="23"/>
       <c r="Y356" s="23"/>
     </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A357" s="23"/>
       <c r="B357" s="23"/>
       <c r="C357" s="23"/>
@@ -11967,7 +12109,7 @@
       <c r="X357" s="23"/>
       <c r="Y357" s="23"/>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A358" s="23"/>
       <c r="B358" s="23"/>
       <c r="C358" s="23"/>
@@ -11994,7 +12136,7 @@
       <c r="X358" s="23"/>
       <c r="Y358" s="23"/>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A359" s="23"/>
       <c r="B359" s="23"/>
       <c r="C359" s="23"/>
@@ -12021,7 +12163,7 @@
       <c r="X359" s="23"/>
       <c r="Y359" s="23"/>
     </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A360" s="23"/>
       <c r="B360" s="23"/>
       <c r="C360" s="23"/>
@@ -12048,7 +12190,7 @@
       <c r="X360" s="23"/>
       <c r="Y360" s="23"/>
     </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A361" s="23"/>
       <c r="B361" s="23"/>
       <c r="C361" s="23"/>
@@ -12075,7 +12217,7 @@
       <c r="X361" s="23"/>
       <c r="Y361" s="23"/>
     </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A362" s="23"/>
       <c r="B362" s="23"/>
       <c r="C362" s="23"/>
@@ -12102,7 +12244,7 @@
       <c r="X362" s="23"/>
       <c r="Y362" s="23"/>
     </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A363" s="23"/>
       <c r="B363" s="23"/>
       <c r="C363" s="23"/>
@@ -12129,7 +12271,7 @@
       <c r="X363" s="23"/>
       <c r="Y363" s="23"/>
     </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A364" s="23"/>
       <c r="B364" s="23"/>
       <c r="C364" s="23"/>
@@ -12156,7 +12298,7 @@
       <c r="X364" s="23"/>
       <c r="Y364" s="23"/>
     </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A365" s="23"/>
       <c r="B365" s="23"/>
       <c r="C365" s="23"/>
@@ -12183,7 +12325,7 @@
       <c r="X365" s="23"/>
       <c r="Y365" s="23"/>
     </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A366" s="23"/>
       <c r="B366" s="23"/>
       <c r="C366" s="23"/>
@@ -12210,7 +12352,7 @@
       <c r="X366" s="23"/>
       <c r="Y366" s="23"/>
     </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A367" s="23"/>
       <c r="B367" s="23"/>
       <c r="C367" s="23"/>
@@ -12237,7 +12379,7 @@
       <c r="X367" s="23"/>
       <c r="Y367" s="23"/>
     </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A368" s="23"/>
       <c r="B368" s="23"/>
       <c r="C368" s="23"/>
@@ -12264,7 +12406,7 @@
       <c r="X368" s="23"/>
       <c r="Y368" s="23"/>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A369" s="23"/>
       <c r="B369" s="23"/>
       <c r="C369" s="23"/>
@@ -12291,7 +12433,7 @@
       <c r="X369" s="23"/>
       <c r="Y369" s="23"/>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A370" s="23"/>
       <c r="B370" s="23"/>
       <c r="C370" s="23"/>
@@ -12318,7 +12460,7 @@
       <c r="X370" s="23"/>
       <c r="Y370" s="23"/>
     </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A371" s="23"/>
       <c r="B371" s="23"/>
       <c r="C371" s="23"/>
@@ -12345,7 +12487,7 @@
       <c r="X371" s="23"/>
       <c r="Y371" s="23"/>
     </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A372" s="23"/>
       <c r="B372" s="23"/>
       <c r="C372" s="23"/>
@@ -12372,7 +12514,7 @@
       <c r="X372" s="23"/>
       <c r="Y372" s="23"/>
     </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A373" s="23"/>
       <c r="B373" s="23"/>
       <c r="C373" s="23"/>
@@ -12399,7 +12541,7 @@
       <c r="X373" s="23"/>
       <c r="Y373" s="23"/>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A374" s="23"/>
       <c r="B374" s="23"/>
       <c r="C374" s="23"/>
@@ -12426,7 +12568,7 @@
       <c r="X374" s="23"/>
       <c r="Y374" s="23"/>
     </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A375" s="23"/>
       <c r="B375" s="23"/>
       <c r="C375" s="23"/>
@@ -12453,7 +12595,7 @@
       <c r="X375" s="23"/>
       <c r="Y375" s="23"/>
     </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A376" s="23"/>
       <c r="B376" s="23"/>
       <c r="C376" s="23"/>
@@ -12480,7 +12622,7 @@
       <c r="X376" s="23"/>
       <c r="Y376" s="23"/>
     </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A377" s="23"/>
       <c r="B377" s="23"/>
       <c r="C377" s="23"/>
@@ -12507,7 +12649,7 @@
       <c r="X377" s="23"/>
       <c r="Y377" s="23"/>
     </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A378" s="23"/>
       <c r="B378" s="23"/>
       <c r="C378" s="23"/>
@@ -12534,7 +12676,7 @@
       <c r="X378" s="23"/>
       <c r="Y378" s="23"/>
     </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A379" s="23"/>
       <c r="B379" s="23"/>
       <c r="C379" s="23"/>
@@ -12561,7 +12703,7 @@
       <c r="X379" s="23"/>
       <c r="Y379" s="23"/>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A380" s="23"/>
       <c r="B380" s="23"/>
       <c r="C380" s="23"/>
@@ -12588,7 +12730,7 @@
       <c r="X380" s="23"/>
       <c r="Y380" s="23"/>
     </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A381" s="23"/>
       <c r="B381" s="23"/>
       <c r="C381" s="23"/>
@@ -12615,7 +12757,7 @@
       <c r="X381" s="23"/>
       <c r="Y381" s="23"/>
     </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A382" s="23"/>
       <c r="B382" s="23"/>
       <c r="C382" s="23"/>
@@ -12642,7 +12784,7 @@
       <c r="X382" s="23"/>
       <c r="Y382" s="23"/>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A383" s="23"/>
       <c r="B383" s="23"/>
       <c r="C383" s="23"/>
@@ -12669,7 +12811,7 @@
       <c r="X383" s="23"/>
       <c r="Y383" s="23"/>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A384" s="23"/>
       <c r="B384" s="23"/>
       <c r="C384" s="23"/>
@@ -12696,7 +12838,7 @@
       <c r="X384" s="23"/>
       <c r="Y384" s="23"/>
     </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A385" s="23"/>
       <c r="B385" s="23"/>
       <c r="C385" s="23"/>
@@ -12723,7 +12865,7 @@
       <c r="X385" s="23"/>
       <c r="Y385" s="23"/>
     </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A386" s="23"/>
       <c r="B386" s="23"/>
       <c r="C386" s="23"/>
@@ -12750,7 +12892,7 @@
       <c r="X386" s="23"/>
       <c r="Y386" s="23"/>
     </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A387" s="23"/>
       <c r="B387" s="23"/>
       <c r="C387" s="23"/>
@@ -12777,7 +12919,7 @@
       <c r="X387" s="23"/>
       <c r="Y387" s="23"/>
     </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A388" s="23"/>
       <c r="B388" s="23"/>
       <c r="C388" s="23"/>
@@ -12804,7 +12946,7 @@
       <c r="X388" s="23"/>
       <c r="Y388" s="23"/>
     </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A389" s="23"/>
       <c r="B389" s="23"/>
       <c r="C389" s="23"/>
@@ -12831,7 +12973,7 @@
       <c r="X389" s="23"/>
       <c r="Y389" s="23"/>
     </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A390" s="23"/>
       <c r="B390" s="23"/>
       <c r="C390" s="23"/>
@@ -12858,7 +13000,7 @@
       <c r="X390" s="23"/>
       <c r="Y390" s="23"/>
     </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A391" s="23"/>
       <c r="B391" s="23"/>
       <c r="C391" s="23"/>
@@ -12885,7 +13027,7 @@
       <c r="X391" s="23"/>
       <c r="Y391" s="23"/>
     </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A392" s="23"/>
       <c r="B392" s="23"/>
       <c r="C392" s="23"/>
@@ -12912,7 +13054,7 @@
       <c r="X392" s="23"/>
       <c r="Y392" s="23"/>
     </row>
-    <row r="393" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A393" s="23"/>
       <c r="B393" s="23"/>
       <c r="C393" s="23"/>
@@ -12939,7 +13081,7 @@
       <c r="X393" s="23"/>
       <c r="Y393" s="23"/>
     </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A394" s="23"/>
       <c r="B394" s="23"/>
       <c r="C394" s="23"/>
@@ -12966,7 +13108,7 @@
       <c r="X394" s="23"/>
       <c r="Y394" s="23"/>
     </row>
-    <row r="395" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A395" s="23"/>
       <c r="B395" s="23"/>
       <c r="C395" s="23"/>
@@ -12993,7 +13135,7 @@
       <c r="X395" s="23"/>
       <c r="Y395" s="23"/>
     </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A396" s="23"/>
       <c r="B396" s="23"/>
       <c r="C396" s="23"/>
@@ -13020,7 +13162,7 @@
       <c r="X396" s="23"/>
       <c r="Y396" s="23"/>
     </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A397" s="23"/>
       <c r="B397" s="23"/>
       <c r="C397" s="23"/>
@@ -13047,7 +13189,7 @@
       <c r="X397" s="23"/>
       <c r="Y397" s="23"/>
     </row>
-    <row r="398" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A398" s="23"/>
       <c r="B398" s="23"/>
       <c r="C398" s="23"/>
@@ -13074,7 +13216,7 @@
       <c r="X398" s="23"/>
       <c r="Y398" s="23"/>
     </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A399" s="23"/>
       <c r="B399" s="23"/>
       <c r="C399" s="23"/>
@@ -13101,7 +13243,7 @@
       <c r="X399" s="23"/>
       <c r="Y399" s="23"/>
     </row>
-    <row r="400" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A400" s="23"/>
       <c r="B400" s="23"/>
       <c r="C400" s="23"/>
@@ -13128,7 +13270,7 @@
       <c r="X400" s="23"/>
       <c r="Y400" s="23"/>
     </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A401" s="23"/>
       <c r="B401" s="23"/>
       <c r="C401" s="23"/>
@@ -13155,7 +13297,7 @@
       <c r="X401" s="23"/>
       <c r="Y401" s="23"/>
     </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A402" s="23"/>
       <c r="B402" s="23"/>
       <c r="C402" s="23"/>
@@ -13182,7 +13324,7 @@
       <c r="X402" s="23"/>
       <c r="Y402" s="23"/>
     </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A403" s="23"/>
       <c r="B403" s="23"/>
       <c r="C403" s="23"/>
@@ -13209,7 +13351,7 @@
       <c r="X403" s="23"/>
       <c r="Y403" s="23"/>
     </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A404" s="23"/>
       <c r="B404" s="23"/>
       <c r="C404" s="23"/>
@@ -13236,7 +13378,7 @@
       <c r="X404" s="23"/>
       <c r="Y404" s="23"/>
     </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A405" s="23"/>
       <c r="B405" s="23"/>
       <c r="C405" s="23"/>
@@ -13263,7 +13405,7 @@
       <c r="X405" s="23"/>
       <c r="Y405" s="23"/>
     </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A406" s="23"/>
       <c r="B406" s="23"/>
       <c r="C406" s="23"/>
@@ -13290,7 +13432,7 @@
       <c r="X406" s="23"/>
       <c r="Y406" s="23"/>
     </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A407" s="23"/>
       <c r="B407" s="23"/>
       <c r="C407" s="23"/>
@@ -13317,7 +13459,7 @@
       <c r="X407" s="23"/>
       <c r="Y407" s="23"/>
     </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A408" s="23"/>
       <c r="B408" s="23"/>
       <c r="C408" s="23"/>
@@ -13344,7 +13486,7 @@
       <c r="X408" s="23"/>
       <c r="Y408" s="23"/>
     </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A409" s="23"/>
       <c r="B409" s="23"/>
       <c r="C409" s="23"/>
@@ -13371,7 +13513,7 @@
       <c r="X409" s="23"/>
       <c r="Y409" s="23"/>
     </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A410" s="23"/>
       <c r="B410" s="23"/>
       <c r="C410" s="23"/>
@@ -13398,7 +13540,7 @@
       <c r="X410" s="23"/>
       <c r="Y410" s="23"/>
     </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A411" s="23"/>
       <c r="B411" s="23"/>
       <c r="C411" s="23"/>
@@ -13425,7 +13567,7 @@
       <c r="X411" s="23"/>
       <c r="Y411" s="23"/>
     </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A412" s="23"/>
       <c r="B412" s="23"/>
       <c r="C412" s="23"/>
@@ -13452,7 +13594,7 @@
       <c r="X412" s="23"/>
       <c r="Y412" s="23"/>
     </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A413" s="23"/>
       <c r="B413" s="23"/>
       <c r="C413" s="23"/>
@@ -13479,7 +13621,7 @@
       <c r="X413" s="23"/>
       <c r="Y413" s="23"/>
     </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A414" s="23"/>
       <c r="B414" s="23"/>
       <c r="C414" s="23"/>
@@ -13506,7 +13648,7 @@
       <c r="X414" s="23"/>
       <c r="Y414" s="23"/>
     </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A415" s="23"/>
       <c r="B415" s="23"/>
       <c r="C415" s="23"/>
@@ -13533,7 +13675,7 @@
       <c r="X415" s="23"/>
       <c r="Y415" s="23"/>
     </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A416" s="23"/>
       <c r="B416" s="23"/>
       <c r="C416" s="23"/>
@@ -13560,7 +13702,7 @@
       <c r="X416" s="23"/>
       <c r="Y416" s="23"/>
     </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A417" s="23"/>
       <c r="B417" s="23"/>
       <c r="C417" s="23"/>
@@ -13587,7 +13729,7 @@
       <c r="X417" s="23"/>
       <c r="Y417" s="23"/>
     </row>
-    <row r="418" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A418" s="23"/>
       <c r="B418" s="23"/>
       <c r="C418" s="23"/>
@@ -13614,7 +13756,7 @@
       <c r="X418" s="23"/>
       <c r="Y418" s="23"/>
     </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A419" s="23"/>
       <c r="B419" s="23"/>
       <c r="C419" s="23"/>
@@ -13641,7 +13783,7 @@
       <c r="X419" s="23"/>
       <c r="Y419" s="23"/>
     </row>
-    <row r="420" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A420" s="23"/>
       <c r="B420" s="23"/>
       <c r="C420" s="23"/>
@@ -13668,7 +13810,7 @@
       <c r="X420" s="23"/>
       <c r="Y420" s="23"/>
     </row>
-    <row r="421" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A421" s="23"/>
       <c r="B421" s="23"/>
       <c r="C421" s="23"/>
@@ -13695,7 +13837,7 @@
       <c r="X421" s="23"/>
       <c r="Y421" s="23"/>
     </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A422" s="23"/>
       <c r="B422" s="23"/>
       <c r="C422" s="23"/>
@@ -13722,7 +13864,7 @@
       <c r="X422" s="23"/>
       <c r="Y422" s="23"/>
     </row>
-    <row r="423" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A423" s="23"/>
       <c r="B423" s="23"/>
       <c r="C423" s="23"/>
@@ -13749,7 +13891,7 @@
       <c r="X423" s="23"/>
       <c r="Y423" s="23"/>
     </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A424" s="23"/>
       <c r="B424" s="23"/>
       <c r="C424" s="23"/>
@@ -13776,7 +13918,7 @@
       <c r="X424" s="23"/>
       <c r="Y424" s="23"/>
     </row>
-    <row r="425" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A425" s="23"/>
       <c r="B425" s="23"/>
       <c r="C425" s="23"/>
@@ -13803,7 +13945,7 @@
       <c r="X425" s="23"/>
       <c r="Y425" s="23"/>
     </row>
-    <row r="426" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A426" s="23"/>
       <c r="B426" s="23"/>
       <c r="C426" s="23"/>
@@ -13830,7 +13972,7 @@
       <c r="X426" s="23"/>
       <c r="Y426" s="23"/>
     </row>
-    <row r="427" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A427" s="23"/>
       <c r="B427" s="23"/>
       <c r="C427" s="23"/>
@@ -13857,7 +13999,7 @@
       <c r="X427" s="23"/>
       <c r="Y427" s="23"/>
     </row>
-    <row r="428" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A428" s="23"/>
       <c r="B428" s="23"/>
       <c r="C428" s="23"/>
@@ -13884,7 +14026,7 @@
       <c r="X428" s="23"/>
       <c r="Y428" s="23"/>
     </row>
-    <row r="429" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A429" s="23"/>
       <c r="B429" s="23"/>
       <c r="C429" s="23"/>
@@ -13911,7 +14053,7 @@
       <c r="X429" s="23"/>
       <c r="Y429" s="23"/>
     </row>
-    <row r="430" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A430" s="23"/>
       <c r="B430" s="23"/>
       <c r="C430" s="23"/>
@@ -13938,7 +14080,7 @@
       <c r="X430" s="23"/>
       <c r="Y430" s="23"/>
     </row>
-    <row r="431" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A431" s="23"/>
       <c r="B431" s="23"/>
       <c r="C431" s="23"/>
@@ -13965,7 +14107,7 @@
       <c r="X431" s="23"/>
       <c r="Y431" s="23"/>
     </row>
-    <row r="432" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A432" s="23"/>
       <c r="B432" s="23"/>
       <c r="C432" s="23"/>
@@ -13992,7 +14134,7 @@
       <c r="X432" s="23"/>
       <c r="Y432" s="23"/>
     </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A433" s="23"/>
       <c r="B433" s="23"/>
       <c r="C433" s="23"/>
@@ -14019,7 +14161,7 @@
       <c r="X433" s="23"/>
       <c r="Y433" s="23"/>
     </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A434" s="23"/>
       <c r="B434" s="23"/>
       <c r="C434" s="23"/>
@@ -14046,7 +14188,7 @@
       <c r="X434" s="23"/>
       <c r="Y434" s="23"/>
     </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A435" s="23"/>
       <c r="B435" s="23"/>
       <c r="C435" s="23"/>
@@ -14073,7 +14215,7 @@
       <c r="X435" s="23"/>
       <c r="Y435" s="23"/>
     </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A436" s="23"/>
       <c r="B436" s="23"/>
       <c r="C436" s="23"/>
@@ -14100,7 +14242,7 @@
       <c r="X436" s="23"/>
       <c r="Y436" s="23"/>
     </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A437" s="23"/>
       <c r="B437" s="23"/>
       <c r="C437" s="23"/>
@@ -14127,7 +14269,7 @@
       <c r="X437" s="23"/>
       <c r="Y437" s="23"/>
     </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A438" s="23"/>
       <c r="B438" s="23"/>
       <c r="C438" s="23"/>
@@ -14154,7 +14296,7 @@
       <c r="X438" s="23"/>
       <c r="Y438" s="23"/>
     </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A439" s="23"/>
       <c r="B439" s="23"/>
       <c r="C439" s="23"/>
@@ -14181,7 +14323,7 @@
       <c r="X439" s="23"/>
       <c r="Y439" s="23"/>
     </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A440" s="23"/>
       <c r="B440" s="23"/>
       <c r="C440" s="23"/>
@@ -14208,7 +14350,7 @@
       <c r="X440" s="23"/>
       <c r="Y440" s="23"/>
     </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A441" s="23"/>
       <c r="B441" s="23"/>
       <c r="C441" s="23"/>
@@ -14235,7 +14377,7 @@
       <c r="X441" s="23"/>
       <c r="Y441" s="23"/>
     </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A442" s="23"/>
       <c r="B442" s="23"/>
       <c r="C442" s="23"/>
@@ -14262,7 +14404,7 @@
       <c r="X442" s="23"/>
       <c r="Y442" s="23"/>
     </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A443" s="23"/>
       <c r="B443" s="23"/>
       <c r="C443" s="23"/>
@@ -14289,7 +14431,7 @@
       <c r="X443" s="23"/>
       <c r="Y443" s="23"/>
     </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A444" s="23"/>
       <c r="B444" s="23"/>
       <c r="C444" s="23"/>
@@ -14316,7 +14458,7 @@
       <c r="X444" s="23"/>
       <c r="Y444" s="23"/>
     </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A445" s="23"/>
       <c r="B445" s="23"/>
       <c r="C445" s="23"/>
@@ -14343,7 +14485,7 @@
       <c r="X445" s="23"/>
       <c r="Y445" s="23"/>
     </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A446" s="23"/>
       <c r="B446" s="23"/>
       <c r="C446" s="23"/>
@@ -14370,7 +14512,7 @@
       <c r="X446" s="23"/>
       <c r="Y446" s="23"/>
     </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A447" s="23"/>
       <c r="B447" s="23"/>
       <c r="C447" s="23"/>
@@ -14397,7 +14539,7 @@
       <c r="X447" s="23"/>
       <c r="Y447" s="23"/>
     </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A448" s="23"/>
       <c r="B448" s="23"/>
       <c r="C448" s="23"/>
@@ -14424,7 +14566,7 @@
       <c r="X448" s="23"/>
       <c r="Y448" s="23"/>
     </row>
-    <row r="449" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A449" s="23"/>
       <c r="B449" s="23"/>
       <c r="C449" s="23"/>
@@ -14451,7 +14593,7 @@
       <c r="X449" s="23"/>
       <c r="Y449" s="23"/>
     </row>
-    <row r="450" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A450" s="23"/>
       <c r="B450" s="23"/>
       <c r="C450" s="23"/>
@@ -14478,7 +14620,7 @@
       <c r="X450" s="23"/>
       <c r="Y450" s="23"/>
     </row>
-    <row r="451" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A451" s="23"/>
       <c r="B451" s="23"/>
       <c r="C451" s="23"/>
@@ -14505,7 +14647,7 @@
       <c r="X451" s="23"/>
       <c r="Y451" s="23"/>
     </row>
-    <row r="452" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A452" s="23"/>
       <c r="B452" s="23"/>
       <c r="C452" s="23"/>
@@ -14532,7 +14674,7 @@
       <c r="X452" s="23"/>
       <c r="Y452" s="23"/>
     </row>
-    <row r="453" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A453" s="23"/>
       <c r="B453" s="23"/>
       <c r="C453" s="23"/>
@@ -14559,7 +14701,7 @@
       <c r="X453" s="23"/>
       <c r="Y453" s="23"/>
     </row>
-    <row r="454" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A454" s="23"/>
       <c r="B454" s="23"/>
       <c r="C454" s="23"/>
@@ -14586,7 +14728,7 @@
       <c r="X454" s="23"/>
       <c r="Y454" s="23"/>
     </row>
-    <row r="455" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A455" s="23"/>
       <c r="B455" s="23"/>
       <c r="C455" s="23"/>
@@ -14613,7 +14755,7 @@
       <c r="X455" s="23"/>
       <c r="Y455" s="23"/>
     </row>
-    <row r="456" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A456" s="23"/>
       <c r="B456" s="23"/>
       <c r="C456" s="23"/>
@@ -14640,7 +14782,7 @@
       <c r="X456" s="23"/>
       <c r="Y456" s="23"/>
     </row>
-    <row r="457" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A457" s="23"/>
       <c r="B457" s="23"/>
       <c r="C457" s="23"/>
@@ -14667,7 +14809,7 @@
       <c r="X457" s="23"/>
       <c r="Y457" s="23"/>
     </row>
-    <row r="458" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A458" s="23"/>
       <c r="B458" s="23"/>
       <c r="C458" s="23"/>
@@ -14694,7 +14836,7 @@
       <c r="X458" s="23"/>
       <c r="Y458" s="23"/>
     </row>
-    <row r="459" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A459" s="23"/>
       <c r="B459" s="23"/>
       <c r="C459" s="23"/>
@@ -14721,7 +14863,7 @@
       <c r="X459" s="23"/>
       <c r="Y459" s="23"/>
     </row>
-    <row r="460" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A460" s="23"/>
       <c r="B460" s="23"/>
       <c r="C460" s="23"/>
@@ -14748,7 +14890,7 @@
       <c r="X460" s="23"/>
       <c r="Y460" s="23"/>
     </row>
-    <row r="461" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A461" s="23"/>
       <c r="B461" s="23"/>
       <c r="C461" s="23"/>
@@ -14775,7 +14917,7 @@
       <c r="X461" s="23"/>
       <c r="Y461" s="23"/>
     </row>
-    <row r="462" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A462" s="23"/>
       <c r="B462" s="23"/>
       <c r="C462" s="23"/>
@@ -14802,7 +14944,7 @@
       <c r="X462" s="23"/>
       <c r="Y462" s="23"/>
     </row>
-    <row r="463" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A463" s="23"/>
       <c r="B463" s="23"/>
       <c r="C463" s="23"/>
@@ -14829,7 +14971,7 @@
       <c r="X463" s="23"/>
       <c r="Y463" s="23"/>
     </row>
-    <row r="464" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A464" s="23"/>
       <c r="B464" s="23"/>
       <c r="C464" s="23"/>
@@ -14856,7 +14998,7 @@
       <c r="X464" s="23"/>
       <c r="Y464" s="23"/>
     </row>
-    <row r="465" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A465" s="23"/>
       <c r="B465" s="23"/>
       <c r="C465" s="23"/>
@@ -14883,7 +15025,7 @@
       <c r="X465" s="23"/>
       <c r="Y465" s="23"/>
     </row>
-    <row r="466" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A466" s="23"/>
       <c r="B466" s="23"/>
       <c r="C466" s="23"/>
@@ -14910,7 +15052,7 @@
       <c r="X466" s="23"/>
       <c r="Y466" s="23"/>
     </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A467" s="23"/>
       <c r="B467" s="23"/>
       <c r="C467" s="23"/>
@@ -14937,7 +15079,7 @@
       <c r="X467" s="23"/>
       <c r="Y467" s="23"/>
     </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A468" s="23"/>
       <c r="B468" s="23"/>
       <c r="C468" s="23"/>
@@ -14964,7 +15106,7 @@
       <c r="X468" s="23"/>
       <c r="Y468" s="23"/>
     </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A469" s="23"/>
       <c r="B469" s="23"/>
       <c r="C469" s="23"/>
@@ -14991,7 +15133,7 @@
       <c r="X469" s="23"/>
       <c r="Y469" s="23"/>
     </row>
-    <row r="470" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A470" s="23"/>
       <c r="B470" s="23"/>
       <c r="C470" s="23"/>
@@ -15018,7 +15160,7 @@
       <c r="X470" s="23"/>
       <c r="Y470" s="23"/>
     </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A471" s="23"/>
       <c r="B471" s="23"/>
       <c r="C471" s="23"/>
@@ -15045,7 +15187,7 @@
       <c r="X471" s="23"/>
       <c r="Y471" s="23"/>
     </row>
-    <row r="472" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A472" s="23"/>
       <c r="B472" s="23"/>
       <c r="C472" s="23"/>
@@ -15072,7 +15214,7 @@
       <c r="X472" s="23"/>
       <c r="Y472" s="23"/>
     </row>
-    <row r="473" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A473" s="23"/>
       <c r="B473" s="23"/>
       <c r="C473" s="23"/>
@@ -15099,7 +15241,7 @@
       <c r="X473" s="23"/>
       <c r="Y473" s="23"/>
     </row>
-    <row r="474" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A474" s="23"/>
       <c r="B474" s="23"/>
       <c r="C474" s="23"/>
@@ -15126,7 +15268,7 @@
       <c r="X474" s="23"/>
       <c r="Y474" s="23"/>
     </row>
-    <row r="475" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A475" s="23"/>
       <c r="B475" s="23"/>
       <c r="C475" s="23"/>
@@ -15153,7 +15295,7 @@
       <c r="X475" s="23"/>
       <c r="Y475" s="23"/>
     </row>
-    <row r="476" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A476" s="23"/>
       <c r="B476" s="23"/>
       <c r="C476" s="23"/>
@@ -15180,7 +15322,7 @@
       <c r="X476" s="23"/>
       <c r="Y476" s="23"/>
     </row>
-    <row r="477" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A477" s="23"/>
       <c r="B477" s="23"/>
       <c r="C477" s="23"/>
@@ -15207,7 +15349,7 @@
       <c r="X477" s="23"/>
       <c r="Y477" s="23"/>
     </row>
-    <row r="478" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A478" s="23"/>
       <c r="B478" s="23"/>
       <c r="C478" s="23"/>
@@ -15234,7 +15376,7 @@
       <c r="X478" s="23"/>
       <c r="Y478" s="23"/>
     </row>
-    <row r="479" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A479" s="23"/>
       <c r="B479" s="23"/>
       <c r="C479" s="23"/>
@@ -15261,7 +15403,7 @@
       <c r="X479" s="23"/>
       <c r="Y479" s="23"/>
     </row>
-    <row r="480" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A480" s="23"/>
       <c r="B480" s="23"/>
       <c r="C480" s="23"/>
@@ -15288,7 +15430,7 @@
       <c r="X480" s="23"/>
       <c r="Y480" s="23"/>
     </row>
-    <row r="481" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A481" s="23"/>
       <c r="B481" s="23"/>
       <c r="C481" s="23"/>
@@ -15315,7 +15457,7 @@
       <c r="X481" s="23"/>
       <c r="Y481" s="23"/>
     </row>
-    <row r="482" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A482" s="23"/>
       <c r="B482" s="23"/>
       <c r="C482" s="23"/>
@@ -15342,7 +15484,7 @@
       <c r="X482" s="23"/>
       <c r="Y482" s="23"/>
     </row>
-    <row r="483" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A483" s="23"/>
       <c r="B483" s="23"/>
       <c r="C483" s="23"/>
@@ -15369,7 +15511,7 @@
       <c r="X483" s="23"/>
       <c r="Y483" s="23"/>
     </row>
-    <row r="484" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A484" s="23"/>
       <c r="B484" s="23"/>
       <c r="C484" s="23"/>
@@ -15396,7 +15538,7 @@
       <c r="X484" s="23"/>
       <c r="Y484" s="23"/>
     </row>
-    <row r="485" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A485" s="23"/>
       <c r="B485" s="23"/>
       <c r="C485" s="23"/>
@@ -15423,7 +15565,7 @@
       <c r="X485" s="23"/>
       <c r="Y485" s="23"/>
     </row>
-    <row r="486" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A486" s="23"/>
       <c r="B486" s="23"/>
       <c r="C486" s="23"/>
@@ -15450,7 +15592,7 @@
       <c r="X486" s="23"/>
       <c r="Y486" s="23"/>
     </row>
-    <row r="487" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A487" s="23"/>
       <c r="B487" s="23"/>
       <c r="C487" s="23"/>
@@ -15477,7 +15619,7 @@
       <c r="X487" s="23"/>
       <c r="Y487" s="23"/>
     </row>
-    <row r="488" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A488" s="23"/>
       <c r="B488" s="23"/>
       <c r="C488" s="23"/>
@@ -15504,7 +15646,7 @@
       <c r="X488" s="23"/>
       <c r="Y488" s="23"/>
     </row>
-    <row r="489" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A489" s="23"/>
       <c r="B489" s="23"/>
       <c r="C489" s="23"/>
@@ -15531,7 +15673,7 @@
       <c r="X489" s="23"/>
       <c r="Y489" s="23"/>
     </row>
-    <row r="490" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A490" s="23"/>
       <c r="B490" s="23"/>
       <c r="C490" s="23"/>
@@ -15558,7 +15700,7 @@
       <c r="X490" s="23"/>
       <c r="Y490" s="23"/>
     </row>
-    <row r="491" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A491" s="23"/>
       <c r="B491" s="23"/>
       <c r="C491" s="23"/>
@@ -15585,7 +15727,7 @@
       <c r="X491" s="23"/>
       <c r="Y491" s="23"/>
     </row>
-    <row r="492" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A492" s="23"/>
       <c r="B492" s="23"/>
       <c r="C492" s="23"/>
@@ -15612,7 +15754,7 @@
       <c r="X492" s="23"/>
       <c r="Y492" s="23"/>
     </row>
-    <row r="493" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A493" s="23"/>
       <c r="B493" s="23"/>
       <c r="C493" s="23"/>
@@ -15639,7 +15781,7 @@
       <c r="X493" s="23"/>
       <c r="Y493" s="23"/>
     </row>
-    <row r="494" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A494" s="23"/>
       <c r="B494" s="23"/>
       <c r="C494" s="23"/>
@@ -15666,7 +15808,7 @@
       <c r="X494" s="23"/>
       <c r="Y494" s="23"/>
     </row>
-    <row r="495" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A495" s="23"/>
       <c r="B495" s="23"/>
       <c r="C495" s="23"/>
@@ -15693,7 +15835,7 @@
       <c r="X495" s="23"/>
       <c r="Y495" s="23"/>
     </row>
-    <row r="496" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A496" s="23"/>
       <c r="B496" s="23"/>
       <c r="C496" s="23"/>
@@ -15720,7 +15862,7 @@
       <c r="X496" s="23"/>
       <c r="Y496" s="23"/>
     </row>
-    <row r="497" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A497" s="23"/>
       <c r="B497" s="23"/>
       <c r="C497" s="23"/>
@@ -15747,7 +15889,7 @@
       <c r="X497" s="23"/>
       <c r="Y497" s="23"/>
     </row>
-    <row r="498" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A498" s="23"/>
       <c r="B498" s="23"/>
       <c r="C498" s="23"/>
@@ -15774,7 +15916,7 @@
       <c r="X498" s="23"/>
       <c r="Y498" s="23"/>
     </row>
-    <row r="499" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A499" s="23"/>
       <c r="B499" s="23"/>
       <c r="C499" s="23"/>
@@ -15801,7 +15943,7 @@
       <c r="X499" s="23"/>
       <c r="Y499" s="23"/>
     </row>
-    <row r="500" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A500" s="23"/>
       <c r="B500" s="23"/>
       <c r="C500" s="23"/>
@@ -15828,7 +15970,7 @@
       <c r="X500" s="23"/>
       <c r="Y500" s="23"/>
     </row>
-    <row r="501" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A501" s="23"/>
       <c r="B501" s="23"/>
       <c r="C501" s="23"/>
@@ -15855,7 +15997,7 @@
       <c r="X501" s="23"/>
       <c r="Y501" s="23"/>
     </row>
-    <row r="502" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A502" s="23"/>
       <c r="B502" s="23"/>
       <c r="C502" s="23"/>
@@ -15882,7 +16024,7 @@
       <c r="X502" s="23"/>
       <c r="Y502" s="23"/>
     </row>
-    <row r="503" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A503" s="23"/>
       <c r="B503" s="23"/>
       <c r="C503" s="23"/>
@@ -15909,7 +16051,7 @@
       <c r="X503" s="23"/>
       <c r="Y503" s="23"/>
     </row>
-    <row r="504" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A504" s="23"/>
       <c r="B504" s="23"/>
       <c r="C504" s="23"/>
@@ -15936,7 +16078,7 @@
       <c r="X504" s="23"/>
       <c r="Y504" s="23"/>
     </row>
-    <row r="505" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A505" s="23"/>
       <c r="B505" s="23"/>
       <c r="C505" s="23"/>
@@ -15963,7 +16105,7 @@
       <c r="X505" s="23"/>
       <c r="Y505" s="23"/>
     </row>
-    <row r="506" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A506" s="23"/>
       <c r="B506" s="23"/>
       <c r="C506" s="23"/>
@@ -15990,7 +16132,7 @@
       <c r="X506" s="23"/>
       <c r="Y506" s="23"/>
     </row>
-    <row r="507" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A507" s="23"/>
       <c r="B507" s="23"/>
       <c r="C507" s="23"/>
@@ -16017,7 +16159,7 @@
       <c r="X507" s="23"/>
       <c r="Y507" s="23"/>
     </row>
-    <row r="508" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A508" s="23"/>
       <c r="B508" s="23"/>
       <c r="C508" s="23"/>
@@ -16044,7 +16186,7 @@
       <c r="X508" s="23"/>
       <c r="Y508" s="23"/>
     </row>
-    <row r="509" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A509" s="23"/>
       <c r="B509" s="23"/>
       <c r="C509" s="23"/>
@@ -16071,7 +16213,7 @@
       <c r="X509" s="23"/>
       <c r="Y509" s="23"/>
     </row>
-    <row r="510" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A510" s="23"/>
       <c r="B510" s="23"/>
       <c r="C510" s="23"/>
@@ -16098,7 +16240,7 @@
       <c r="X510" s="23"/>
       <c r="Y510" s="23"/>
     </row>
-    <row r="511" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A511" s="23"/>
       <c r="B511" s="23"/>
       <c r="C511" s="23"/>
@@ -16125,7 +16267,7 @@
       <c r="X511" s="23"/>
       <c r="Y511" s="23"/>
     </row>
-    <row r="512" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A512" s="23"/>
       <c r="B512" s="23"/>
       <c r="C512" s="23"/>
@@ -16152,7 +16294,7 @@
       <c r="X512" s="23"/>
       <c r="Y512" s="23"/>
     </row>
-    <row r="513" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A513" s="23"/>
       <c r="B513" s="23"/>
       <c r="C513" s="23"/>
@@ -16179,7 +16321,7 @@
       <c r="X513" s="23"/>
       <c r="Y513" s="23"/>
     </row>
-    <row r="514" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A514" s="23"/>
       <c r="B514" s="23"/>
       <c r="C514" s="23"/>
@@ -16206,7 +16348,7 @@
       <c r="X514" s="23"/>
       <c r="Y514" s="23"/>
     </row>
-    <row r="515" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A515" s="23"/>
       <c r="B515" s="23"/>
       <c r="C515" s="23"/>
@@ -16233,7 +16375,7 @@
       <c r="X515" s="23"/>
       <c r="Y515" s="23"/>
     </row>
-    <row r="516" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A516" s="23"/>
       <c r="B516" s="23"/>
       <c r="C516" s="23"/>
@@ -16260,7 +16402,7 @@
       <c r="X516" s="23"/>
       <c r="Y516" s="23"/>
     </row>
-    <row r="517" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A517" s="23"/>
       <c r="B517" s="23"/>
       <c r="C517" s="23"/>
@@ -16287,7 +16429,7 @@
       <c r="X517" s="23"/>
       <c r="Y517" s="23"/>
     </row>
-    <row r="518" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A518" s="23"/>
       <c r="B518" s="23"/>
       <c r="C518" s="23"/>
@@ -16314,7 +16456,7 @@
       <c r="X518" s="23"/>
       <c r="Y518" s="23"/>
     </row>
-    <row r="519" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A519" s="23"/>
       <c r="B519" s="23"/>
       <c r="C519" s="23"/>
@@ -16341,7 +16483,7 @@
       <c r="X519" s="23"/>
       <c r="Y519" s="23"/>
     </row>
-    <row r="520" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A520" s="23"/>
       <c r="B520" s="23"/>
       <c r="C520" s="23"/>
@@ -16368,7 +16510,7 @@
       <c r="X520" s="23"/>
       <c r="Y520" s="23"/>
     </row>
-    <row r="521" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A521" s="23"/>
       <c r="B521" s="23"/>
       <c r="C521" s="23"/>
@@ -16395,7 +16537,7 @@
       <c r="X521" s="23"/>
       <c r="Y521" s="23"/>
     </row>
-    <row r="522" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A522" s="23"/>
       <c r="B522" s="23"/>
       <c r="C522" s="23"/>
@@ -16422,7 +16564,7 @@
       <c r="X522" s="23"/>
       <c r="Y522" s="23"/>
     </row>
-    <row r="523" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A523" s="23"/>
       <c r="B523" s="23"/>
       <c r="C523" s="23"/>
@@ -16449,7 +16591,7 @@
       <c r="X523" s="23"/>
       <c r="Y523" s="23"/>
     </row>
-    <row r="524" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A524" s="23"/>
       <c r="B524" s="23"/>
       <c r="C524" s="23"/>
@@ -16476,7 +16618,7 @@
       <c r="X524" s="23"/>
       <c r="Y524" s="23"/>
     </row>
-    <row r="525" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A525" s="23"/>
       <c r="B525" s="23"/>
       <c r="C525" s="23"/>
@@ -16503,7 +16645,7 @@
       <c r="X525" s="23"/>
       <c r="Y525" s="23"/>
     </row>
-    <row r="526" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A526" s="23"/>
       <c r="B526" s="23"/>
       <c r="C526" s="23"/>
@@ -16530,7 +16672,7 @@
       <c r="X526" s="23"/>
       <c r="Y526" s="23"/>
     </row>
-    <row r="527" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A527" s="23"/>
       <c r="B527" s="23"/>
       <c r="C527" s="23"/>
@@ -16557,7 +16699,7 @@
       <c r="X527" s="23"/>
       <c r="Y527" s="23"/>
     </row>
-    <row r="528" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A528" s="23"/>
       <c r="B528" s="23"/>
       <c r="C528" s="23"/>
@@ -16584,7 +16726,7 @@
       <c r="X528" s="23"/>
       <c r="Y528" s="23"/>
     </row>
-    <row r="529" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A529" s="23"/>
       <c r="B529" s="23"/>
       <c r="C529" s="23"/>
@@ -16611,7 +16753,7 @@
       <c r="X529" s="23"/>
       <c r="Y529" s="23"/>
     </row>
-    <row r="530" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A530" s="23"/>
       <c r="B530" s="23"/>
       <c r="C530" s="23"/>
@@ -16638,7 +16780,7 @@
       <c r="X530" s="23"/>
       <c r="Y530" s="23"/>
     </row>
-    <row r="531" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A531" s="23"/>
       <c r="B531" s="23"/>
       <c r="C531" s="23"/>
@@ -16665,7 +16807,7 @@
       <c r="X531" s="23"/>
       <c r="Y531" s="23"/>
     </row>
-    <row r="532" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A532" s="23"/>
       <c r="B532" s="23"/>
       <c r="C532" s="23"/>
@@ -16692,7 +16834,7 @@
       <c r="X532" s="23"/>
       <c r="Y532" s="23"/>
     </row>
-    <row r="533" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A533" s="23"/>
       <c r="B533" s="23"/>
       <c r="C533" s="23"/>
@@ -16719,7 +16861,7 @@
       <c r="X533" s="23"/>
       <c r="Y533" s="23"/>
     </row>
-    <row r="534" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A534" s="23"/>
       <c r="B534" s="23"/>
       <c r="C534" s="23"/>
@@ -16746,7 +16888,7 @@
       <c r="X534" s="23"/>
       <c r="Y534" s="23"/>
     </row>
-    <row r="535" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A535" s="23"/>
       <c r="B535" s="23"/>
       <c r="C535" s="23"/>
@@ -16773,7 +16915,7 @@
       <c r="X535" s="23"/>
       <c r="Y535" s="23"/>
     </row>
-    <row r="536" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A536" s="23"/>
       <c r="B536" s="23"/>
       <c r="C536" s="23"/>
@@ -16800,7 +16942,7 @@
       <c r="X536" s="23"/>
       <c r="Y536" s="23"/>
     </row>
-    <row r="537" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A537" s="23"/>
       <c r="B537" s="23"/>
       <c r="C537" s="23"/>
@@ -16827,7 +16969,7 @@
       <c r="X537" s="23"/>
       <c r="Y537" s="23"/>
     </row>
-    <row r="538" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A538" s="23"/>
       <c r="B538" s="23"/>
       <c r="C538" s="23"/>
@@ -16854,7 +16996,7 @@
       <c r="X538" s="23"/>
       <c r="Y538" s="23"/>
     </row>
-    <row r="539" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A539" s="23"/>
       <c r="B539" s="23"/>
       <c r="C539" s="23"/>
@@ -16881,7 +17023,7 @@
       <c r="X539" s="23"/>
       <c r="Y539" s="23"/>
     </row>
-    <row r="540" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A540" s="23"/>
       <c r="B540" s="23"/>
       <c r="C540" s="23"/>
@@ -16908,7 +17050,7 @@
       <c r="X540" s="23"/>
       <c r="Y540" s="23"/>
     </row>
-    <row r="541" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A541" s="23"/>
       <c r="B541" s="23"/>
       <c r="C541" s="23"/>
@@ -16935,7 +17077,7 @@
       <c r="X541" s="23"/>
       <c r="Y541" s="23"/>
     </row>
-    <row r="542" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A542" s="23"/>
       <c r="B542" s="23"/>
       <c r="C542" s="23"/>
@@ -16962,7 +17104,7 @@
       <c r="X542" s="23"/>
       <c r="Y542" s="23"/>
     </row>
-    <row r="543" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A543" s="23"/>
       <c r="B543" s="23"/>
       <c r="C543" s="23"/>
@@ -16989,7 +17131,7 @@
       <c r="X543" s="23"/>
       <c r="Y543" s="23"/>
     </row>
-    <row r="544" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A544" s="23"/>
       <c r="B544" s="23"/>
       <c r="C544" s="23"/>
@@ -17016,7 +17158,7 @@
       <c r="X544" s="23"/>
       <c r="Y544" s="23"/>
     </row>
-    <row r="545" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A545" s="23"/>
       <c r="B545" s="23"/>
       <c r="C545" s="23"/>
@@ -17043,7 +17185,7 @@
       <c r="X545" s="23"/>
       <c r="Y545" s="23"/>
     </row>
-    <row r="546" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A546" s="23"/>
       <c r="B546" s="23"/>
       <c r="C546" s="23"/>
@@ -17070,7 +17212,7 @@
       <c r="X546" s="23"/>
       <c r="Y546" s="23"/>
     </row>
-    <row r="547" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A547" s="23"/>
       <c r="B547" s="23"/>
       <c r="C547" s="23"/>
@@ -17097,7 +17239,7 @@
       <c r="X547" s="23"/>
       <c r="Y547" s="23"/>
     </row>
-    <row r="548" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A548" s="23"/>
       <c r="B548" s="23"/>
       <c r="C548" s="23"/>
@@ -17124,7 +17266,7 @@
       <c r="X548" s="23"/>
       <c r="Y548" s="23"/>
     </row>
-    <row r="549" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A549" s="23"/>
       <c r="B549" s="23"/>
       <c r="C549" s="23"/>
@@ -17151,7 +17293,7 @@
       <c r="X549" s="23"/>
       <c r="Y549" s="23"/>
     </row>
-    <row r="550" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A550" s="23"/>
       <c r="B550" s="23"/>
       <c r="C550" s="23"/>
@@ -17178,7 +17320,7 @@
       <c r="X550" s="23"/>
       <c r="Y550" s="23"/>
     </row>
-    <row r="551" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A551" s="23"/>
       <c r="B551" s="23"/>
       <c r="C551" s="23"/>
@@ -17205,7 +17347,7 @@
       <c r="X551" s="23"/>
       <c r="Y551" s="23"/>
     </row>
-    <row r="552" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A552" s="23"/>
       <c r="B552" s="23"/>
       <c r="C552" s="23"/>
@@ -17232,7 +17374,7 @@
       <c r="X552" s="23"/>
       <c r="Y552" s="23"/>
     </row>
-    <row r="553" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A553" s="23"/>
       <c r="B553" s="23"/>
       <c r="C553" s="23"/>
@@ -17259,7 +17401,7 @@
       <c r="X553" s="23"/>
       <c r="Y553" s="23"/>
     </row>
-    <row r="554" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A554" s="23"/>
       <c r="B554" s="23"/>
       <c r="C554" s="23"/>
@@ -17286,7 +17428,7 @@
       <c r="X554" s="23"/>
       <c r="Y554" s="23"/>
     </row>
-    <row r="555" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A555" s="23"/>
       <c r="B555" s="23"/>
       <c r="C555" s="23"/>
@@ -17313,7 +17455,7 @@
       <c r="X555" s="23"/>
       <c r="Y555" s="23"/>
     </row>
-    <row r="556" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A556" s="23"/>
       <c r="B556" s="23"/>
       <c r="C556" s="23"/>
@@ -17340,7 +17482,7 @@
       <c r="X556" s="23"/>
       <c r="Y556" s="23"/>
     </row>
-    <row r="557" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A557" s="23"/>
       <c r="B557" s="23"/>
       <c r="C557" s="23"/>
@@ -17367,7 +17509,7 @@
       <c r="X557" s="23"/>
       <c r="Y557" s="23"/>
     </row>
-    <row r="558" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A558" s="23"/>
       <c r="B558" s="23"/>
       <c r="C558" s="23"/>
@@ -17394,7 +17536,7 @@
       <c r="X558" s="23"/>
       <c r="Y558" s="23"/>
     </row>
-    <row r="559" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A559" s="23"/>
       <c r="B559" s="23"/>
       <c r="C559" s="23"/>
@@ -17421,7 +17563,7 @@
       <c r="X559" s="23"/>
       <c r="Y559" s="23"/>
     </row>
-    <row r="560" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A560" s="23"/>
       <c r="B560" s="23"/>
       <c r="C560" s="23"/>
@@ -17448,7 +17590,7 @@
       <c r="X560" s="23"/>
       <c r="Y560" s="23"/>
     </row>
-    <row r="561" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A561" s="23"/>
       <c r="B561" s="23"/>
       <c r="C561" s="23"/>
@@ -17475,7 +17617,7 @@
       <c r="X561" s="23"/>
       <c r="Y561" s="23"/>
     </row>
-    <row r="562" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A562" s="23"/>
       <c r="B562" s="23"/>
       <c r="C562" s="23"/>
@@ -17502,7 +17644,7 @@
       <c r="X562" s="23"/>
       <c r="Y562" s="23"/>
     </row>
-    <row r="563" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A563" s="23"/>
       <c r="B563" s="23"/>
       <c r="C563" s="23"/>
@@ -17529,7 +17671,7 @@
       <c r="X563" s="23"/>
       <c r="Y563" s="23"/>
     </row>
-    <row r="564" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A564" s="23"/>
       <c r="B564" s="23"/>
       <c r="C564" s="23"/>
@@ -17556,7 +17698,7 @@
       <c r="X564" s="23"/>
       <c r="Y564" s="23"/>
     </row>
-    <row r="565" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A565" s="23"/>
       <c r="B565" s="23"/>
       <c r="C565" s="23"/>
@@ -17583,7 +17725,7 @@
       <c r="X565" s="23"/>
       <c r="Y565" s="23"/>
     </row>
-    <row r="566" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A566" s="23"/>
       <c r="B566" s="23"/>
       <c r="C566" s="23"/>
@@ -17610,7 +17752,7 @@
       <c r="X566" s="23"/>
       <c r="Y566" s="23"/>
     </row>
-    <row r="567" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A567" s="23"/>
       <c r="B567" s="23"/>
       <c r="C567" s="23"/>
@@ -17637,7 +17779,7 @@
       <c r="X567" s="23"/>
       <c r="Y567" s="23"/>
     </row>
-    <row r="568" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A568" s="23"/>
       <c r="B568" s="23"/>
       <c r="C568" s="23"/>
@@ -17664,7 +17806,7 @@
       <c r="X568" s="23"/>
       <c r="Y568" s="23"/>
     </row>
-    <row r="569" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A569" s="23"/>
       <c r="B569" s="23"/>
       <c r="C569" s="23"/>
@@ -17691,7 +17833,7 @@
       <c r="X569" s="23"/>
       <c r="Y569" s="23"/>
     </row>
-    <row r="570" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A570" s="23"/>
       <c r="B570" s="23"/>
       <c r="C570" s="23"/>
@@ -17718,7 +17860,7 @@
       <c r="X570" s="23"/>
       <c r="Y570" s="23"/>
     </row>
-    <row r="571" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A571" s="23"/>
       <c r="B571" s="23"/>
       <c r="C571" s="23"/>
@@ -17745,7 +17887,7 @@
       <c r="X571" s="23"/>
       <c r="Y571" s="23"/>
     </row>
-    <row r="572" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A572" s="23"/>
       <c r="B572" s="23"/>
       <c r="C572" s="23"/>
@@ -17772,7 +17914,7 @@
       <c r="X572" s="23"/>
       <c r="Y572" s="23"/>
     </row>
-    <row r="573" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A573" s="23"/>
       <c r="B573" s="23"/>
       <c r="C573" s="23"/>
@@ -17799,7 +17941,7 @@
       <c r="X573" s="23"/>
       <c r="Y573" s="23"/>
     </row>
-    <row r="574" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A574" s="23"/>
       <c r="B574" s="23"/>
       <c r="C574" s="23"/>
@@ -17826,7 +17968,7 @@
       <c r="X574" s="23"/>
       <c r="Y574" s="23"/>
     </row>
-    <row r="575" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A575" s="23"/>
       <c r="B575" s="23"/>
       <c r="C575" s="23"/>
@@ -17853,7 +17995,7 @@
       <c r="X575" s="23"/>
       <c r="Y575" s="23"/>
     </row>
-    <row r="576" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A576" s="23"/>
       <c r="B576" s="23"/>
       <c r="C576" s="23"/>
@@ -17880,7 +18022,7 @@
       <c r="X576" s="23"/>
       <c r="Y576" s="23"/>
     </row>
-    <row r="577" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A577" s="23"/>
       <c r="B577" s="23"/>
       <c r="C577" s="23"/>
@@ -17907,7 +18049,7 @@
       <c r="X577" s="23"/>
       <c r="Y577" s="23"/>
     </row>
-    <row r="578" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A578" s="23"/>
       <c r="B578" s="23"/>
       <c r="C578" s="23"/>
@@ -17934,7 +18076,7 @@
       <c r="X578" s="23"/>
       <c r="Y578" s="23"/>
     </row>
-    <row r="579" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A579" s="23"/>
       <c r="B579" s="23"/>
       <c r="C579" s="23"/>
@@ -17961,7 +18103,7 @@
       <c r="X579" s="23"/>
       <c r="Y579" s="23"/>
     </row>
-    <row r="580" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A580" s="23"/>
       <c r="B580" s="23"/>
       <c r="C580" s="23"/>
@@ -17988,7 +18130,7 @@
       <c r="X580" s="23"/>
       <c r="Y580" s="23"/>
     </row>
-    <row r="581" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A581" s="23"/>
       <c r="B581" s="23"/>
       <c r="C581" s="23"/>
@@ -18015,7 +18157,7 @@
       <c r="X581" s="23"/>
       <c r="Y581" s="23"/>
     </row>
-    <row r="582" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A582" s="23"/>
       <c r="B582" s="23"/>
       <c r="C582" s="23"/>
@@ -18042,7 +18184,7 @@
       <c r="X582" s="23"/>
       <c r="Y582" s="23"/>
     </row>
-    <row r="583" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A583" s="23"/>
       <c r="B583" s="23"/>
       <c r="C583" s="23"/>
@@ -18069,7 +18211,7 @@
       <c r="X583" s="23"/>
       <c r="Y583" s="23"/>
     </row>
-    <row r="584" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A584" s="23"/>
       <c r="B584" s="23"/>
       <c r="C584" s="23"/>
@@ -18096,7 +18238,7 @@
       <c r="X584" s="23"/>
       <c r="Y584" s="23"/>
     </row>
-    <row r="585" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A585" s="23"/>
       <c r="B585" s="23"/>
       <c r="C585" s="23"/>
@@ -18123,7 +18265,7 @@
       <c r="X585" s="23"/>
       <c r="Y585" s="23"/>
     </row>
-    <row r="586" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A586" s="23"/>
       <c r="B586" s="23"/>
       <c r="C586" s="23"/>
@@ -18150,7 +18292,7 @@
       <c r="X586" s="23"/>
       <c r="Y586" s="23"/>
     </row>
-    <row r="587" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A587" s="23"/>
       <c r="B587" s="23"/>
       <c r="C587" s="23"/>
@@ -18177,7 +18319,7 @@
       <c r="X587" s="23"/>
       <c r="Y587" s="23"/>
     </row>
-    <row r="588" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A588" s="23"/>
       <c r="B588" s="23"/>
       <c r="C588" s="23"/>
@@ -18204,7 +18346,7 @@
       <c r="X588" s="23"/>
       <c r="Y588" s="23"/>
     </row>
-    <row r="589" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A589" s="23"/>
       <c r="B589" s="23"/>
       <c r="C589" s="23"/>
@@ -18231,7 +18373,7 @@
       <c r="X589" s="23"/>
       <c r="Y589" s="23"/>
     </row>
-    <row r="590" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A590" s="23"/>
       <c r="B590" s="23"/>
       <c r="C590" s="23"/>
@@ -18258,7 +18400,7 @@
       <c r="X590" s="23"/>
       <c r="Y590" s="23"/>
     </row>
-    <row r="591" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A591" s="23"/>
       <c r="B591" s="23"/>
       <c r="C591" s="23"/>
@@ -18285,7 +18427,7 @@
       <c r="X591" s="23"/>
       <c r="Y591" s="23"/>
     </row>
-    <row r="592" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A592" s="23"/>
       <c r="B592" s="23"/>
       <c r="C592" s="23"/>
@@ -18312,7 +18454,7 @@
       <c r="X592" s="23"/>
       <c r="Y592" s="23"/>
     </row>
-    <row r="593" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A593" s="23"/>
       <c r="B593" s="23"/>
       <c r="C593" s="23"/>
@@ -18339,7 +18481,7 @@
       <c r="X593" s="23"/>
       <c r="Y593" s="23"/>
     </row>
-    <row r="594" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A594" s="23"/>
       <c r="B594" s="23"/>
       <c r="C594" s="23"/>
@@ -18366,7 +18508,7 @@
       <c r="X594" s="23"/>
       <c r="Y594" s="23"/>
     </row>
-    <row r="595" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A595" s="23"/>
       <c r="B595" s="23"/>
       <c r="C595" s="23"/>
@@ -18393,7 +18535,7 @@
       <c r="X595" s="23"/>
       <c r="Y595" s="23"/>
     </row>
-    <row r="596" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A596" s="23"/>
       <c r="B596" s="23"/>
       <c r="C596" s="23"/>
@@ -18420,7 +18562,7 @@
       <c r="X596" s="23"/>
       <c r="Y596" s="23"/>
     </row>
-    <row r="597" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A597" s="23"/>
       <c r="B597" s="23"/>
       <c r="C597" s="23"/>
@@ -18447,7 +18589,7 @@
       <c r="X597" s="23"/>
       <c r="Y597" s="23"/>
     </row>
-    <row r="598" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A598" s="23"/>
       <c r="B598" s="23"/>
       <c r="C598" s="23"/>
@@ -18474,7 +18616,7 @@
       <c r="X598" s="23"/>
       <c r="Y598" s="23"/>
     </row>
-    <row r="599" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A599" s="23"/>
       <c r="B599" s="23"/>
       <c r="C599" s="23"/>
@@ -18501,7 +18643,7 @@
       <c r="X599" s="23"/>
       <c r="Y599" s="23"/>
     </row>
-    <row r="600" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A600" s="23"/>
       <c r="B600" s="23"/>
       <c r="C600" s="23"/>
@@ -18528,7 +18670,7 @@
       <c r="X600" s="23"/>
       <c r="Y600" s="23"/>
     </row>
-    <row r="601" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A601" s="23"/>
       <c r="B601" s="23"/>
       <c r="C601" s="23"/>
@@ -18555,7 +18697,7 @@
       <c r="X601" s="23"/>
       <c r="Y601" s="23"/>
     </row>
-    <row r="602" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A602" s="23"/>
       <c r="B602" s="23"/>
       <c r="C602" s="23"/>
@@ -18582,7 +18724,7 @@
       <c r="X602" s="23"/>
       <c r="Y602" s="23"/>
     </row>
-    <row r="603" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A603" s="23"/>
       <c r="B603" s="23"/>
       <c r="C603" s="23"/>
@@ -18609,7 +18751,7 @@
       <c r="X603" s="23"/>
       <c r="Y603" s="23"/>
     </row>
-    <row r="604" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A604" s="23"/>
       <c r="B604" s="23"/>
       <c r="C604" s="23"/>
@@ -18636,7 +18778,7 @@
       <c r="X604" s="23"/>
       <c r="Y604" s="23"/>
     </row>
-    <row r="605" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A605" s="23"/>
       <c r="B605" s="23"/>
       <c r="C605" s="23"/>
@@ -18663,7 +18805,7 @@
       <c r="X605" s="23"/>
       <c r="Y605" s="23"/>
     </row>
-    <row r="606" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A606" s="23"/>
       <c r="B606" s="23"/>
       <c r="C606" s="23"/>
@@ -18690,7 +18832,7 @@
       <c r="X606" s="23"/>
       <c r="Y606" s="23"/>
     </row>
-    <row r="607" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A607" s="23"/>
       <c r="B607" s="23"/>
       <c r="C607" s="23"/>
@@ -18717,7 +18859,7 @@
       <c r="X607" s="23"/>
       <c r="Y607" s="23"/>
     </row>
-    <row r="608" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A608" s="23"/>
       <c r="B608" s="23"/>
       <c r="C608" s="23"/>
@@ -18744,7 +18886,7 @@
       <c r="X608" s="23"/>
       <c r="Y608" s="23"/>
     </row>
-    <row r="609" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A609" s="23"/>
       <c r="B609" s="23"/>
       <c r="C609" s="23"/>
@@ -18771,7 +18913,7 @@
       <c r="X609" s="23"/>
       <c r="Y609" s="23"/>
     </row>
-    <row r="610" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A610" s="23"/>
       <c r="B610" s="23"/>
       <c r="C610" s="23"/>
@@ -18798,7 +18940,7 @@
       <c r="X610" s="23"/>
       <c r="Y610" s="23"/>
     </row>
-    <row r="611" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A611" s="23"/>
       <c r="B611" s="23"/>
       <c r="C611" s="23"/>
@@ -18825,7 +18967,7 @@
       <c r="X611" s="23"/>
       <c r="Y611" s="23"/>
     </row>
-    <row r="612" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A612" s="23"/>
       <c r="B612" s="23"/>
       <c r="C612" s="23"/>
@@ -18852,7 +18994,7 @@
       <c r="X612" s="23"/>
       <c r="Y612" s="23"/>
     </row>
-    <row r="613" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A613" s="23"/>
       <c r="B613" s="23"/>
       <c r="C613" s="23"/>
@@ -18879,7 +19021,7 @@
       <c r="X613" s="23"/>
       <c r="Y613" s="23"/>
     </row>
-    <row r="614" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A614" s="23"/>
       <c r="B614" s="23"/>
       <c r="C614" s="23"/>
@@ -18906,7 +19048,7 @@
       <c r="X614" s="23"/>
       <c r="Y614" s="23"/>
     </row>
-    <row r="615" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A615" s="23"/>
       <c r="B615" s="23"/>
       <c r="C615" s="23"/>
@@ -18933,7 +19075,7 @@
       <c r="X615" s="23"/>
       <c r="Y615" s="23"/>
     </row>
-    <row r="616" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A616" s="23"/>
       <c r="B616" s="23"/>
       <c r="C616" s="23"/>
@@ -18960,7 +19102,7 @@
       <c r="X616" s="23"/>
       <c r="Y616" s="23"/>
     </row>
-    <row r="617" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A617" s="23"/>
       <c r="B617" s="23"/>
       <c r="C617" s="23"/>
@@ -18987,7 +19129,7 @@
       <c r="X617" s="23"/>
       <c r="Y617" s="23"/>
     </row>
-    <row r="618" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A618" s="23"/>
       <c r="B618" s="23"/>
       <c r="C618" s="23"/>
@@ -19014,7 +19156,7 @@
       <c r="X618" s="23"/>
       <c r="Y618" s="23"/>
     </row>
-    <row r="619" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A619" s="23"/>
       <c r="B619" s="23"/>
       <c r="C619" s="23"/>
@@ -19041,7 +19183,7 @@
       <c r="X619" s="23"/>
       <c r="Y619" s="23"/>
     </row>
-    <row r="620" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A620" s="23"/>
       <c r="B620" s="23"/>
       <c r="C620" s="23"/>
@@ -19068,7 +19210,7 @@
       <c r="X620" s="23"/>
       <c r="Y620" s="23"/>
     </row>
-    <row r="621" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A621" s="23"/>
       <c r="B621" s="23"/>
       <c r="C621" s="23"/>
@@ -19095,7 +19237,7 @@
       <c r="X621" s="23"/>
       <c r="Y621" s="23"/>
     </row>
-    <row r="622" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A622" s="23"/>
       <c r="B622" s="23"/>
       <c r="C622" s="23"/>
@@ -19122,7 +19264,7 @@
       <c r="X622" s="23"/>
       <c r="Y622" s="23"/>
     </row>
-    <row r="623" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A623" s="23"/>
       <c r="B623" s="23"/>
       <c r="C623" s="23"/>
@@ -19149,7 +19291,7 @@
       <c r="X623" s="23"/>
       <c r="Y623" s="23"/>
     </row>
-    <row r="624" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A624" s="23"/>
       <c r="B624" s="23"/>
       <c r="C624" s="23"/>
@@ -19176,7 +19318,7 @@
       <c r="X624" s="23"/>
       <c r="Y624" s="23"/>
     </row>
-    <row r="625" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A625" s="23"/>
       <c r="B625" s="23"/>
       <c r="C625" s="23"/>
@@ -19203,7 +19345,7 @@
       <c r="X625" s="23"/>
       <c r="Y625" s="23"/>
     </row>
-    <row r="626" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A626" s="23"/>
       <c r="B626" s="23"/>
       <c r="C626" s="23"/>
@@ -19230,7 +19372,7 @@
       <c r="X626" s="23"/>
       <c r="Y626" s="23"/>
     </row>
-    <row r="627" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A627" s="23"/>
       <c r="B627" s="23"/>
       <c r="C627" s="23"/>
@@ -19257,7 +19399,7 @@
       <c r="X627" s="23"/>
       <c r="Y627" s="23"/>
     </row>
-    <row r="628" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A628" s="23"/>
       <c r="B628" s="23"/>
       <c r="C628" s="23"/>
@@ -19284,7 +19426,7 @@
       <c r="X628" s="23"/>
       <c r="Y628" s="23"/>
     </row>
-    <row r="629" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A629" s="23"/>
       <c r="B629" s="23"/>
       <c r="C629" s="23"/>
@@ -19311,7 +19453,7 @@
       <c r="X629" s="23"/>
       <c r="Y629" s="23"/>
     </row>
-    <row r="630" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A630" s="23"/>
       <c r="B630" s="23"/>
       <c r="C630" s="23"/>
@@ -19338,7 +19480,7 @@
       <c r="X630" s="23"/>
       <c r="Y630" s="23"/>
     </row>
-    <row r="631" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A631" s="23"/>
       <c r="B631" s="23"/>
       <c r="C631" s="23"/>
@@ -19365,7 +19507,7 @@
       <c r="X631" s="23"/>
       <c r="Y631" s="23"/>
     </row>
-    <row r="632" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A632" s="23"/>
       <c r="B632" s="23"/>
       <c r="C632" s="23"/>
@@ -19392,7 +19534,7 @@
       <c r="X632" s="23"/>
       <c r="Y632" s="23"/>
     </row>
-    <row r="633" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A633" s="23"/>
       <c r="B633" s="23"/>
       <c r="C633" s="23"/>
@@ -19419,7 +19561,7 @@
       <c r="X633" s="23"/>
       <c r="Y633" s="23"/>
     </row>
-    <row r="634" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A634" s="23"/>
       <c r="B634" s="23"/>
       <c r="C634" s="23"/>
@@ -19446,7 +19588,7 @@
       <c r="X634" s="23"/>
       <c r="Y634" s="23"/>
     </row>
-    <row r="635" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A635" s="23"/>
       <c r="B635" s="23"/>
       <c r="C635" s="23"/>
@@ -19473,7 +19615,7 @@
       <c r="X635" s="23"/>
       <c r="Y635" s="23"/>
     </row>
-    <row r="636" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A636" s="23"/>
       <c r="B636" s="23"/>
       <c r="C636" s="23"/>
@@ -19500,7 +19642,7 @@
       <c r="X636" s="23"/>
       <c r="Y636" s="23"/>
     </row>
-    <row r="637" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A637" s="23"/>
       <c r="B637" s="23"/>
       <c r="C637" s="23"/>
@@ -19527,7 +19669,7 @@
       <c r="X637" s="23"/>
       <c r="Y637" s="23"/>
     </row>
-    <row r="638" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A638" s="23"/>
       <c r="B638" s="23"/>
       <c r="C638" s="23"/>
@@ -19554,7 +19696,7 @@
       <c r="X638" s="23"/>
       <c r="Y638" s="23"/>
     </row>
-    <row r="639" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A639" s="23"/>
       <c r="B639" s="23"/>
       <c r="C639" s="23"/>
@@ -19581,7 +19723,7 @@
       <c r="X639" s="23"/>
       <c r="Y639" s="23"/>
     </row>
-    <row r="640" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A640" s="23"/>
       <c r="B640" s="23"/>
       <c r="C640" s="23"/>
@@ -19608,7 +19750,7 @@
       <c r="X640" s="23"/>
       <c r="Y640" s="23"/>
     </row>
-    <row r="641" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A641" s="23"/>
       <c r="B641" s="23"/>
       <c r="C641" s="23"/>
@@ -19635,7 +19777,7 @@
       <c r="X641" s="23"/>
       <c r="Y641" s="23"/>
     </row>
-    <row r="642" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A642" s="23"/>
       <c r="B642" s="23"/>
       <c r="C642" s="23"/>
@@ -19662,7 +19804,7 @@
       <c r="X642" s="23"/>
       <c r="Y642" s="23"/>
     </row>
-    <row r="643" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A643" s="23"/>
       <c r="B643" s="23"/>
       <c r="C643" s="23"/>
@@ -19689,7 +19831,7 @@
       <c r="X643" s="23"/>
       <c r="Y643" s="23"/>
     </row>
-    <row r="644" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A644" s="23"/>
       <c r="B644" s="23"/>
       <c r="C644" s="23"/>
@@ -19716,7 +19858,7 @@
       <c r="X644" s="23"/>
       <c r="Y644" s="23"/>
     </row>
-    <row r="645" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A645" s="23"/>
       <c r="B645" s="23"/>
       <c r="C645" s="23"/>
@@ -19743,7 +19885,7 @@
       <c r="X645" s="23"/>
       <c r="Y645" s="23"/>
     </row>
-    <row r="646" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A646" s="23"/>
       <c r="B646" s="23"/>
       <c r="C646" s="23"/>
@@ -19770,7 +19912,7 @@
       <c r="X646" s="23"/>
       <c r="Y646" s="23"/>
     </row>
-    <row r="647" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A647" s="23"/>
       <c r="B647" s="23"/>
       <c r="C647" s="23"/>
@@ -19797,7 +19939,7 @@
       <c r="X647" s="23"/>
       <c r="Y647" s="23"/>
     </row>
-    <row r="648" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A648" s="23"/>
       <c r="B648" s="23"/>
       <c r="C648" s="23"/>
@@ -19824,7 +19966,7 @@
       <c r="X648" s="23"/>
       <c r="Y648" s="23"/>
     </row>
-    <row r="649" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A649" s="23"/>
       <c r="B649" s="23"/>
       <c r="C649" s="23"/>
@@ -19851,7 +19993,7 @@
       <c r="X649" s="23"/>
       <c r="Y649" s="23"/>
     </row>
-    <row r="650" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A650" s="23"/>
       <c r="B650" s="23"/>
       <c r="C650" s="23"/>
@@ -19878,7 +20020,7 @@
       <c r="X650" s="23"/>
       <c r="Y650" s="23"/>
     </row>
-    <row r="651" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A651" s="23"/>
       <c r="B651" s="23"/>
       <c r="C651" s="23"/>
@@ -19905,7 +20047,7 @@
       <c r="X651" s="23"/>
       <c r="Y651" s="23"/>
     </row>
-    <row r="652" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A652" s="23"/>
       <c r="B652" s="23"/>
       <c r="C652" s="23"/>
@@ -19932,7 +20074,7 @@
       <c r="X652" s="23"/>
       <c r="Y652" s="23"/>
     </row>
-    <row r="653" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A653" s="23"/>
       <c r="B653" s="23"/>
       <c r="C653" s="23"/>
@@ -19959,7 +20101,7 @@
       <c r="X653" s="23"/>
       <c r="Y653" s="23"/>
     </row>
-    <row r="654" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A654" s="23"/>
       <c r="B654" s="23"/>
       <c r="C654" s="23"/>
@@ -19986,7 +20128,7 @@
       <c r="X654" s="23"/>
       <c r="Y654" s="23"/>
     </row>
-    <row r="655" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A655" s="23"/>
       <c r="B655" s="23"/>
       <c r="C655" s="23"/>
@@ -20013,7 +20155,7 @@
       <c r="X655" s="23"/>
       <c r="Y655" s="23"/>
     </row>
-    <row r="656" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A656" s="23"/>
       <c r="B656" s="23"/>
       <c r="C656" s="23"/>
@@ -20040,7 +20182,7 @@
       <c r="X656" s="23"/>
       <c r="Y656" s="23"/>
     </row>
-    <row r="657" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A657" s="23"/>
       <c r="B657" s="23"/>
       <c r="C657" s="23"/>
@@ -20067,7 +20209,7 @@
       <c r="X657" s="23"/>
       <c r="Y657" s="23"/>
     </row>
-    <row r="658" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A658" s="23"/>
       <c r="B658" s="23"/>
       <c r="C658" s="23"/>
@@ -20094,7 +20236,7 @@
       <c r="X658" s="23"/>
       <c r="Y658" s="23"/>
     </row>
-    <row r="659" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A659" s="23"/>
       <c r="B659" s="23"/>
       <c r="C659" s="23"/>
@@ -20121,7 +20263,7 @@
       <c r="X659" s="23"/>
       <c r="Y659" s="23"/>
     </row>
-    <row r="660" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A660" s="23"/>
       <c r="B660" s="23"/>
       <c r="C660" s="23"/>
@@ -20148,7 +20290,7 @@
       <c r="X660" s="23"/>
       <c r="Y660" s="23"/>
     </row>
-    <row r="661" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A661" s="23"/>
       <c r="B661" s="23"/>
       <c r="C661" s="23"/>
@@ -20175,7 +20317,7 @@
       <c r="X661" s="23"/>
       <c r="Y661" s="23"/>
     </row>
-    <row r="662" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A662" s="23"/>
       <c r="B662" s="23"/>
       <c r="C662" s="23"/>
@@ -20202,7 +20344,7 @@
       <c r="X662" s="23"/>
       <c r="Y662" s="23"/>
     </row>
-    <row r="663" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A663" s="23"/>
       <c r="B663" s="23"/>
       <c r="C663" s="23"/>
@@ -20229,7 +20371,7 @@
       <c r="X663" s="23"/>
       <c r="Y663" s="23"/>
     </row>
-    <row r="664" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A664" s="23"/>
       <c r="B664" s="23"/>
       <c r="C664" s="23"/>
@@ -20256,7 +20398,7 @@
       <c r="X664" s="23"/>
       <c r="Y664" s="23"/>
     </row>
-    <row r="665" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A665" s="23"/>
       <c r="B665" s="23"/>
       <c r="C665" s="23"/>
@@ -20283,7 +20425,7 @@
       <c r="X665" s="23"/>
       <c r="Y665" s="23"/>
     </row>
-    <row r="666" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A666" s="23"/>
       <c r="B666" s="23"/>
       <c r="C666" s="23"/>
@@ -20310,7 +20452,7 @@
       <c r="X666" s="23"/>
       <c r="Y666" s="23"/>
     </row>
-    <row r="667" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A667" s="23"/>
       <c r="B667" s="23"/>
       <c r="C667" s="23"/>
@@ -20337,7 +20479,7 @@
       <c r="X667" s="23"/>
       <c r="Y667" s="23"/>
     </row>
-    <row r="668" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A668" s="23"/>
       <c r="B668" s="23"/>
       <c r="C668" s="23"/>
@@ -20364,7 +20506,7 @@
       <c r="X668" s="23"/>
       <c r="Y668" s="23"/>
     </row>
-    <row r="669" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A669" s="23"/>
       <c r="B669" s="23"/>
       <c r="C669" s="23"/>
@@ -20391,7 +20533,7 @@
       <c r="X669" s="23"/>
       <c r="Y669" s="23"/>
     </row>
-    <row r="670" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A670" s="23"/>
       <c r="B670" s="23"/>
       <c r="C670" s="23"/>
@@ -20418,7 +20560,7 @@
       <c r="X670" s="23"/>
       <c r="Y670" s="23"/>
     </row>
-    <row r="671" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A671" s="23"/>
       <c r="B671" s="23"/>
       <c r="C671" s="23"/>
@@ -20445,7 +20587,7 @@
       <c r="X671" s="23"/>
       <c r="Y671" s="23"/>
     </row>
-    <row r="672" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A672" s="23"/>
       <c r="B672" s="23"/>
       <c r="C672" s="23"/>
@@ -20472,7 +20614,7 @@
       <c r="X672" s="23"/>
       <c r="Y672" s="23"/>
     </row>
-    <row r="673" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A673" s="23"/>
       <c r="B673" s="23"/>
       <c r="C673" s="23"/>
@@ -20499,7 +20641,7 @@
       <c r="X673" s="23"/>
       <c r="Y673" s="23"/>
     </row>
-    <row r="674" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A674" s="23"/>
       <c r="B674" s="23"/>
       <c r="C674" s="23"/>
@@ -20526,7 +20668,7 @@
       <c r="X674" s="23"/>
       <c r="Y674" s="23"/>
     </row>
-    <row r="675" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A675" s="23"/>
       <c r="B675" s="23"/>
       <c r="C675" s="23"/>
@@ -20553,7 +20695,7 @@
       <c r="X675" s="23"/>
       <c r="Y675" s="23"/>
     </row>
-    <row r="676" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A676" s="23"/>
       <c r="B676" s="23"/>
       <c r="C676" s="23"/>
@@ -20580,7 +20722,7 @@
       <c r="X676" s="23"/>
       <c r="Y676" s="23"/>
     </row>
-    <row r="677" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A677" s="23"/>
       <c r="B677" s="23"/>
       <c r="C677" s="23"/>
@@ -20607,7 +20749,7 @@
       <c r="X677" s="23"/>
       <c r="Y677" s="23"/>
     </row>
-    <row r="678" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A678" s="23"/>
       <c r="B678" s="23"/>
       <c r="C678" s="23"/>
@@ -20634,7 +20776,7 @@
       <c r="X678" s="23"/>
       <c r="Y678" s="23"/>
     </row>
-    <row r="679" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A679" s="23"/>
       <c r="B679" s="23"/>
       <c r="C679" s="23"/>
@@ -20661,7 +20803,7 @@
       <c r="X679" s="23"/>
       <c r="Y679" s="23"/>
     </row>
-    <row r="680" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A680" s="23"/>
       <c r="B680" s="23"/>
       <c r="C680" s="23"/>
@@ -20688,7 +20830,7 @@
       <c r="X680" s="23"/>
       <c r="Y680" s="23"/>
     </row>
-    <row r="681" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A681" s="23"/>
       <c r="B681" s="23"/>
       <c r="C681" s="23"/>
@@ -20715,7 +20857,7 @@
       <c r="X681" s="23"/>
       <c r="Y681" s="23"/>
     </row>
-    <row r="682" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A682" s="23"/>
       <c r="B682" s="23"/>
       <c r="C682" s="23"/>
@@ -20742,7 +20884,7 @@
       <c r="X682" s="23"/>
       <c r="Y682" s="23"/>
     </row>
-    <row r="683" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A683" s="23"/>
       <c r="B683" s="23"/>
       <c r="C683" s="23"/>
@@ -20769,7 +20911,7 @@
       <c r="X683" s="23"/>
       <c r="Y683" s="23"/>
     </row>
-    <row r="684" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A684" s="23"/>
       <c r="B684" s="23"/>
       <c r="C684" s="23"/>
@@ -20796,7 +20938,7 @@
       <c r="X684" s="23"/>
       <c r="Y684" s="23"/>
     </row>
-    <row r="685" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A685" s="23"/>
       <c r="B685" s="23"/>
       <c r="C685" s="23"/>
@@ -20823,7 +20965,7 @@
       <c r="X685" s="23"/>
       <c r="Y685" s="23"/>
     </row>
-    <row r="686" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A686" s="23"/>
       <c r="B686" s="23"/>
       <c r="C686" s="23"/>
@@ -20850,7 +20992,7 @@
       <c r="X686" s="23"/>
       <c r="Y686" s="23"/>
     </row>
-    <row r="687" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A687" s="23"/>
       <c r="B687" s="23"/>
       <c r="C687" s="23"/>
@@ -20877,7 +21019,7 @@
       <c r="X687" s="23"/>
       <c r="Y687" s="23"/>
     </row>
-    <row r="688" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A688" s="23"/>
       <c r="B688" s="23"/>
       <c r="C688" s="23"/>
@@ -20904,7 +21046,7 @@
       <c r="X688" s="23"/>
       <c r="Y688" s="23"/>
     </row>
-    <row r="689" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A689" s="23"/>
       <c r="B689" s="23"/>
       <c r="C689" s="23"/>
@@ -20931,7 +21073,7 @@
       <c r="X689" s="23"/>
       <c r="Y689" s="23"/>
     </row>
-    <row r="690" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A690" s="23"/>
       <c r="B690" s="23"/>
       <c r="C690" s="23"/>
@@ -20958,7 +21100,7 @@
       <c r="X690" s="23"/>
       <c r="Y690" s="23"/>
     </row>
-    <row r="691" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A691" s="23"/>
       <c r="B691" s="23"/>
       <c r="C691" s="23"/>
@@ -20985,7 +21127,7 @@
       <c r="X691" s="23"/>
       <c r="Y691" s="23"/>
     </row>
-    <row r="692" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A692" s="23"/>
       <c r="B692" s="23"/>
       <c r="C692" s="23"/>
@@ -21012,7 +21154,7 @@
       <c r="X692" s="23"/>
       <c r="Y692" s="23"/>
     </row>
-    <row r="693" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A693" s="23"/>
       <c r="B693" s="23"/>
       <c r="C693" s="23"/>
@@ -21039,7 +21181,7 @@
       <c r="X693" s="23"/>
       <c r="Y693" s="23"/>
     </row>
-    <row r="694" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A694" s="23"/>
       <c r="B694" s="23"/>
       <c r="C694" s="23"/>
@@ -21066,7 +21208,7 @@
       <c r="X694" s="23"/>
       <c r="Y694" s="23"/>
     </row>
-    <row r="695" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A695" s="23"/>
       <c r="B695" s="23"/>
       <c r="C695" s="23"/>
@@ -21093,7 +21235,7 @@
       <c r="X695" s="23"/>
       <c r="Y695" s="23"/>
     </row>
-    <row r="696" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A696" s="23"/>
       <c r="B696" s="23"/>
       <c r="C696" s="23"/>
@@ -21120,7 +21262,7 @@
       <c r="X696" s="23"/>
       <c r="Y696" s="23"/>
     </row>
-    <row r="697" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A697" s="23"/>
       <c r="B697" s="23"/>
       <c r="C697" s="23"/>
@@ -21147,7 +21289,7 @@
       <c r="X697" s="23"/>
       <c r="Y697" s="23"/>
     </row>
-    <row r="698" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A698" s="23"/>
       <c r="B698" s="23"/>
       <c r="C698" s="23"/>
@@ -21174,7 +21316,7 @@
       <c r="X698" s="23"/>
       <c r="Y698" s="23"/>
     </row>
-    <row r="699" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A699" s="23"/>
       <c r="B699" s="23"/>
       <c r="C699" s="23"/>
@@ -21201,7 +21343,7 @@
       <c r="X699" s="23"/>
       <c r="Y699" s="23"/>
     </row>
-    <row r="700" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A700" s="23"/>
       <c r="B700" s="23"/>
       <c r="C700" s="23"/>
@@ -21228,7 +21370,7 @@
       <c r="X700" s="23"/>
       <c r="Y700" s="23"/>
     </row>
-    <row r="701" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A701" s="23"/>
       <c r="B701" s="23"/>
       <c r="C701" s="23"/>
@@ -21255,7 +21397,7 @@
       <c r="X701" s="23"/>
       <c r="Y701" s="23"/>
     </row>
-    <row r="702" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A702" s="23"/>
       <c r="B702" s="23"/>
       <c r="C702" s="23"/>
@@ -21282,7 +21424,7 @@
       <c r="X702" s="23"/>
       <c r="Y702" s="23"/>
     </row>
-    <row r="703" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A703" s="23"/>
       <c r="B703" s="23"/>
       <c r="C703" s="23"/>
@@ -21309,7 +21451,7 @@
       <c r="X703" s="23"/>
       <c r="Y703" s="23"/>
     </row>
-    <row r="704" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A704" s="23"/>
       <c r="B704" s="23"/>
       <c r="C704" s="23"/>
@@ -21336,7 +21478,7 @@
       <c r="X704" s="23"/>
       <c r="Y704" s="23"/>
     </row>
-    <row r="705" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A705" s="23"/>
       <c r="B705" s="23"/>
       <c r="C705" s="23"/>
@@ -21363,7 +21505,7 @@
       <c r="X705" s="23"/>
       <c r="Y705" s="23"/>
     </row>
-    <row r="706" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A706" s="23"/>
       <c r="B706" s="23"/>
       <c r="C706" s="23"/>
@@ -21390,7 +21532,7 @@
       <c r="X706" s="23"/>
       <c r="Y706" s="23"/>
     </row>
-    <row r="707" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A707" s="23"/>
       <c r="B707" s="23"/>
       <c r="C707" s="23"/>
@@ -21417,7 +21559,7 @@
       <c r="X707" s="23"/>
       <c r="Y707" s="23"/>
     </row>
-    <row r="708" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A708" s="23"/>
       <c r="B708" s="23"/>
       <c r="C708" s="23"/>
@@ -21444,7 +21586,7 @@
       <c r="X708" s="23"/>
       <c r="Y708" s="23"/>
     </row>
-    <row r="709" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A709" s="23"/>
       <c r="B709" s="23"/>
       <c r="C709" s="23"/>
@@ -21471,7 +21613,7 @@
       <c r="X709" s="23"/>
       <c r="Y709" s="23"/>
     </row>
-    <row r="710" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A710" s="23"/>
       <c r="B710" s="23"/>
       <c r="C710" s="23"/>
@@ -21498,7 +21640,7 @@
       <c r="X710" s="23"/>
       <c r="Y710" s="23"/>
     </row>
-    <row r="711" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A711" s="23"/>
       <c r="B711" s="23"/>
       <c r="C711" s="23"/>
@@ -21525,7 +21667,7 @@
       <c r="X711" s="23"/>
       <c r="Y711" s="23"/>
     </row>
-    <row r="712" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A712" s="23"/>
       <c r="B712" s="23"/>
       <c r="C712" s="23"/>
@@ -21552,7 +21694,7 @@
       <c r="X712" s="23"/>
       <c r="Y712" s="23"/>
     </row>
-    <row r="713" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A713" s="23"/>
       <c r="B713" s="23"/>
       <c r="C713" s="23"/>
@@ -21579,7 +21721,7 @@
       <c r="X713" s="23"/>
       <c r="Y713" s="23"/>
     </row>
-    <row r="714" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A714" s="23"/>
       <c r="B714" s="23"/>
       <c r="C714" s="23"/>
@@ -21606,7 +21748,7 @@
       <c r="X714" s="23"/>
       <c r="Y714" s="23"/>
     </row>
-    <row r="715" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A715" s="23"/>
       <c r="B715" s="23"/>
       <c r="C715" s="23"/>
@@ -21633,7 +21775,7 @@
       <c r="X715" s="23"/>
       <c r="Y715" s="23"/>
     </row>
-    <row r="716" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A716" s="23"/>
       <c r="B716" s="23"/>
       <c r="C716" s="23"/>
@@ -21660,7 +21802,7 @@
       <c r="X716" s="23"/>
       <c r="Y716" s="23"/>
     </row>
-    <row r="717" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A717" s="23"/>
       <c r="B717" s="23"/>
       <c r="C717" s="23"/>
@@ -21687,7 +21829,7 @@
       <c r="X717" s="23"/>
       <c r="Y717" s="23"/>
     </row>
-    <row r="718" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A718" s="23"/>
       <c r="B718" s="23"/>
       <c r="C718" s="23"/>
@@ -21714,7 +21856,7 @@
       <c r="X718" s="23"/>
       <c r="Y718" s="23"/>
     </row>
-    <row r="719" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A719" s="23"/>
       <c r="B719" s="23"/>
       <c r="C719" s="23"/>
@@ -21741,7 +21883,7 @@
       <c r="X719" s="23"/>
       <c r="Y719" s="23"/>
     </row>
-    <row r="720" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A720" s="23"/>
       <c r="B720" s="23"/>
       <c r="C720" s="23"/>
@@ -21768,7 +21910,7 @@
       <c r="X720" s="23"/>
       <c r="Y720" s="23"/>
     </row>
-    <row r="721" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A721" s="23"/>
       <c r="B721" s="23"/>
       <c r="C721" s="23"/>
@@ -21795,7 +21937,7 @@
       <c r="X721" s="23"/>
       <c r="Y721" s="23"/>
     </row>
-    <row r="722" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A722" s="23"/>
       <c r="B722" s="23"/>
       <c r="C722" s="23"/>
@@ -21822,7 +21964,7 @@
       <c r="X722" s="23"/>
       <c r="Y722" s="23"/>
     </row>
-    <row r="723" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A723" s="23"/>
       <c r="B723" s="23"/>
       <c r="C723" s="23"/>
@@ -21849,7 +21991,7 @@
       <c r="X723" s="23"/>
       <c r="Y723" s="23"/>
     </row>
-    <row r="724" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A724" s="23"/>
       <c r="B724" s="23"/>
       <c r="C724" s="23"/>
@@ -21876,7 +22018,7 @@
       <c r="X724" s="23"/>
       <c r="Y724" s="23"/>
     </row>
-    <row r="725" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A725" s="23"/>
       <c r="B725" s="23"/>
       <c r="C725" s="23"/>
@@ -21903,7 +22045,7 @@
       <c r="X725" s="23"/>
       <c r="Y725" s="23"/>
     </row>
-    <row r="726" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A726" s="23"/>
       <c r="B726" s="23"/>
       <c r="C726" s="23"/>
@@ -21930,7 +22072,7 @@
       <c r="X726" s="23"/>
       <c r="Y726" s="23"/>
     </row>
-    <row r="727" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A727" s="23"/>
       <c r="B727" s="23"/>
       <c r="C727" s="23"/>
@@ -21957,7 +22099,7 @@
       <c r="X727" s="23"/>
       <c r="Y727" s="23"/>
     </row>
-    <row r="728" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A728" s="23"/>
       <c r="B728" s="23"/>
       <c r="C728" s="23"/>
@@ -21984,7 +22126,7 @@
       <c r="X728" s="23"/>
       <c r="Y728" s="23"/>
     </row>
-    <row r="729" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A729" s="23"/>
       <c r="B729" s="23"/>
       <c r="C729" s="23"/>
@@ -22011,7 +22153,7 @@
       <c r="X729" s="23"/>
       <c r="Y729" s="23"/>
     </row>
-    <row r="730" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A730" s="23"/>
       <c r="B730" s="23"/>
       <c r="C730" s="23"/>
@@ -22038,7 +22180,7 @@
       <c r="X730" s="23"/>
       <c r="Y730" s="23"/>
     </row>
-    <row r="731" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A731" s="23"/>
       <c r="B731" s="23"/>
       <c r="C731" s="23"/>
@@ -22065,7 +22207,7 @@
       <c r="X731" s="23"/>
       <c r="Y731" s="23"/>
     </row>
-    <row r="732" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A732" s="23"/>
       <c r="B732" s="23"/>
       <c r="C732" s="23"/>
@@ -22092,7 +22234,7 @@
       <c r="X732" s="23"/>
       <c r="Y732" s="23"/>
     </row>
-    <row r="733" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A733" s="23"/>
       <c r="B733" s="23"/>
       <c r="C733" s="23"/>
@@ -22119,7 +22261,7 @@
       <c r="X733" s="23"/>
       <c r="Y733" s="23"/>
     </row>
-    <row r="734" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A734" s="23"/>
       <c r="B734" s="23"/>
       <c r="C734" s="23"/>
@@ -22146,7 +22288,7 @@
       <c r="X734" s="23"/>
       <c r="Y734" s="23"/>
     </row>
-    <row r="735" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A735" s="23"/>
       <c r="B735" s="23"/>
       <c r="C735" s="23"/>
@@ -22173,7 +22315,7 @@
       <c r="X735" s="23"/>
       <c r="Y735" s="23"/>
     </row>
-    <row r="736" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A736" s="23"/>
       <c r="B736" s="23"/>
       <c r="C736" s="23"/>
@@ -22200,7 +22342,7 @@
       <c r="X736" s="23"/>
       <c r="Y736" s="23"/>
     </row>
-    <row r="737" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A737" s="23"/>
       <c r="B737" s="23"/>
       <c r="C737" s="23"/>
@@ -22227,7 +22369,7 @@
       <c r="X737" s="23"/>
       <c r="Y737" s="23"/>
     </row>
-    <row r="738" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A738" s="23"/>
       <c r="B738" s="23"/>
       <c r="C738" s="23"/>
@@ -22254,7 +22396,7 @@
       <c r="X738" s="23"/>
       <c r="Y738" s="23"/>
     </row>
-    <row r="739" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A739" s="23"/>
       <c r="B739" s="23"/>
       <c r="C739" s="23"/>
@@ -22281,7 +22423,7 @@
       <c r="X739" s="23"/>
       <c r="Y739" s="23"/>
     </row>
-    <row r="740" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A740" s="23"/>
       <c r="B740" s="23"/>
       <c r="C740" s="23"/>
@@ -22308,7 +22450,7 @@
       <c r="X740" s="23"/>
       <c r="Y740" s="23"/>
     </row>
-    <row r="741" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A741" s="23"/>
       <c r="B741" s="23"/>
       <c r="C741" s="23"/>
@@ -22335,7 +22477,7 @@
       <c r="X741" s="23"/>
       <c r="Y741" s="23"/>
     </row>
-    <row r="742" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A742" s="23"/>
       <c r="B742" s="23"/>
       <c r="C742" s="23"/>
@@ -22362,7 +22504,7 @@
       <c r="X742" s="23"/>
       <c r="Y742" s="23"/>
     </row>
-    <row r="743" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A743" s="23"/>
       <c r="B743" s="23"/>
       <c r="C743" s="23"/>
@@ -22389,7 +22531,7 @@
       <c r="X743" s="23"/>
       <c r="Y743" s="23"/>
     </row>
-    <row r="744" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A744" s="23"/>
       <c r="B744" s="23"/>
       <c r="C744" s="23"/>
@@ -22416,7 +22558,7 @@
       <c r="X744" s="23"/>
       <c r="Y744" s="23"/>
     </row>
-    <row r="745" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A745" s="23"/>
       <c r="B745" s="23"/>
       <c r="C745" s="23"/>
@@ -22443,7 +22585,7 @@
       <c r="X745" s="23"/>
       <c r="Y745" s="23"/>
     </row>
-    <row r="746" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A746" s="23"/>
       <c r="B746" s="23"/>
       <c r="C746" s="23"/>
@@ -22470,7 +22612,7 @@
       <c r="X746" s="23"/>
       <c r="Y746" s="23"/>
     </row>
-    <row r="747" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A747" s="23"/>
       <c r="B747" s="23"/>
       <c r="C747" s="23"/>
@@ -22497,7 +22639,7 @@
       <c r="X747" s="23"/>
       <c r="Y747" s="23"/>
     </row>
-    <row r="748" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A748" s="23"/>
       <c r="B748" s="23"/>
       <c r="C748" s="23"/>
@@ -22524,7 +22666,7 @@
       <c r="X748" s="23"/>
       <c r="Y748" s="23"/>
     </row>
-    <row r="749" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A749" s="23"/>
       <c r="B749" s="23"/>
       <c r="C749" s="23"/>
@@ -22551,7 +22693,7 @@
       <c r="X749" s="23"/>
       <c r="Y749" s="23"/>
     </row>
-    <row r="750" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A750" s="23"/>
       <c r="B750" s="23"/>
       <c r="C750" s="23"/>
@@ -22578,7 +22720,7 @@
       <c r="X750" s="23"/>
       <c r="Y750" s="23"/>
     </row>
-    <row r="751" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A751" s="23"/>
       <c r="B751" s="23"/>
       <c r="C751" s="23"/>
@@ -22605,7 +22747,7 @@
       <c r="X751" s="23"/>
       <c r="Y751" s="23"/>
     </row>
-    <row r="752" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A752" s="23"/>
       <c r="B752" s="23"/>
       <c r="C752" s="23"/>
@@ -22632,7 +22774,7 @@
       <c r="X752" s="23"/>
       <c r="Y752" s="23"/>
     </row>
-    <row r="753" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A753" s="23"/>
       <c r="B753" s="23"/>
       <c r="C753" s="23"/>
@@ -22659,7 +22801,7 @@
       <c r="X753" s="23"/>
       <c r="Y753" s="23"/>
     </row>
-    <row r="754" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A754" s="23"/>
       <c r="B754" s="23"/>
       <c r="C754" s="23"/>
@@ -22686,7 +22828,7 @@
       <c r="X754" s="23"/>
       <c r="Y754" s="23"/>
     </row>
-    <row r="755" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A755" s="23"/>
       <c r="B755" s="23"/>
       <c r="C755" s="23"/>
@@ -22713,7 +22855,7 @@
       <c r="X755" s="23"/>
       <c r="Y755" s="23"/>
     </row>
-    <row r="756" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A756" s="23"/>
       <c r="B756" s="23"/>
       <c r="C756" s="23"/>
@@ -22740,7 +22882,7 @@
       <c r="X756" s="23"/>
       <c r="Y756" s="23"/>
     </row>
-    <row r="757" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A757" s="23"/>
       <c r="B757" s="23"/>
       <c r="C757" s="23"/>
@@ -22767,7 +22909,7 @@
       <c r="X757" s="23"/>
       <c r="Y757" s="23"/>
     </row>
-    <row r="758" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A758" s="23"/>
       <c r="B758" s="23"/>
       <c r="C758" s="23"/>
@@ -22794,7 +22936,7 @@
       <c r="X758" s="23"/>
       <c r="Y758" s="23"/>
     </row>
-    <row r="759" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A759" s="23"/>
       <c r="B759" s="23"/>
       <c r="C759" s="23"/>
@@ -22821,7 +22963,7 @@
       <c r="X759" s="23"/>
       <c r="Y759" s="23"/>
     </row>
-    <row r="760" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A760" s="23"/>
       <c r="B760" s="23"/>
       <c r="C760" s="23"/>
@@ -22848,7 +22990,7 @@
       <c r="X760" s="23"/>
       <c r="Y760" s="23"/>
     </row>
-    <row r="761" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A761" s="23"/>
       <c r="B761" s="23"/>
       <c r="C761" s="23"/>
@@ -22875,7 +23017,7 @@
       <c r="X761" s="23"/>
       <c r="Y761" s="23"/>
     </row>
-    <row r="762" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A762" s="23"/>
       <c r="B762" s="23"/>
       <c r="C762" s="23"/>
@@ -22902,7 +23044,7 @@
       <c r="X762" s="23"/>
       <c r="Y762" s="23"/>
     </row>
-    <row r="763" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A763" s="23"/>
       <c r="B763" s="23"/>
       <c r="C763" s="23"/>
@@ -22929,7 +23071,7 @@
       <c r="X763" s="23"/>
       <c r="Y763" s="23"/>
     </row>
-    <row r="764" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A764" s="23"/>
       <c r="B764" s="23"/>
       <c r="C764" s="23"/>
@@ -22956,7 +23098,7 @@
       <c r="X764" s="23"/>
       <c r="Y764" s="23"/>
     </row>
-    <row r="765" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A765" s="23"/>
       <c r="B765" s="23"/>
       <c r="C765" s="23"/>
@@ -22983,7 +23125,7 @@
       <c r="X765" s="23"/>
       <c r="Y765" s="23"/>
     </row>
-    <row r="766" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A766" s="23"/>
       <c r="B766" s="23"/>
       <c r="C766" s="23"/>
@@ -23010,7 +23152,7 @@
       <c r="X766" s="23"/>
       <c r="Y766" s="23"/>
     </row>
-    <row r="767" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A767" s="23"/>
       <c r="B767" s="23"/>
       <c r="C767" s="23"/>
@@ -23037,7 +23179,7 @@
       <c r="X767" s="23"/>
       <c r="Y767" s="23"/>
     </row>
-    <row r="768" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A768" s="23"/>
       <c r="B768" s="23"/>
       <c r="C768" s="23"/>
@@ -23064,7 +23206,7 @@
       <c r="X768" s="23"/>
       <c r="Y768" s="23"/>
     </row>
-    <row r="769" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A769" s="23"/>
       <c r="B769" s="23"/>
       <c r="C769" s="23"/>
@@ -23091,7 +23233,7 @@
       <c r="X769" s="23"/>
       <c r="Y769" s="23"/>
     </row>
-    <row r="770" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A770" s="23"/>
       <c r="B770" s="23"/>
       <c r="C770" s="23"/>
@@ -23118,7 +23260,7 @@
       <c r="X770" s="23"/>
       <c r="Y770" s="23"/>
     </row>
-    <row r="771" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A771" s="23"/>
       <c r="B771" s="23"/>
       <c r="C771" s="23"/>
@@ -23145,7 +23287,7 @@
       <c r="X771" s="23"/>
       <c r="Y771" s="23"/>
     </row>
-    <row r="772" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A772" s="23"/>
       <c r="B772" s="23"/>
       <c r="C772" s="23"/>
@@ -23172,7 +23314,7 @@
       <c r="X772" s="23"/>
       <c r="Y772" s="23"/>
     </row>
-    <row r="773" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A773" s="23"/>
       <c r="B773" s="23"/>
       <c r="C773" s="23"/>
@@ -23199,7 +23341,7 @@
       <c r="X773" s="23"/>
       <c r="Y773" s="23"/>
     </row>
-    <row r="774" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A774" s="23"/>
       <c r="B774" s="23"/>
       <c r="C774" s="23"/>
@@ -23226,7 +23368,7 @@
       <c r="X774" s="23"/>
       <c r="Y774" s="23"/>
     </row>
-    <row r="775" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A775" s="23"/>
       <c r="B775" s="23"/>
       <c r="C775" s="23"/>
@@ -23253,7 +23395,7 @@
       <c r="X775" s="23"/>
       <c r="Y775" s="23"/>
     </row>
-    <row r="776" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A776" s="23"/>
       <c r="B776" s="23"/>
       <c r="C776" s="23"/>
@@ -23280,7 +23422,7 @@
       <c r="X776" s="23"/>
       <c r="Y776" s="23"/>
     </row>
-    <row r="777" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A777" s="23"/>
       <c r="B777" s="23"/>
       <c r="C777" s="23"/>
@@ -23307,7 +23449,7 @@
       <c r="X777" s="23"/>
       <c r="Y777" s="23"/>
     </row>
-    <row r="778" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A778" s="23"/>
       <c r="B778" s="23"/>
       <c r="C778" s="23"/>
@@ -23334,7 +23476,7 @@
       <c r="X778" s="23"/>
       <c r="Y778" s="23"/>
     </row>
-    <row r="779" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A779" s="23"/>
       <c r="B779" s="23"/>
       <c r="C779" s="23"/>
@@ -23361,7 +23503,7 @@
       <c r="X779" s="23"/>
       <c r="Y779" s="23"/>
     </row>
-    <row r="780" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A780" s="23"/>
       <c r="B780" s="23"/>
       <c r="C780" s="23"/>
@@ -23388,7 +23530,7 @@
       <c r="X780" s="23"/>
       <c r="Y780" s="23"/>
     </row>
-    <row r="781" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A781" s="23"/>
       <c r="B781" s="23"/>
       <c r="C781" s="23"/>
@@ -23415,7 +23557,7 @@
       <c r="X781" s="23"/>
       <c r="Y781" s="23"/>
     </row>
-    <row r="782" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A782" s="23"/>
       <c r="B782" s="23"/>
       <c r="C782" s="23"/>
@@ -23442,7 +23584,7 @@
       <c r="X782" s="23"/>
       <c r="Y782" s="23"/>
     </row>
-    <row r="783" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A783" s="23"/>
       <c r="B783" s="23"/>
       <c r="C783" s="23"/>
@@ -23469,7 +23611,7 @@
       <c r="X783" s="23"/>
       <c r="Y783" s="23"/>
     </row>
-    <row r="784" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A784" s="23"/>
       <c r="B784" s="23"/>
       <c r="C784" s="23"/>
@@ -23496,7 +23638,7 @@
       <c r="X784" s="23"/>
       <c r="Y784" s="23"/>
     </row>
-    <row r="785" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A785" s="23"/>
       <c r="B785" s="23"/>
       <c r="C785" s="23"/>
@@ -23523,7 +23665,7 @@
       <c r="X785" s="23"/>
       <c r="Y785" s="23"/>
     </row>
-    <row r="786" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A786" s="23"/>
       <c r="B786" s="23"/>
       <c r="C786" s="23"/>
@@ -23550,7 +23692,7 @@
       <c r="X786" s="23"/>
       <c r="Y786" s="23"/>
     </row>
-    <row r="787" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A787" s="23"/>
       <c r="B787" s="23"/>
       <c r="C787" s="23"/>
@@ -23577,7 +23719,7 @@
       <c r="X787" s="23"/>
       <c r="Y787" s="23"/>
     </row>
-    <row r="788" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A788" s="23"/>
       <c r="B788" s="23"/>
       <c r="C788" s="23"/>
@@ -23604,7 +23746,7 @@
       <c r="X788" s="23"/>
       <c r="Y788" s="23"/>
     </row>
-    <row r="789" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A789" s="23"/>
       <c r="B789" s="23"/>
       <c r="C789" s="23"/>
@@ -23631,7 +23773,7 @@
       <c r="X789" s="23"/>
       <c r="Y789" s="23"/>
     </row>
-    <row r="790" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A790" s="23"/>
       <c r="B790" s="23"/>
       <c r="C790" s="23"/>
@@ -23658,7 +23800,7 @@
       <c r="X790" s="23"/>
       <c r="Y790" s="23"/>
     </row>
-    <row r="791" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A791" s="23"/>
       <c r="B791" s="23"/>
       <c r="C791" s="23"/>
@@ -23685,7 +23827,7 @@
       <c r="X791" s="23"/>
       <c r="Y791" s="23"/>
     </row>
-    <row r="792" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A792" s="23"/>
       <c r="B792" s="23"/>
       <c r="C792" s="23"/>
@@ -23712,7 +23854,7 @@
       <c r="X792" s="23"/>
       <c r="Y792" s="23"/>
     </row>
-    <row r="793" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A793" s="23"/>
       <c r="B793" s="23"/>
       <c r="C793" s="23"/>
@@ -23739,7 +23881,7 @@
       <c r="X793" s="23"/>
       <c r="Y793" s="23"/>
     </row>
-    <row r="794" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A794" s="23"/>
       <c r="B794" s="23"/>
       <c r="C794" s="23"/>
@@ -23766,7 +23908,7 @@
       <c r="X794" s="23"/>
       <c r="Y794" s="23"/>
     </row>
-    <row r="795" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A795" s="23"/>
       <c r="B795" s="23"/>
       <c r="C795" s="23"/>
@@ -23793,7 +23935,7 @@
       <c r="X795" s="23"/>
       <c r="Y795" s="23"/>
     </row>
-    <row r="796" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A796" s="23"/>
       <c r="B796" s="23"/>
       <c r="C796" s="23"/>
@@ -23820,7 +23962,7 @@
       <c r="X796" s="23"/>
       <c r="Y796" s="23"/>
     </row>
-    <row r="797" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A797" s="23"/>
       <c r="B797" s="23"/>
       <c r="C797" s="23"/>
@@ -23847,7 +23989,7 @@
       <c r="X797" s="23"/>
       <c r="Y797" s="23"/>
     </row>
-    <row r="798" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A798" s="23"/>
       <c r="B798" s="23"/>
       <c r="C798" s="23"/>
@@ -23874,7 +24016,7 @@
       <c r="X798" s="23"/>
       <c r="Y798" s="23"/>
     </row>
-    <row r="799" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A799" s="23"/>
       <c r="B799" s="23"/>
       <c r="C799" s="23"/>
@@ -23901,7 +24043,7 @@
       <c r="X799" s="23"/>
       <c r="Y799" s="23"/>
     </row>
-    <row r="800" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A800" s="23"/>
       <c r="B800" s="23"/>
       <c r="C800" s="23"/>
@@ -23928,7 +24070,7 @@
       <c r="X800" s="23"/>
       <c r="Y800" s="23"/>
     </row>
-    <row r="801" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A801" s="23"/>
       <c r="B801" s="23"/>
       <c r="C801" s="23"/>
@@ -23955,7 +24097,7 @@
       <c r="X801" s="23"/>
       <c r="Y801" s="23"/>
     </row>
-    <row r="802" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A802" s="23"/>
       <c r="B802" s="23"/>
       <c r="C802" s="23"/>
@@ -23982,7 +24124,7 @@
       <c r="X802" s="23"/>
       <c r="Y802" s="23"/>
     </row>
-    <row r="803" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A803" s="23"/>
       <c r="B803" s="23"/>
       <c r="C803" s="23"/>
@@ -24009,7 +24151,7 @@
       <c r="X803" s="23"/>
       <c r="Y803" s="23"/>
     </row>
-    <row r="804" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A804" s="23"/>
       <c r="B804" s="23"/>
       <c r="C804" s="23"/>
@@ -24036,7 +24178,7 @@
       <c r="X804" s="23"/>
       <c r="Y804" s="23"/>
     </row>
-    <row r="805" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A805" s="23"/>
       <c r="B805" s="23"/>
       <c r="C805" s="23"/>
@@ -24063,7 +24205,7 @@
       <c r="X805" s="23"/>
       <c r="Y805" s="23"/>
     </row>
-    <row r="806" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A806" s="23"/>
       <c r="B806" s="23"/>
       <c r="C806" s="23"/>
@@ -24090,7 +24232,7 @@
       <c r="X806" s="23"/>
       <c r="Y806" s="23"/>
     </row>
-    <row r="807" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A807" s="23"/>
       <c r="B807" s="23"/>
       <c r="C807" s="23"/>
@@ -24117,7 +24259,7 @@
       <c r="X807" s="23"/>
       <c r="Y807" s="23"/>
     </row>
-    <row r="808" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A808" s="23"/>
       <c r="B808" s="23"/>
       <c r="C808" s="23"/>
@@ -24144,7 +24286,7 @@
       <c r="X808" s="23"/>
       <c r="Y808" s="23"/>
     </row>
-    <row r="809" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A809" s="23"/>
       <c r="B809" s="23"/>
       <c r="C809" s="23"/>
@@ -24171,7 +24313,7 @@
       <c r="X809" s="23"/>
       <c r="Y809" s="23"/>
     </row>
-    <row r="810" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A810" s="23"/>
       <c r="B810" s="23"/>
       <c r="C810" s="23"/>
@@ -24198,7 +24340,7 @@
       <c r="X810" s="23"/>
       <c r="Y810" s="23"/>
     </row>
-    <row r="811" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A811" s="23"/>
       <c r="B811" s="23"/>
       <c r="C811" s="23"/>
@@ -24225,7 +24367,7 @@
       <c r="X811" s="23"/>
       <c r="Y811" s="23"/>
     </row>
-    <row r="812" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A812" s="23"/>
       <c r="B812" s="23"/>
       <c r="C812" s="23"/>
@@ -24252,7 +24394,7 @@
       <c r="X812" s="23"/>
       <c r="Y812" s="23"/>
     </row>
-    <row r="813" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A813" s="23"/>
       <c r="B813" s="23"/>
       <c r="C813" s="23"/>
@@ -24279,7 +24421,7 @@
       <c r="X813" s="23"/>
       <c r="Y813" s="23"/>
     </row>
-    <row r="814" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A814" s="23"/>
       <c r="B814" s="23"/>
       <c r="C814" s="23"/>
@@ -24306,7 +24448,7 @@
       <c r="X814" s="23"/>
       <c r="Y814" s="23"/>
     </row>
-    <row r="815" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A815" s="23"/>
       <c r="B815" s="23"/>
       <c r="C815" s="23"/>
@@ -24333,7 +24475,7 @@
       <c r="X815" s="23"/>
       <c r="Y815" s="23"/>
     </row>
-    <row r="816" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A816" s="23"/>
       <c r="B816" s="23"/>
       <c r="C816" s="23"/>
@@ -24360,7 +24502,7 @@
       <c r="X816" s="23"/>
       <c r="Y816" s="23"/>
     </row>
-    <row r="817" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A817" s="23"/>
       <c r="B817" s="23"/>
       <c r="C817" s="23"/>
@@ -24387,7 +24529,7 @@
       <c r="X817" s="23"/>
       <c r="Y817" s="23"/>
     </row>
-    <row r="818" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A818" s="23"/>
       <c r="B818" s="23"/>
       <c r="C818" s="23"/>
@@ -24414,7 +24556,7 @@
       <c r="X818" s="23"/>
       <c r="Y818" s="23"/>
     </row>
-    <row r="819" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A819" s="23"/>
       <c r="B819" s="23"/>
       <c r="C819" s="23"/>
@@ -24441,7 +24583,7 @@
       <c r="X819" s="23"/>
       <c r="Y819" s="23"/>
     </row>
-    <row r="820" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A820" s="23"/>
       <c r="B820" s="23"/>
       <c r="C820" s="23"/>
@@ -24468,7 +24610,7 @@
       <c r="X820" s="23"/>
       <c r="Y820" s="23"/>
     </row>
-    <row r="821" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A821" s="23"/>
       <c r="B821" s="23"/>
       <c r="C821" s="23"/>
@@ -24495,7 +24637,7 @@
       <c r="X821" s="23"/>
       <c r="Y821" s="23"/>
     </row>
-    <row r="822" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A822" s="23"/>
       <c r="B822" s="23"/>
       <c r="C822" s="23"/>
@@ -24522,7 +24664,7 @@
       <c r="X822" s="23"/>
       <c r="Y822" s="23"/>
     </row>
-    <row r="823" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A823" s="23"/>
       <c r="B823" s="23"/>
       <c r="C823" s="23"/>
@@ -24549,7 +24691,7 @@
       <c r="X823" s="23"/>
       <c r="Y823" s="23"/>
     </row>
-    <row r="824" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A824" s="23"/>
       <c r="B824" s="23"/>
       <c r="C824" s="23"/>
@@ -24576,7 +24718,7 @@
       <c r="X824" s="23"/>
       <c r="Y824" s="23"/>
     </row>
-    <row r="825" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A825" s="23"/>
       <c r="B825" s="23"/>
       <c r="C825" s="23"/>
@@ -24603,7 +24745,7 @@
       <c r="X825" s="23"/>
       <c r="Y825" s="23"/>
     </row>
-    <row r="826" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A826" s="23"/>
       <c r="B826" s="23"/>
       <c r="C826" s="23"/>
@@ -24630,7 +24772,7 @@
       <c r="X826" s="23"/>
       <c r="Y826" s="23"/>
     </row>
-    <row r="827" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A827" s="23"/>
       <c r="B827" s="23"/>
       <c r="C827" s="23"/>
@@ -24657,7 +24799,7 @@
       <c r="X827" s="23"/>
       <c r="Y827" s="23"/>
     </row>
-    <row r="828" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A828" s="23"/>
       <c r="B828" s="23"/>
       <c r="C828" s="23"/>
@@ -24684,7 +24826,7 @@
       <c r="X828" s="23"/>
       <c r="Y828" s="23"/>
     </row>
-    <row r="829" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A829" s="23"/>
       <c r="B829" s="23"/>
       <c r="C829" s="23"/>
@@ -24711,7 +24853,7 @@
       <c r="X829" s="23"/>
       <c r="Y829" s="23"/>
     </row>
-    <row r="830" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A830" s="23"/>
       <c r="B830" s="23"/>
       <c r="C830" s="23"/>
@@ -24738,7 +24880,7 @@
       <c r="X830" s="23"/>
       <c r="Y830" s="23"/>
     </row>
-    <row r="831" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A831" s="23"/>
       <c r="B831" s="23"/>
       <c r="C831" s="23"/>
@@ -24765,7 +24907,7 @@
       <c r="X831" s="23"/>
       <c r="Y831" s="23"/>
     </row>
-    <row r="832" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A832" s="23"/>
       <c r="B832" s="23"/>
       <c r="C832" s="23"/>
@@ -24792,7 +24934,7 @@
       <c r="X832" s="23"/>
       <c r="Y832" s="23"/>
     </row>
-    <row r="833" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A833" s="23"/>
       <c r="B833" s="23"/>
       <c r="C833" s="23"/>
@@ -24819,7 +24961,7 @@
       <c r="X833" s="23"/>
       <c r="Y833" s="23"/>
     </row>
-    <row r="834" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A834" s="23"/>
       <c r="B834" s="23"/>
       <c r="C834" s="23"/>
@@ -24846,7 +24988,7 @@
       <c r="X834" s="23"/>
       <c r="Y834" s="23"/>
     </row>
-    <row r="835" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A835" s="23"/>
       <c r="B835" s="23"/>
       <c r="C835" s="23"/>
@@ -24873,7 +25015,7 @@
       <c r="X835" s="23"/>
       <c r="Y835" s="23"/>
     </row>
-    <row r="836" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A836" s="23"/>
       <c r="B836" s="23"/>
       <c r="C836" s="23"/>
@@ -24900,7 +25042,7 @@
       <c r="X836" s="23"/>
       <c r="Y836" s="23"/>
     </row>
-    <row r="837" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A837" s="23"/>
       <c r="B837" s="23"/>
       <c r="C837" s="23"/>
@@ -24927,7 +25069,7 @@
       <c r="X837" s="23"/>
       <c r="Y837" s="23"/>
     </row>
-    <row r="838" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A838" s="23"/>
       <c r="B838" s="23"/>
       <c r="C838" s="23"/>
@@ -24954,7 +25096,7 @@
       <c r="X838" s="23"/>
       <c r="Y838" s="23"/>
     </row>
-    <row r="839" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A839" s="23"/>
       <c r="B839" s="23"/>
       <c r="C839" s="23"/>
@@ -24981,7 +25123,7 @@
       <c r="X839" s="23"/>
       <c r="Y839" s="23"/>
     </row>
-    <row r="840" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A840" s="23"/>
       <c r="B840" s="23"/>
       <c r="C840" s="23"/>
@@ -25008,7 +25150,7 @@
       <c r="X840" s="23"/>
       <c r="Y840" s="23"/>
     </row>
-    <row r="841" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A841" s="23"/>
       <c r="B841" s="23"/>
       <c r="C841" s="23"/>
@@ -25035,7 +25177,7 @@
       <c r="X841" s="23"/>
       <c r="Y841" s="23"/>
     </row>
-    <row r="842" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A842" s="23"/>
       <c r="B842" s="23"/>
       <c r="C842" s="23"/>
@@ -25062,7 +25204,7 @@
       <c r="X842" s="23"/>
       <c r="Y842" s="23"/>
     </row>
-    <row r="843" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A843" s="23"/>
       <c r="B843" s="23"/>
       <c r="C843" s="23"/>
@@ -25089,7 +25231,7 @@
       <c r="X843" s="23"/>
       <c r="Y843" s="23"/>
     </row>
-    <row r="844" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A844" s="23"/>
       <c r="B844" s="23"/>
       <c r="C844" s="23"/>
@@ -25116,7 +25258,7 @@
       <c r="X844" s="23"/>
       <c r="Y844" s="23"/>
     </row>
-    <row r="845" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A845" s="23"/>
       <c r="B845" s="23"/>
       <c r="C845" s="23"/>
@@ -25143,7 +25285,7 @@
       <c r="X845" s="23"/>
       <c r="Y845" s="23"/>
     </row>
-    <row r="846" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A846" s="23"/>
       <c r="B846" s="23"/>
       <c r="C846" s="23"/>
@@ -25170,7 +25312,7 @@
       <c r="X846" s="23"/>
       <c r="Y846" s="23"/>
     </row>
-    <row r="847" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A847" s="23"/>
       <c r="B847" s="23"/>
       <c r="C847" s="23"/>
@@ -25197,7 +25339,7 @@
       <c r="X847" s="23"/>
       <c r="Y847" s="23"/>
     </row>
-    <row r="848" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A848" s="23"/>
       <c r="B848" s="23"/>
       <c r="C848" s="23"/>
@@ -25224,7 +25366,7 @@
       <c r="X848" s="23"/>
       <c r="Y848" s="23"/>
     </row>
-    <row r="849" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A849" s="23"/>
       <c r="B849" s="23"/>
       <c r="C849" s="23"/>
@@ -25251,7 +25393,7 @@
       <c r="X849" s="23"/>
       <c r="Y849" s="23"/>
     </row>
-    <row r="850" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A850" s="23"/>
       <c r="B850" s="23"/>
       <c r="C850" s="23"/>
@@ -25278,7 +25420,7 @@
       <c r="X850" s="23"/>
       <c r="Y850" s="23"/>
     </row>
-    <row r="851" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A851" s="23"/>
       <c r="B851" s="23"/>
       <c r="C851" s="23"/>
@@ -25305,7 +25447,7 @@
       <c r="X851" s="23"/>
       <c r="Y851" s="23"/>
     </row>
-    <row r="852" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A852" s="23"/>
       <c r="B852" s="23"/>
       <c r="C852" s="23"/>
@@ -25332,7 +25474,7 @@
       <c r="X852" s="23"/>
       <c r="Y852" s="23"/>
     </row>
-    <row r="853" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A853" s="23"/>
       <c r="B853" s="23"/>
       <c r="C853" s="23"/>
@@ -25359,7 +25501,7 @@
       <c r="X853" s="23"/>
       <c r="Y853" s="23"/>
     </row>
-    <row r="854" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A854" s="23"/>
       <c r="B854" s="23"/>
       <c r="C854" s="23"/>
@@ -25386,7 +25528,7 @@
       <c r="X854" s="23"/>
       <c r="Y854" s="23"/>
     </row>
-    <row r="855" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A855" s="23"/>
       <c r="B855" s="23"/>
       <c r="C855" s="23"/>
@@ -25413,7 +25555,7 @@
       <c r="X855" s="23"/>
       <c r="Y855" s="23"/>
     </row>
-    <row r="856" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A856" s="23"/>
       <c r="B856" s="23"/>
       <c r="C856" s="23"/>
@@ -25440,7 +25582,7 @@
       <c r="X856" s="23"/>
       <c r="Y856" s="23"/>
     </row>
-    <row r="857" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A857" s="23"/>
       <c r="B857" s="23"/>
       <c r="C857" s="23"/>
@@ -25467,7 +25609,7 @@
       <c r="X857" s="23"/>
       <c r="Y857" s="23"/>
     </row>
-    <row r="858" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A858" s="23"/>
       <c r="B858" s="23"/>
       <c r="C858" s="23"/>
@@ -25494,7 +25636,7 @@
       <c r="X858" s="23"/>
       <c r="Y858" s="23"/>
     </row>
-    <row r="859" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A859" s="23"/>
       <c r="B859" s="23"/>
       <c r="C859" s="23"/>
@@ -25521,7 +25663,7 @@
       <c r="X859" s="23"/>
       <c r="Y859" s="23"/>
     </row>
-    <row r="860" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A860" s="23"/>
       <c r="B860" s="23"/>
       <c r="C860" s="23"/>
@@ -25548,7 +25690,7 @@
       <c r="X860" s="23"/>
       <c r="Y860" s="23"/>
     </row>
-    <row r="861" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A861" s="23"/>
       <c r="B861" s="23"/>
       <c r="C861" s="23"/>
@@ -25575,7 +25717,7 @@
       <c r="X861" s="23"/>
       <c r="Y861" s="23"/>
     </row>
-    <row r="862" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A862" s="23"/>
       <c r="B862" s="23"/>
       <c r="C862" s="23"/>
@@ -25602,7 +25744,7 @@
       <c r="X862" s="23"/>
       <c r="Y862" s="23"/>
     </row>
-    <row r="863" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A863" s="23"/>
       <c r="B863" s="23"/>
       <c r="C863" s="23"/>
@@ -25629,7 +25771,7 @@
       <c r="X863" s="23"/>
       <c r="Y863" s="23"/>
     </row>
-    <row r="864" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A864" s="23"/>
       <c r="B864" s="23"/>
       <c r="C864" s="23"/>
@@ -25656,7 +25798,7 @@
       <c r="X864" s="23"/>
       <c r="Y864" s="23"/>
     </row>
-    <row r="865" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A865" s="23"/>
       <c r="B865" s="23"/>
       <c r="C865" s="23"/>
@@ -25683,7 +25825,7 @@
       <c r="X865" s="23"/>
       <c r="Y865" s="23"/>
     </row>
-    <row r="866" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A866" s="23"/>
       <c r="B866" s="23"/>
       <c r="C866" s="23"/>
@@ -25710,7 +25852,7 @@
       <c r="X866" s="23"/>
       <c r="Y866" s="23"/>
     </row>
-    <row r="867" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A867" s="23"/>
       <c r="B867" s="23"/>
       <c r="C867" s="23"/>
@@ -25737,7 +25879,7 @@
       <c r="X867" s="23"/>
       <c r="Y867" s="23"/>
     </row>
-    <row r="868" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A868" s="23"/>
       <c r="B868" s="23"/>
       <c r="C868" s="23"/>
@@ -25764,7 +25906,7 @@
       <c r="X868" s="23"/>
       <c r="Y868" s="23"/>
     </row>
-    <row r="869" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A869" s="23"/>
       <c r="B869" s="23"/>
       <c r="C869" s="23"/>
@@ -25791,7 +25933,7 @@
       <c r="X869" s="23"/>
       <c r="Y869" s="23"/>
     </row>
-    <row r="870" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A870" s="23"/>
       <c r="B870" s="23"/>
       <c r="C870" s="23"/>
@@ -25818,7 +25960,7 @@
       <c r="X870" s="23"/>
       <c r="Y870" s="23"/>
     </row>
-    <row r="871" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A871" s="23"/>
       <c r="B871" s="23"/>
       <c r="C871" s="23"/>
@@ -25845,7 +25987,7 @@
       <c r="X871" s="23"/>
       <c r="Y871" s="23"/>
     </row>
-    <row r="872" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A872" s="23"/>
       <c r="B872" s="23"/>
       <c r="C872" s="23"/>
@@ -25872,7 +26014,7 @@
       <c r="X872" s="23"/>
       <c r="Y872" s="23"/>
     </row>
-    <row r="873" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A873" s="23"/>
       <c r="B873" s="23"/>
       <c r="C873" s="23"/>
@@ -25899,7 +26041,7 @@
       <c r="X873" s="23"/>
       <c r="Y873" s="23"/>
     </row>
-    <row r="874" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A874" s="23"/>
       <c r="B874" s="23"/>
       <c r="C874" s="23"/>
@@ -25926,7 +26068,7 @@
       <c r="X874" s="23"/>
       <c r="Y874" s="23"/>
     </row>
-    <row r="875" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A875" s="23"/>
       <c r="B875" s="23"/>
       <c r="C875" s="23"/>
@@ -25953,7 +26095,7 @@
       <c r="X875" s="23"/>
       <c r="Y875" s="23"/>
     </row>
-    <row r="876" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A876" s="23"/>
       <c r="B876" s="23"/>
       <c r="C876" s="23"/>
@@ -25980,7 +26122,7 @@
       <c r="X876" s="23"/>
       <c r="Y876" s="23"/>
     </row>
-    <row r="877" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A877" s="23"/>
       <c r="B877" s="23"/>
       <c r="C877" s="23"/>
@@ -26007,7 +26149,7 @@
       <c r="X877" s="23"/>
       <c r="Y877" s="23"/>
     </row>
-    <row r="878" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A878" s="23"/>
       <c r="B878" s="23"/>
       <c r="C878" s="23"/>
@@ -26034,7 +26176,7 @@
       <c r="X878" s="23"/>
       <c r="Y878" s="23"/>
     </row>
-    <row r="879" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A879" s="23"/>
       <c r="B879" s="23"/>
       <c r="C879" s="23"/>
@@ -26061,7 +26203,7 @@
       <c r="X879" s="23"/>
       <c r="Y879" s="23"/>
     </row>
-    <row r="880" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A880" s="23"/>
       <c r="B880" s="23"/>
       <c r="C880" s="23"/>
@@ -26088,7 +26230,7 @@
       <c r="X880" s="23"/>
       <c r="Y880" s="23"/>
     </row>
-    <row r="881" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A881" s="23"/>
       <c r="B881" s="23"/>
       <c r="C881" s="23"/>
@@ -26115,7 +26257,7 @@
       <c r="X881" s="23"/>
       <c r="Y881" s="23"/>
     </row>
-    <row r="882" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A882" s="23"/>
       <c r="B882" s="23"/>
       <c r="C882" s="23"/>
@@ -26142,7 +26284,7 @@
       <c r="X882" s="23"/>
       <c r="Y882" s="23"/>
     </row>
-    <row r="883" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A883" s="23"/>
       <c r="B883" s="23"/>
       <c r="C883" s="23"/>
@@ -26169,7 +26311,7 @@
       <c r="X883" s="23"/>
       <c r="Y883" s="23"/>
     </row>
-    <row r="884" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A884" s="23"/>
       <c r="B884" s="23"/>
       <c r="C884" s="23"/>
@@ -26196,7 +26338,7 @@
       <c r="X884" s="23"/>
       <c r="Y884" s="23"/>
     </row>
-    <row r="885" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A885" s="23"/>
       <c r="B885" s="23"/>
       <c r="C885" s="23"/>
@@ -26223,7 +26365,7 @@
       <c r="X885" s="23"/>
       <c r="Y885" s="23"/>
     </row>
-    <row r="886" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A886" s="23"/>
       <c r="B886" s="23"/>
       <c r="C886" s="23"/>
@@ -26250,7 +26392,7 @@
       <c r="X886" s="23"/>
       <c r="Y886" s="23"/>
     </row>
-    <row r="887" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A887" s="23"/>
       <c r="B887" s="23"/>
       <c r="C887" s="23"/>
@@ -26277,7 +26419,7 @@
       <c r="X887" s="23"/>
       <c r="Y887" s="23"/>
     </row>
-    <row r="888" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A888" s="23"/>
       <c r="B888" s="23"/>
       <c r="C888" s="23"/>
@@ -26304,7 +26446,7 @@
       <c r="X888" s="23"/>
       <c r="Y888" s="23"/>
     </row>
-    <row r="889" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A889" s="23"/>
       <c r="B889" s="23"/>
       <c r="C889" s="23"/>
@@ -26331,7 +26473,7 @@
       <c r="X889" s="23"/>
       <c r="Y889" s="23"/>
     </row>
-    <row r="890" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A890" s="23"/>
       <c r="B890" s="23"/>
       <c r="C890" s="23"/>
@@ -26358,7 +26500,7 @@
       <c r="X890" s="23"/>
       <c r="Y890" s="23"/>
     </row>
-    <row r="891" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A891" s="23"/>
       <c r="B891" s="23"/>
       <c r="C891" s="23"/>
@@ -26385,7 +26527,7 @@
       <c r="X891" s="23"/>
       <c r="Y891" s="23"/>
     </row>
-    <row r="892" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A892" s="23"/>
       <c r="B892" s="23"/>
       <c r="C892" s="23"/>
@@ -26412,7 +26554,7 @@
       <c r="X892" s="23"/>
       <c r="Y892" s="23"/>
     </row>
-    <row r="893" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A893" s="23"/>
       <c r="B893" s="23"/>
       <c r="C893" s="23"/>
@@ -26439,7 +26581,7 @@
       <c r="X893" s="23"/>
       <c r="Y893" s="23"/>
     </row>
-    <row r="894" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A894" s="23"/>
       <c r="B894" s="23"/>
       <c r="C894" s="23"/>
@@ -26466,7 +26608,7 @@
       <c r="X894" s="23"/>
       <c r="Y894" s="23"/>
     </row>
-    <row r="895" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A895" s="23"/>
       <c r="B895" s="23"/>
       <c r="C895" s="23"/>
@@ -26493,7 +26635,7 @@
       <c r="X895" s="23"/>
       <c r="Y895" s="23"/>
     </row>
-    <row r="896" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A896" s="23"/>
       <c r="B896" s="23"/>
       <c r="C896" s="23"/>
@@ -26520,7 +26662,7 @@
       <c r="X896" s="23"/>
       <c r="Y896" s="23"/>
     </row>
-    <row r="897" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A897" s="23"/>
       <c r="B897" s="23"/>
       <c r="C897" s="23"/>
@@ -26547,7 +26689,7 @@
       <c r="X897" s="23"/>
       <c r="Y897" s="23"/>
     </row>
-    <row r="898" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A898" s="23"/>
       <c r="B898" s="23"/>
       <c r="C898" s="23"/>
@@ -26574,7 +26716,7 @@
       <c r="X898" s="23"/>
       <c r="Y898" s="23"/>
     </row>
-    <row r="899" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A899" s="23"/>
       <c r="B899" s="23"/>
       <c r="C899" s="23"/>
@@ -26601,7 +26743,7 @@
       <c r="X899" s="23"/>
       <c r="Y899" s="23"/>
     </row>
-    <row r="900" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A900" s="23"/>
       <c r="B900" s="23"/>
       <c r="C900" s="23"/>
@@ -26628,7 +26770,7 @@
       <c r="X900" s="23"/>
       <c r="Y900" s="23"/>
     </row>
-    <row r="901" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A901" s="23"/>
       <c r="B901" s="23"/>
       <c r="C901" s="23"/>
@@ -26655,7 +26797,7 @@
       <c r="X901" s="23"/>
       <c r="Y901" s="23"/>
     </row>
-    <row r="902" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A902" s="23"/>
       <c r="B902" s="23"/>
       <c r="C902" s="23"/>
@@ -26682,7 +26824,7 @@
       <c r="X902" s="23"/>
       <c r="Y902" s="23"/>
     </row>
-    <row r="903" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A903" s="23"/>
       <c r="B903" s="23"/>
       <c r="C903" s="23"/>
@@ -26709,7 +26851,7 @@
       <c r="X903" s="23"/>
       <c r="Y903" s="23"/>
     </row>
-    <row r="904" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A904" s="23"/>
       <c r="B904" s="23"/>
       <c r="C904" s="23"/>
@@ -26736,7 +26878,7 @@
       <c r="X904" s="23"/>
       <c r="Y904" s="23"/>
     </row>
-    <row r="905" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A905" s="23"/>
       <c r="B905" s="23"/>
       <c r="C905" s="23"/>
@@ -26763,7 +26905,7 @@
       <c r="X905" s="23"/>
       <c r="Y905" s="23"/>
     </row>
-    <row r="906" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A906" s="23"/>
       <c r="B906" s="23"/>
       <c r="C906" s="23"/>
@@ -26790,7 +26932,7 @@
       <c r="X906" s="23"/>
       <c r="Y906" s="23"/>
     </row>
-    <row r="907" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A907" s="23"/>
       <c r="B907" s="23"/>
       <c r="C907" s="23"/>
@@ -26817,7 +26959,7 @@
       <c r="X907" s="23"/>
       <c r="Y907" s="23"/>
     </row>
-    <row r="908" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A908" s="23"/>
       <c r="B908" s="23"/>
       <c r="C908" s="23"/>
@@ -26844,7 +26986,7 @@
       <c r="X908" s="23"/>
       <c r="Y908" s="23"/>
     </row>
-    <row r="909" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A909" s="23"/>
       <c r="B909" s="23"/>
       <c r="C909" s="23"/>
@@ -26871,7 +27013,7 @@
       <c r="X909" s="23"/>
       <c r="Y909" s="23"/>
     </row>
-    <row r="910" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A910" s="23"/>
       <c r="B910" s="23"/>
       <c r="C910" s="23"/>
@@ -26898,7 +27040,7 @@
       <c r="X910" s="23"/>
       <c r="Y910" s="23"/>
     </row>
-    <row r="911" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A911" s="23"/>
       <c r="B911" s="23"/>
       <c r="C911" s="23"/>
@@ -26925,7 +27067,7 @@
       <c r="X911" s="23"/>
       <c r="Y911" s="23"/>
     </row>
-    <row r="912" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A912" s="23"/>
       <c r="B912" s="23"/>
       <c r="C912" s="23"/>
@@ -26952,7 +27094,7 @@
       <c r="X912" s="23"/>
       <c r="Y912" s="23"/>
     </row>
-    <row r="913" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A913" s="23"/>
       <c r="B913" s="23"/>
       <c r="C913" s="23"/>
@@ -26979,7 +27121,7 @@
       <c r="X913" s="23"/>
       <c r="Y913" s="23"/>
     </row>
-    <row r="914" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A914" s="23"/>
       <c r="B914" s="23"/>
       <c r="C914" s="23"/>
@@ -27006,7 +27148,7 @@
       <c r="X914" s="23"/>
       <c r="Y914" s="23"/>
     </row>
-    <row r="915" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A915" s="23"/>
       <c r="B915" s="23"/>
       <c r="C915" s="23"/>
@@ -27033,7 +27175,7 @@
       <c r="X915" s="23"/>
       <c r="Y915" s="23"/>
     </row>
-    <row r="916" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A916" s="23"/>
       <c r="B916" s="23"/>
       <c r="C916" s="23"/>
@@ -27060,7 +27202,7 @@
       <c r="X916" s="23"/>
       <c r="Y916" s="23"/>
     </row>
-    <row r="917" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A917" s="23"/>
       <c r="B917" s="23"/>
       <c r="C917" s="23"/>
@@ -27087,7 +27229,7 @@
       <c r="X917" s="23"/>
       <c r="Y917" s="23"/>
     </row>
-    <row r="918" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A918" s="23"/>
       <c r="B918" s="23"/>
       <c r="C918" s="23"/>
@@ -27114,7 +27256,7 @@
       <c r="X918" s="23"/>
       <c r="Y918" s="23"/>
     </row>
-    <row r="919" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A919" s="23"/>
       <c r="B919" s="23"/>
       <c r="C919" s="23"/>
@@ -27141,7 +27283,7 @@
       <c r="X919" s="23"/>
       <c r="Y919" s="23"/>
     </row>
-    <row r="920" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A920" s="23"/>
       <c r="B920" s="23"/>
       <c r="C920" s="23"/>
@@ -27168,7 +27310,7 @@
       <c r="X920" s="23"/>
       <c r="Y920" s="23"/>
     </row>
-    <row r="921" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A921" s="23"/>
       <c r="B921" s="23"/>
       <c r="C921" s="23"/>
@@ -27195,7 +27337,7 @@
       <c r="X921" s="23"/>
       <c r="Y921" s="23"/>
     </row>
-    <row r="922" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A922" s="23"/>
       <c r="B922" s="23"/>
       <c r="C922" s="23"/>
@@ -27222,7 +27364,7 @@
       <c r="X922" s="23"/>
       <c r="Y922" s="23"/>
     </row>
-    <row r="923" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A923" s="23"/>
       <c r="B923" s="23"/>
       <c r="C923" s="23"/>
@@ -27249,7 +27391,7 @@
       <c r="X923" s="23"/>
       <c r="Y923" s="23"/>
     </row>
-    <row r="924" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A924" s="23"/>
       <c r="B924" s="23"/>
       <c r="C924" s="23"/>
@@ -27276,7 +27418,7 @@
       <c r="X924" s="23"/>
       <c r="Y924" s="23"/>
     </row>
-    <row r="925" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A925" s="23"/>
       <c r="B925" s="23"/>
       <c r="C925" s="23"/>
@@ -27303,7 +27445,7 @@
       <c r="X925" s="23"/>
       <c r="Y925" s="23"/>
     </row>
-    <row r="926" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A926" s="23"/>
       <c r="B926" s="23"/>
       <c r="C926" s="23"/>
@@ -27330,7 +27472,7 @@
       <c r="X926" s="23"/>
       <c r="Y926" s="23"/>
     </row>
-    <row r="927" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A927" s="23"/>
       <c r="B927" s="23"/>
       <c r="C927" s="23"/>
@@ -27357,7 +27499,7 @@
       <c r="X927" s="23"/>
       <c r="Y927" s="23"/>
     </row>
-    <row r="928" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A928" s="23"/>
       <c r="B928" s="23"/>
       <c r="C928" s="23"/>
@@ -27384,7 +27526,7 @@
       <c r="X928" s="23"/>
       <c r="Y928" s="23"/>
     </row>
-    <row r="929" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="929" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A929" s="23"/>
       <c r="B929" s="23"/>
       <c r="C929" s="23"/>
@@ -27411,7 +27553,7 @@
       <c r="X929" s="23"/>
       <c r="Y929" s="23"/>
     </row>
-    <row r="930" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="930" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A930" s="23"/>
       <c r="B930" s="23"/>
       <c r="C930" s="23"/>
@@ -27438,7 +27580,7 @@
       <c r="X930" s="23"/>
       <c r="Y930" s="23"/>
     </row>
-    <row r="931" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A931" s="23"/>
       <c r="B931" s="23"/>
       <c r="C931" s="23"/>
@@ -27465,7 +27607,7 @@
       <c r="X931" s="23"/>
       <c r="Y931" s="23"/>
     </row>
-    <row r="932" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A932" s="23"/>
       <c r="B932" s="23"/>
       <c r="C932" s="23"/>
@@ -27492,7 +27634,7 @@
       <c r="X932" s="23"/>
       <c r="Y932" s="23"/>
     </row>
-    <row r="933" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="933" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A933" s="23"/>
       <c r="B933" s="23"/>
       <c r="C933" s="23"/>
@@ -27519,7 +27661,7 @@
       <c r="X933" s="23"/>
       <c r="Y933" s="23"/>
     </row>
-    <row r="934" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A934" s="23"/>
       <c r="B934" s="23"/>
       <c r="C934" s="23"/>
@@ -27546,7 +27688,7 @@
       <c r="X934" s="23"/>
       <c r="Y934" s="23"/>
     </row>
-    <row r="935" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="935" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A935" s="23"/>
       <c r="B935" s="23"/>
       <c r="C935" s="23"/>
@@ -27573,7 +27715,7 @@
       <c r="X935" s="23"/>
       <c r="Y935" s="23"/>
     </row>
-    <row r="936" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="936" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A936" s="23"/>
       <c r="B936" s="23"/>
       <c r="C936" s="23"/>
@@ -27600,7 +27742,7 @@
       <c r="X936" s="23"/>
       <c r="Y936" s="23"/>
     </row>
-    <row r="937" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="937" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A937" s="23"/>
       <c r="B937" s="23"/>
       <c r="C937" s="23"/>
@@ -27627,7 +27769,7 @@
       <c r="X937" s="23"/>
       <c r="Y937" s="23"/>
     </row>
-    <row r="938" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A938" s="23"/>
       <c r="B938" s="23"/>
       <c r="C938" s="23"/>
@@ -27654,7 +27796,7 @@
       <c r="X938" s="23"/>
       <c r="Y938" s="23"/>
     </row>
-    <row r="939" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A939" s="23"/>
       <c r="B939" s="23"/>
       <c r="C939" s="23"/>
@@ -27681,7 +27823,7 @@
       <c r="X939" s="23"/>
       <c r="Y939" s="23"/>
     </row>
-    <row r="940" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="940" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A940" s="23"/>
       <c r="B940" s="23"/>
       <c r="C940" s="23"/>
@@ -27708,7 +27850,7 @@
       <c r="X940" s="23"/>
       <c r="Y940" s="23"/>
     </row>
-    <row r="941" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="941" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A941" s="23"/>
       <c r="B941" s="23"/>
       <c r="C941" s="23"/>
@@ -27735,7 +27877,7 @@
       <c r="X941" s="23"/>
       <c r="Y941" s="23"/>
     </row>
-    <row r="942" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A942" s="23"/>
       <c r="B942" s="23"/>
       <c r="C942" s="23"/>
@@ -27762,7 +27904,7 @@
       <c r="X942" s="23"/>
       <c r="Y942" s="23"/>
     </row>
-    <row r="943" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A943" s="23"/>
       <c r="B943" s="23"/>
       <c r="C943" s="23"/>
@@ -27789,7 +27931,7 @@
       <c r="X943" s="23"/>
       <c r="Y943" s="23"/>
     </row>
-    <row r="944" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="944" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A944" s="23"/>
       <c r="B944" s="23"/>
       <c r="C944" s="23"/>
@@ -27816,7 +27958,7 @@
       <c r="X944" s="23"/>
       <c r="Y944" s="23"/>
     </row>
-    <row r="945" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="945" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A945" s="23"/>
       <c r="B945" s="23"/>
       <c r="C945" s="23"/>
@@ -27843,7 +27985,7 @@
       <c r="X945" s="23"/>
       <c r="Y945" s="23"/>
     </row>
-    <row r="946" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="946" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A946" s="23"/>
       <c r="B946" s="23"/>
       <c r="C946" s="23"/>
@@ -27870,7 +28012,7 @@
       <c r="X946" s="23"/>
       <c r="Y946" s="23"/>
     </row>
-    <row r="947" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="947" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A947" s="23"/>
       <c r="B947" s="23"/>
       <c r="C947" s="23"/>
@@ -27897,7 +28039,7 @@
       <c r="X947" s="23"/>
       <c r="Y947" s="23"/>
     </row>
-    <row r="948" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="948" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A948" s="23"/>
       <c r="B948" s="23"/>
       <c r="C948" s="23"/>
@@ -27924,7 +28066,7 @@
       <c r="X948" s="23"/>
       <c r="Y948" s="23"/>
     </row>
-    <row r="949" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A949" s="23"/>
       <c r="B949" s="23"/>
       <c r="C949" s="23"/>
@@ -27951,7 +28093,7 @@
       <c r="X949" s="23"/>
       <c r="Y949" s="23"/>
     </row>
-    <row r="950" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A950" s="23"/>
       <c r="B950" s="23"/>
       <c r="C950" s="23"/>
@@ -27978,7 +28120,7 @@
       <c r="X950" s="23"/>
       <c r="Y950" s="23"/>
     </row>
-    <row r="951" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="951" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A951" s="23"/>
       <c r="B951" s="23"/>
       <c r="C951" s="23"/>
@@ -28005,7 +28147,7 @@
       <c r="X951" s="23"/>
       <c r="Y951" s="23"/>
     </row>
-    <row r="952" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A952" s="23"/>
       <c r="B952" s="23"/>
       <c r="C952" s="23"/>
@@ -28032,7 +28174,7 @@
       <c r="X952" s="23"/>
       <c r="Y952" s="23"/>
     </row>
-    <row r="953" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A953" s="23"/>
       <c r="B953" s="23"/>
       <c r="C953" s="23"/>
@@ -28059,7 +28201,7 @@
       <c r="X953" s="23"/>
       <c r="Y953" s="23"/>
     </row>
-    <row r="954" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A954" s="23"/>
       <c r="B954" s="23"/>
       <c r="C954" s="23"/>
@@ -28086,7 +28228,7 @@
       <c r="X954" s="23"/>
       <c r="Y954" s="23"/>
     </row>
-    <row r="955" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="955" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A955" s="23"/>
       <c r="B955" s="23"/>
       <c r="C955" s="23"/>
@@ -28113,7 +28255,7 @@
       <c r="X955" s="23"/>
       <c r="Y955" s="23"/>
     </row>
-    <row r="956" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="956" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A956" s="23"/>
       <c r="B956" s="23"/>
       <c r="C956" s="23"/>
@@ -28140,7 +28282,7 @@
       <c r="X956" s="23"/>
       <c r="Y956" s="23"/>
     </row>
-    <row r="957" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="957" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A957" s="23"/>
       <c r="B957" s="23"/>
       <c r="C957" s="23"/>
@@ -28167,7 +28309,7 @@
       <c r="X957" s="23"/>
       <c r="Y957" s="23"/>
     </row>
-    <row r="958" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="958" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A958" s="23"/>
       <c r="B958" s="23"/>
       <c r="C958" s="23"/>
@@ -28194,7 +28336,7 @@
       <c r="X958" s="23"/>
       <c r="Y958" s="23"/>
     </row>
-    <row r="959" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="959" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A959" s="23"/>
       <c r="B959" s="23"/>
       <c r="C959" s="23"/>
@@ -28221,7 +28363,7 @@
       <c r="X959" s="23"/>
       <c r="Y959" s="23"/>
     </row>
-    <row r="960" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="960" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A960" s="23"/>
       <c r="B960" s="23"/>
       <c r="C960" s="23"/>
@@ -28248,7 +28390,7 @@
       <c r="X960" s="23"/>
       <c r="Y960" s="23"/>
     </row>
-    <row r="961" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A961" s="23"/>
       <c r="B961" s="23"/>
       <c r="C961" s="23"/>
@@ -28275,7 +28417,7 @@
       <c r="X961" s="23"/>
       <c r="Y961" s="23"/>
     </row>
-    <row r="962" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A962" s="23"/>
       <c r="B962" s="23"/>
       <c r="C962" s="23"/>
@@ -28302,7 +28444,7 @@
       <c r="X962" s="23"/>
       <c r="Y962" s="23"/>
     </row>
-    <row r="963" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="963" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A963" s="23"/>
       <c r="B963" s="23"/>
       <c r="C963" s="23"/>
@@ -28329,7 +28471,7 @@
       <c r="X963" s="23"/>
       <c r="Y963" s="23"/>
     </row>
-    <row r="964" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="964" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A964" s="23"/>
       <c r="B964" s="23"/>
       <c r="C964" s="23"/>
@@ -28356,7 +28498,7 @@
       <c r="X964" s="23"/>
       <c r="Y964" s="23"/>
     </row>
-    <row r="965" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A965" s="23"/>
       <c r="B965" s="23"/>
       <c r="C965" s="23"/>
@@ -28383,7 +28525,7 @@
       <c r="X965" s="23"/>
       <c r="Y965" s="23"/>
     </row>
-    <row r="966" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A966" s="23"/>
       <c r="B966" s="23"/>
       <c r="C966" s="23"/>
@@ -28410,7 +28552,7 @@
       <c r="X966" s="23"/>
       <c r="Y966" s="23"/>
     </row>
-    <row r="967" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="967" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A967" s="23"/>
       <c r="B967" s="23"/>
       <c r="C967" s="23"/>
@@ -28437,7 +28579,7 @@
       <c r="X967" s="23"/>
       <c r="Y967" s="23"/>
     </row>
-    <row r="968" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="968" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A968" s="23"/>
       <c r="B968" s="23"/>
       <c r="C968" s="23"/>
@@ -28464,7 +28606,7 @@
       <c r="X968" s="23"/>
       <c r="Y968" s="23"/>
     </row>
-    <row r="969" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="969" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A969" s="23"/>
       <c r="B969" s="23"/>
       <c r="C969" s="23"/>
@@ -28491,7 +28633,7 @@
       <c r="X969" s="23"/>
       <c r="Y969" s="23"/>
     </row>
-    <row r="970" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="970" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A970" s="23"/>
       <c r="B970" s="23"/>
       <c r="C970" s="23"/>
@@ -28518,7 +28660,7 @@
       <c r="X970" s="23"/>
       <c r="Y970" s="23"/>
     </row>
-    <row r="971" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="971" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A971" s="23"/>
       <c r="B971" s="23"/>
       <c r="C971" s="23"/>
@@ -28545,7 +28687,7 @@
       <c r="X971" s="23"/>
       <c r="Y971" s="23"/>
     </row>
-    <row r="972" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A972" s="23"/>
       <c r="B972" s="23"/>
       <c r="C972" s="23"/>
@@ -28572,7 +28714,7 @@
       <c r="X972" s="23"/>
       <c r="Y972" s="23"/>
     </row>
-    <row r="973" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A973" s="23"/>
       <c r="B973" s="23"/>
       <c r="C973" s="23"/>
@@ -28599,7 +28741,7 @@
       <c r="X973" s="23"/>
       <c r="Y973" s="23"/>
     </row>
-    <row r="974" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="974" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A974" s="23"/>
       <c r="B974" s="23"/>
       <c r="C974" s="23"/>
@@ -28626,7 +28768,7 @@
       <c r="X974" s="23"/>
       <c r="Y974" s="23"/>
     </row>
-    <row r="975" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="975" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A975" s="23"/>
       <c r="B975" s="23"/>
       <c r="C975" s="23"/>
@@ -28653,7 +28795,7 @@
       <c r="X975" s="23"/>
       <c r="Y975" s="23"/>
     </row>
-    <row r="976" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A976" s="23"/>
       <c r="B976" s="23"/>
       <c r="C976" s="23"/>
@@ -28680,7 +28822,7 @@
       <c r="X976" s="23"/>
       <c r="Y976" s="23"/>
     </row>
-    <row r="977" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A977" s="23"/>
       <c r="B977" s="23"/>
       <c r="C977" s="23"/>
@@ -28707,7 +28849,7 @@
       <c r="X977" s="23"/>
       <c r="Y977" s="23"/>
     </row>
-    <row r="978" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A978" s="23"/>
       <c r="B978" s="23"/>
       <c r="C978" s="23"/>
@@ -28734,7 +28876,7 @@
       <c r="X978" s="23"/>
       <c r="Y978" s="23"/>
     </row>
-    <row r="979" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="979" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A979" s="23"/>
       <c r="B979" s="23"/>
       <c r="C979" s="23"/>
@@ -28761,7 +28903,7 @@
       <c r="X979" s="23"/>
       <c r="Y979" s="23"/>
     </row>
-    <row r="980" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A980" s="23"/>
       <c r="B980" s="23"/>
       <c r="C980" s="23"/>
@@ -28788,7 +28930,7 @@
       <c r="X980" s="23"/>
       <c r="Y980" s="23"/>
     </row>
-    <row r="981" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="981" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A981" s="23"/>
       <c r="B981" s="23"/>
       <c r="C981" s="23"/>
@@ -28815,7 +28957,7 @@
       <c r="X981" s="23"/>
       <c r="Y981" s="23"/>
     </row>
-    <row r="982" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="982" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A982" s="23"/>
       <c r="B982" s="23"/>
       <c r="C982" s="23"/>
@@ -28842,7 +28984,7 @@
       <c r="X982" s="23"/>
       <c r="Y982" s="23"/>
     </row>
-    <row r="983" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A983" s="23"/>
       <c r="B983" s="23"/>
       <c r="C983" s="23"/>
@@ -28869,7 +29011,7 @@
       <c r="X983" s="23"/>
       <c r="Y983" s="23"/>
     </row>
-    <row r="984" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A984" s="23"/>
       <c r="B984" s="23"/>
       <c r="C984" s="23"/>
@@ -28896,7 +29038,7 @@
       <c r="X984" s="23"/>
       <c r="Y984" s="23"/>
     </row>
-    <row r="985" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A985" s="23"/>
       <c r="B985" s="23"/>
       <c r="C985" s="23"/>
@@ -28923,7 +29065,7 @@
       <c r="X985" s="23"/>
       <c r="Y985" s="23"/>
     </row>
-    <row r="986" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="986" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A986" s="23"/>
       <c r="B986" s="23"/>
       <c r="C986" s="23"/>
@@ -28950,7 +29092,7 @@
       <c r="X986" s="23"/>
       <c r="Y986" s="23"/>
     </row>
-    <row r="987" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="987" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A987" s="23"/>
       <c r="B987" s="23"/>
       <c r="C987" s="23"/>
@@ -28978,9 +29120,9 @@
       <c r="Y987" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G987" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A1:G987">
     <filterColumn colId="0">
-      <filters blank="1">
+      <filters>
         <filter val="Manual"/>
       </filters>
     </filterColumn>
@@ -29009,15 +29151,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>163830</xdr:colOff>
+                <xdr:colOff>165100</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>87630</xdr:rowOff>
+                <xdr:rowOff>88900</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>1573530</xdr:colOff>
+                <xdr:colOff>1574800</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>601980</xdr:rowOff>
+                <xdr:rowOff>596900</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -29034,15 +29176,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>163830</xdr:colOff>
+                <xdr:colOff>165100</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>868680</xdr:rowOff>
+                <xdr:rowOff>863600</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>1348740</xdr:colOff>
+                <xdr:colOff>1346200</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>1383030</xdr:rowOff>
+                <xdr:rowOff>1384300</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/Team2_Defect_Tracking_Log.xlsx
+++ b/Team2_Defect_Tracking_Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priti\Desktop\CS673-SoftwareEngg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syu\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E55DAE7-6206-4E9F-8F1F-38E01C196BE1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defect Tracking Log" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="136">
   <si>
     <t>Defect Tracking Log Instructions</t>
   </si>
@@ -390,10 +391,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Application Backend--test_sprint_controller</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>medium</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -667,6 +664,43 @@
     </r>
   </si>
   <si>
+    <t>partly pass</t>
+  </si>
+  <si>
+    <t>https://github.com/FangjiZhou/CS673-Team2/issues/2</t>
+  </si>
+  <si>
+    <t>https://github.com/FangjiZhou/CS673-Team2/issues/3</t>
+  </si>
+  <si>
+    <t>Application Backend--test_employee_controller</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>app/api_module/test_employee_controller.py</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>User 
+Company
+Role
+Team</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application Backend--test_issue_controller</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>app/api_module/test_issue_controller.py</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project
+Employee</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>Login through admin user id
 1. Test for user login with valid user credential
 2. Test for user login with invalid user credential
@@ -676,6 +710,15 @@
 - Login through admin username and password 
 - Filter on Company id
 6. Test to get list of all the projects under an employee</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login through admin user id
+1. Test for issue creation
+2. Test for issue update
+3. Test for getting all issues
+4. Test for getting one issue</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - Login with valid creadential returns a status code of 200.
@@ -684,21 +727,45 @@
  - New project is an instance of Project class
  - Got the list of all projects under a company.
 - 6th testcase failed as currently there is no relationship between projects and employee tables.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>partly pass</t>
+    <t>1. Employee creation fails with a status code of 401
+2. Employee creation fails with a status code of 401
+3. Employee creation fails with a status code of 401
+4. Employee creation fails with a status code of 401
+5. Employee creation succeeds with a status code of 200
+6. List of all employees gets returned
+7. The inmformation of the employee gets returned
+8. List of all employees of a company gets returned
+9. List of all employees of a team gets returned</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/FangjiZhou/CS673-Team2/issues/2</t>
+    <t>1. Issue creation succeeds with a status code of 200
+2. Issue update succeeds with a status code of 200
+3. List of all issues gets returned
+7. The information of the issue gets returned</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/FangjiZhou/CS673-Team2/issues/3</t>
+    <t>Login through admin user id
+1. Test for employee creation with invalid user
+2. Test for employee creation with invalid role
+3. Test for employee creation with invalid team
+4. Test for employee creation with invalid company
+5. Test for employee creation (badgeA)
+6. Test for getting all employees
+7. Test for getting one employee
+8. Test for getting all employee of a company
+9. Test for getting all employee of a team</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="10"/>
@@ -1088,6 +1155,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1108,17 +1182,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1248,15 +1315,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>168758</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>86967</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>1571625</xdr:colOff>
+          <xdr:colOff>1468921</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>600075</xdr:rowOff>
+          <xdr:rowOff>606080</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1309,9 +1376,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>1343025</xdr:colOff>
+          <xdr:colOff>1257300</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>1381125</xdr:rowOff>
+          <xdr:rowOff>1385888</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1371,7 +1438,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B3200E-B604-4C6C-AC22-3C10CA8B8760}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1488,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB581A0-BE43-4397-A155-C6217ADD98A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1538,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5370A6-AD90-47F9-B125-6121CF871A59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,7 +1588,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D89DD1-C8B2-4F62-8F8A-47C535B69809}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1638,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A084E51E-A45E-4100-8DF6-C6E441C41DF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1688,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A735560F-7D6C-4E1B-B669-A8E53D725CEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1735,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1702,9 +1775,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>1504950</xdr:colOff>
+          <xdr:colOff>1495425</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>638175</xdr:rowOff>
+          <xdr:rowOff>642938</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1712,6 +1785,119 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000060C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>1238250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1657350</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>1752600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3079" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000070C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>25977</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>458932</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>2226252</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>978045</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3081" name="Object 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D921F28-74D6-4347-915C-4D44C739EF7A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1761,22 +1947,161 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>1238250</xdr:rowOff>
+          <xdr:colOff>69272</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>1177637</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>1657350</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>1752600</xdr:rowOff>
+          <xdr:colOff>1502785</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>1696750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3079" name="Object 7" hidden="1">
+            <xdr:cNvPr id="3082" name="Object 10" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3079"/>
+                  <a14:compatExt spid="_x0000_s3082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D63DD84-69B9-401F-8018-8726B86C7653}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1890713</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>519113</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3083" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D691336-1C0C-4A64-9543-38EFB2E3F488}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>8659</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>658091</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1133908</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>1177204</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3084" name="Object 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F98B66D-D2D6-4390-8604-0D9BC7E46575}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2086,7 +2411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
@@ -2095,51 +2420,51 @@
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" customWidth="1"/>
+    <col min="3" max="4" width="15.265625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" customWidth="1"/>
+    <col min="8" max="8" width="12.1328125" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.73046875" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" customWidth="1"/>
+    <col min="12" max="12" width="15.3984375" customWidth="1"/>
+    <col min="13" max="14" width="10.3984375" customWidth="1"/>
+    <col min="15" max="15" width="7.86328125" customWidth="1"/>
+    <col min="16" max="16" width="11.265625" customWidth="1"/>
+    <col min="17" max="17" width="11.3984375" customWidth="1"/>
     <col min="18" max="18" width="8" customWidth="1"/>
     <col min="19" max="19" width="8" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="0.140625" hidden="1" customWidth="1"/>
-    <col min="21" max="25" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="0.1328125" hidden="1" customWidth="1"/>
+    <col min="21" max="25" width="8.86328125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="0.1328125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="8" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="0.1328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:25" ht="12" customHeight="1"/>
     <row r="3" spans="1:25" ht="15" customHeight="1">
@@ -2170,45 +2495,45 @@
     </row>
     <row r="5" spans="1:25" ht="12" customHeight="1"/>
     <row r="6" spans="1:25" ht="37.5" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="1:25" ht="12" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
     </row>
     <row r="8" spans="1:25" ht="12.75" customHeight="1"/>
     <row r="9" spans="1:25" ht="39" customHeight="1">
@@ -2285,7 +2610,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2296,17 +2621,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.3984375" customWidth="1"/>
+    <col min="2" max="2" width="58.3984375" customWidth="1"/>
     <col min="3" max="12" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2373,7 +2698,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -2381,57 +2706,57 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A11" s="33"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A12" s="33"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1">
-      <c r="A13" s="33"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A14" s="34"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="24">
-      <c r="A16" s="33"/>
+    <row r="16" spans="1:2" ht="23.25">
+      <c r="A16" s="36"/>
       <c r="B16" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="24">
-      <c r="A17" s="33"/>
+    <row r="17" spans="1:2" ht="23.25">
+      <c r="A17" s="36"/>
       <c r="B17" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="24.75" customHeight="1">
-      <c r="A18" s="33"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="24">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:2" ht="23.25">
+      <c r="A19" s="37"/>
       <c r="B19" s="12" t="s">
         <v>53</v>
       </c>
@@ -2516,34 +2841,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" style="24" customWidth="1"/>
     <col min="3" max="3" width="15" style="24" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="20.265625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="32.265625" style="24" customWidth="1"/>
     <col min="7" max="7" width="25" style="24" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" style="17" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="17" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="24" customWidth="1"/>
-    <col min="14" max="16384" width="14.42578125" style="24"/>
+    <col min="8" max="8" width="34.73046875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="24.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.73046875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="10.86328125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="11.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.73046875" style="24" customWidth="1"/>
+    <col min="14" max="16384" width="14.3984375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15">
+    <row r="1" spans="1:25" ht="14.25">
       <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
@@ -2662,7 +2987,7 @@
         <v>78</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>80</v>
@@ -2705,32 +3030,32 @@
         <v>74</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>77</v>
       </c>
       <c r="F4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="I4" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>90</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
@@ -2747,76 +3072,76 @@
     </row>
     <row r="5" spans="1:25" ht="74.099999999999994" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="19">
         <v>1.4</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="17" t="s">
+      <c r="L5" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="6" spans="1:25" s="21" customFormat="1" ht="171.95" customHeight="1">
       <c r="A6" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="19">
         <v>1.5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>107</v>
-      </c>
       <c r="I6" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
@@ -2831,7 +3156,7 @@
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
     </row>
-    <row r="7" spans="1:25" s="21" customFormat="1" ht="216.75">
+    <row r="7" spans="1:25" s="21" customFormat="1" ht="191.25">
       <c r="A7" s="19" t="s">
         <v>71</v>
       </c>
@@ -2842,29 +3167,29 @@
         <v>35</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>115</v>
-      </c>
       <c r="H7" s="20" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
@@ -2881,67 +3206,89 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="1:25" s="21" customFormat="1" ht="225" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="27">
         <v>1.7</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="F8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="38" t="s">
+      <c r="I8" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="J8" s="26"/>
+      <c r="K8" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37" t="s">
+      <c r="L8" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="37" t="s">
-        <v>121</v>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+    </row>
+    <row r="9" spans="1:25" s="21" customFormat="1" ht="242.25">
+      <c r="A9" s="27" t="s">
+        <v>71</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-    </row>
-    <row r="9" spans="1:25" s="21" customFormat="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="B9" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="18"/>
+      <c r="K9" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>120</v>
+      </c>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
@@ -2956,19 +3303,41 @@
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
     </row>
-    <row r="10" spans="1:25" s="21" customFormat="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="19"/>
+    <row r="10" spans="1:25" s="21" customFormat="1" ht="102">
+      <c r="A10" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="27">
+        <v>1.9</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>134</v>
+      </c>
       <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="18"/>
+      <c r="K10" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>120</v>
+      </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
@@ -29363,24 +29732,6 @@
       <c r="Y987" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G987">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Manual"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="1.10.1"/>
-        <filter val="1.6.1"/>
-        <filter val="1.6.2"/>
-        <filter val="1.7.1"/>
-        <filter val="1.8.1"/>
-        <filter val="1.9.1"/>
-        <filter val="1.9.2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29400,9 +29751,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>1571625</xdr:colOff>
+                <xdr:colOff>1462088</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>600075</xdr:rowOff>
+                <xdr:rowOff>604838</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -29425,9 +29776,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>1343025</xdr:colOff>
+                <xdr:colOff>1257300</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>1381125</xdr:rowOff>
+                <xdr:rowOff>1385888</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -29450,9 +29801,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>1504950</xdr:colOff>
+                <xdr:colOff>1495425</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>638175</xdr:rowOff>
+                <xdr:rowOff>642938</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -29477,7 +29828,7 @@
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>1657350</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>1752600</xdr:rowOff>
+                <xdr:rowOff>1757363</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -29487,6 +29838,106 @@
         <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="3079" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="パッケージャー シェル オブジェクト" shapeId="3081" r:id="rId12">
+          <objectPr defaultSize="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>23813</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>457200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>2224088</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>976313</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="パッケージャー シェル オブジェクト" shapeId="3081" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="パッケージャー シェル オブジェクト" shapeId="3082" r:id="rId14">
+          <objectPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>71438</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>1176338</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1504950</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>1695450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="パッケージャー シェル オブジェクト" shapeId="3082" r:id="rId14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="パッケージャー シェル オブジェクト" shapeId="3083" r:id="rId16">
+          <objectPr defaultSize="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1890713</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>519113</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="パッケージャー シェル オブジェクト" shapeId="3083" r:id="rId16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="パッケージャー シェル オブジェクト" shapeId="3084" r:id="rId18">
+          <objectPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>657225</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1133475</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>1176338</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="パッケージャー シェル オブジェクト" shapeId="3084" r:id="rId18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/Team2_Defect_Tracking_Log.xlsx
+++ b/Team2_Defect_Tracking_Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syu\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priti\Desktop\CS673-SoftwareEngg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E55DAE7-6206-4E9F-8F1F-38E01C196BE1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Defect Tracking Log" sheetId="1" r:id="rId1"/>
@@ -562,9 +561,6 @@
     <t>medium</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
     <r>
       <t>Application Backend--test_com</t>
     </r>
@@ -761,11 +757,14 @@
 9. Test for getting all employee of a team</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">Company </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="10"/>
@@ -1184,8 +1183,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,15 +1314,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>168758</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>86967</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>1468921</xdr:colOff>
+          <xdr:colOff>1466850</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>606080</xdr:rowOff>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1378,7 +1377,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>1257300</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>1385888</xdr:rowOff>
+          <xdr:rowOff>1390650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1777,7 +1776,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>1495425</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>642938</xdr:rowOff>
+          <xdr:rowOff>647700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1832,7 +1831,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>1657350</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>1752600</xdr:rowOff>
+          <xdr:rowOff>1762125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1879,15 +1878,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>25977</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>458932</xdr:rowOff>
+          <xdr:rowOff>457200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>2226252</xdr:colOff>
+          <xdr:colOff>2228850</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>978045</xdr:rowOff>
+          <xdr:rowOff>981075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1918,23 +1917,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1947,15 +1933,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>69272</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>1177637</xdr:rowOff>
+          <xdr:rowOff>1181100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>1502785</xdr:colOff>
+          <xdr:colOff>1504950</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>1696750</xdr:rowOff>
+          <xdr:rowOff>1695450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1986,23 +1972,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2021,9 +1994,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>1890713</xdr:colOff>
+          <xdr:colOff>1895475</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>519113</xdr:rowOff>
+          <xdr:rowOff>523875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2054,23 +2027,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2083,15 +2043,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>8659</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>658091</xdr:rowOff>
+          <xdr:rowOff>657225</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>1133908</xdr:colOff>
+          <xdr:colOff>1133475</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>1177204</xdr:rowOff>
+          <xdr:rowOff>1181100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2122,23 +2082,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2411,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
@@ -2420,30 +2367,30 @@
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.1328125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="15.265625" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" customWidth="1"/>
-    <col min="7" max="7" width="8.86328125" customWidth="1"/>
-    <col min="8" max="8" width="12.1328125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="11.73046875" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" customWidth="1"/>
-    <col min="12" max="12" width="15.3984375" customWidth="1"/>
-    <col min="13" max="14" width="10.3984375" customWidth="1"/>
-    <col min="15" max="15" width="7.86328125" customWidth="1"/>
-    <col min="16" max="16" width="11.265625" customWidth="1"/>
-    <col min="17" max="17" width="11.3984375" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
     <col min="18" max="18" width="8" customWidth="1"/>
     <col min="19" max="19" width="8" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="0.1328125" hidden="1" customWidth="1"/>
-    <col min="21" max="25" width="8.86328125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="0.1328125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="21" max="25" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="0.140625" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="8" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="0.1328125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="19.5" customHeight="1">
@@ -2610,7 +2557,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2621,17 +2568,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" customWidth="1"/>
-    <col min="2" max="2" width="58.3984375" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
     <col min="3" max="12" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2737,13 +2684,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="23.25">
+    <row r="16" spans="1:2" ht="24">
       <c r="A16" s="36"/>
       <c r="B16" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="23.25">
+    <row r="17" spans="1:2" ht="24">
       <c r="A17" s="36"/>
       <c r="B17" s="12" t="s">
         <v>50</v>
@@ -2755,7 +2702,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="23.25">
+    <row r="19" spans="1:2" ht="24">
       <c r="A19" s="37"/>
       <c r="B19" s="12" t="s">
         <v>53</v>
@@ -2841,34 +2788,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y987"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.73046875" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="24" customWidth="1"/>
     <col min="3" max="3" width="15" style="24" customWidth="1"/>
-    <col min="4" max="4" width="20.265625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="32.265625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="24" customWidth="1"/>
     <col min="7" max="7" width="25" style="24" customWidth="1"/>
-    <col min="8" max="8" width="34.73046875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="24.3984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.73046875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="10.86328125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="11.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.73046875" style="24" customWidth="1"/>
-    <col min="14" max="16384" width="14.3984375" style="24"/>
+    <col min="8" max="8" width="34.7109375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="24" customWidth="1"/>
+    <col min="14" max="16384" width="14.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.25">
+    <row r="1" spans="1:25" ht="15">
       <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
@@ -2970,7 +2917,7 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="1:25" s="21" customFormat="1" ht="191.25">
+    <row r="3" spans="1:25" s="21" customFormat="1" ht="204">
       <c r="A3" s="19" t="s">
         <v>71</v>
       </c>
@@ -3138,7 +3085,7 @@
         <v>109</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>110</v>
@@ -3156,7 +3103,7 @@
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
     </row>
-    <row r="7" spans="1:25" s="21" customFormat="1" ht="191.25">
+    <row r="7" spans="1:25" s="21" customFormat="1" ht="216.75">
       <c r="A7" s="19" t="s">
         <v>71</v>
       </c>
@@ -3176,20 +3123,20 @@
         <v>113</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
@@ -3216,10 +3163,10 @@
         <v>35</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>113</v>
@@ -3228,17 +3175,17 @@
         <v>72</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
@@ -3265,29 +3212,29 @@
         <v>35</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>113</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
@@ -3314,29 +3261,29 @@
         <v>35</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>113</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
@@ -29751,9 +29698,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>1462088</xdr:colOff>
+                <xdr:colOff>1466850</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>604838</xdr:rowOff>
+                <xdr:rowOff>609600</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -29778,7 +29725,7 @@
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>1257300</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>1385888</xdr:rowOff>
+                <xdr:rowOff>1390650</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -29803,7 +29750,7 @@
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>1495425</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>642938</xdr:rowOff>
+                <xdr:rowOff>647700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -29828,7 +29775,7 @@
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>1657350</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>1757363</xdr:rowOff>
+                <xdr:rowOff>1762125</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -29845,15 +29792,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>23813</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>457200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>2224088</xdr:colOff>
+                <xdr:colOff>2228850</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>976313</xdr:rowOff>
+                <xdr:rowOff>981075</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -29870,9 +29817,9 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>71438</xdr:colOff>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>1176338</xdr:rowOff>
+                <xdr:rowOff>1181100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
@@ -29901,9 +29848,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>1890713</xdr:colOff>
+                <xdr:colOff>1895475</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>519113</xdr:rowOff>
+                <xdr:rowOff>523875</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -29928,7 +29875,7 @@
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>1133475</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>1176338</xdr:rowOff>
+                <xdr:rowOff>1181100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
